--- a/mymap/jsons/GenderGap_Find4Hourglass.xlsx
+++ b/mymap/jsons/GenderGap_Find4Hourglass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="9380" windowWidth="35160" windowHeight="19120" tabRatio="500"/>
+    <workbookView xWindow="340" yWindow="0" windowWidth="27340" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Total_W2E" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="180">
   <si>
     <t xml:space="preserve">Labour force participation                              </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -677,6 +677,39 @@
   <si>
     <t>GDP(PPP),per/capita(US$)</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">Enrollment in tertiary education                         </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">Enrollment in secondary education                   </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF231F20"/>
+        <rFont val="Menlo Regular"/>
+      </rPr>
+      <t xml:space="preserve">Enrollment in primary education                       </t>
+    </r>
+  </si>
+  <si>
+    <t>Female-to-male ratio (0.00 = INEQUALITY 1.00 = EQUALITY)</t>
+  </si>
 </sst>
 </file>
 
@@ -1086,7 +1119,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="139">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1196,6 +1229,8 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1509,6 +1544,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1519,33 +1566,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1563,8 +1583,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1581,29 +1631,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="139">
+  <cellStyles count="141">
     <cellStyle name="Bad" xfId="107" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="108" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1673,6 +1708,7 @@
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="106" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1741,6 +1777,7 @@
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="105"/>
   </cellStyles>
@@ -2117,11 +2154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="-2087832456"/>
-        <c:axId val="-2087825672"/>
+        <c:axId val="-2143831784"/>
+        <c:axId val="-2143828104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087832456"/>
+        <c:axId val="-2143831784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2130,7 +2167,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087825672"/>
+        <c:crossAx val="-2143828104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2138,7 +2175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087825672"/>
+        <c:axId val="-2143828104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2154,7 +2191,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2087832456"/>
+        <c:crossAx val="-2143831784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2360,7 +2397,6 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2370,11 +2406,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071686168"/>
-        <c:axId val="-2071625032"/>
+        <c:axId val="-2143774072"/>
+        <c:axId val="-2143653016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071686168"/>
+        <c:axId val="-2143774072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2419,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071625032"/>
+        <c:crossAx val="-2143653016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2391,7 +2427,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071625032"/>
+        <c:axId val="-2143653016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2402,7 +2438,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2071686168"/>
+        <c:crossAx val="-2143774072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2828,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2858,37 +2894,37 @@
     <row r="1" spans="1:27" ht="34" customHeight="1">
       <c r="A1" s="97"/>
       <c r="B1" s="97"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="112" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="112" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -2898,16 +2934,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="129" t="s">
+      <c r="X1" s="101" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="113" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2927,13 +2963,13 @@
         <v>38</v>
       </c>
       <c r="L2" s="89" t="s">
-        <v>39</v>
+        <v>178</v>
       </c>
       <c r="M2" s="89" t="s">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="N2" s="89" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>42</v>
@@ -2962,7 +2998,7 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="129" t="s">
+      <c r="X2" s="101" t="s">
         <v>171</v>
       </c>
       <c r="Y2" s="72" t="s">
@@ -2976,13 +3012,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="113" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="99">
-        <v>1</v>
-      </c>
-      <c r="C3" s="102" t="s">
+      <c r="A3" s="110" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="92">
@@ -3045,14 +3081,14 @@
       <c r="W3" s="72">
         <v>31</v>
       </c>
-      <c r="X3" s="129" t="s">
+      <c r="X3" s="101" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="114"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="102"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="92">
         <v>2010</v>
       </c>
@@ -3113,14 +3149,14 @@
       <c r="W4" s="71">
         <v>28</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="101" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="114"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -3181,12 +3217,12 @@
       <c r="W5" s="71">
         <v>28</v>
       </c>
-      <c r="X5" s="129" t="s">
+      <c r="X5" s="101" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="114"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="25"/>
@@ -3205,14 +3241,14 @@
       <c r="Q6" s="27"/>
       <c r="R6" s="27"/>
       <c r="S6" s="66"/>
-      <c r="X6" s="129"/>
+      <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="114"/>
-      <c r="B7" s="99">
+      <c r="A7" s="111"/>
+      <c r="B7" s="105">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="92">
@@ -3275,14 +3311,14 @@
       <c r="W7" s="72">
         <v>24</v>
       </c>
-      <c r="X7" s="129" t="s">
+      <c r="X7" s="101" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="114"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="92">
         <v>2010</v>
       </c>
@@ -3343,14 +3379,14 @@
       <c r="W8" s="71">
         <v>23</v>
       </c>
-      <c r="X8" s="129" t="s">
+      <c r="X8" s="101" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="114"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="25">
         <v>2014</v>
       </c>
@@ -3411,12 +3447,12 @@
       <c r="W9" s="71">
         <v>24</v>
       </c>
-      <c r="X9" s="129" t="s">
+      <c r="X9" s="101" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="114"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="25"/>
@@ -3435,14 +3471,14 @@
       <c r="Q10" s="27"/>
       <c r="R10" s="27"/>
       <c r="S10" s="66"/>
-      <c r="X10" s="129"/>
+      <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="114"/>
-      <c r="B11" s="99">
+      <c r="A11" s="111"/>
+      <c r="B11" s="105">
         <v>3</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="92">
@@ -3505,14 +3541,14 @@
       <c r="W11" s="72">
         <v>25</v>
       </c>
-      <c r="X11" s="129" t="s">
+      <c r="X11" s="101" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="114"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="102"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="92">
         <v>2010</v>
       </c>
@@ -3573,14 +3609,14 @@
       <c r="W12" s="71">
         <v>26</v>
       </c>
-      <c r="X12" s="129" t="s">
+      <c r="X12" s="101" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="114"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="25">
         <v>2014</v>
       </c>
@@ -3641,12 +3677,12 @@
       <c r="W13" s="71">
         <v>26</v>
       </c>
-      <c r="X13" s="129" t="s">
+      <c r="X13" s="101" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="114"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="25"/>
@@ -3665,14 +3701,14 @@
       <c r="Q14" s="34"/>
       <c r="R14" s="34"/>
       <c r="S14" s="67"/>
-      <c r="X14" s="129"/>
+      <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="114"/>
-      <c r="B15" s="99">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>4</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="92">
@@ -3735,14 +3771,14 @@
       <c r="W15" s="72">
         <v>30</v>
       </c>
-      <c r="X15" s="129" t="s">
+      <c r="X15" s="101" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="114"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="92">
         <v>2010</v>
       </c>
@@ -3803,14 +3839,14 @@
       <c r="W16" s="71">
         <v>32</v>
       </c>
-      <c r="X16" s="129" t="s">
+      <c r="X16" s="101" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="114"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -3871,12 +3907,12 @@
       <c r="W17" s="71">
         <v>32</v>
       </c>
-      <c r="X17" s="129" t="s">
+      <c r="X17" s="101" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="114"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="25"/>
@@ -3895,14 +3931,14 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
       <c r="S18" s="66"/>
-      <c r="X18" s="129"/>
+      <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="99">
+      <c r="A19" s="111"/>
+      <c r="B19" s="105">
         <v>5</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="92">
@@ -3965,14 +4001,14 @@
       <c r="W19" s="72">
         <v>28</v>
       </c>
-      <c r="X19" s="129" t="s">
+      <c r="X19" s="101" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="114"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="92">
         <v>2010</v>
       </c>
@@ -4033,14 +4069,14 @@
       <c r="W20" s="71">
         <v>28</v>
       </c>
-      <c r="X20" s="129" t="s">
+      <c r="X20" s="101" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="114"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="102"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="25">
         <v>2014</v>
       </c>
@@ -4101,12 +4137,12 @@
       <c r="W21" s="71">
         <v>31</v>
       </c>
-      <c r="X21" s="129" t="s">
+      <c r="X21" s="101" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="114"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="25"/>
@@ -4125,14 +4161,14 @@
       <c r="Q22" s="27"/>
       <c r="R22" s="27"/>
       <c r="S22" s="66"/>
-      <c r="X22" s="129"/>
+      <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="114"/>
-      <c r="B23" s="99">
+      <c r="A23" s="111"/>
+      <c r="B23" s="105">
         <v>6</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="92">
@@ -4195,14 +4231,14 @@
       <c r="W23" s="72">
         <v>26</v>
       </c>
-      <c r="X23" s="129" t="s">
+      <c r="X23" s="101" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="114"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="102"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="92">
         <v>2010</v>
       </c>
@@ -4263,14 +4299,14 @@
       <c r="W24" s="71">
         <v>26</v>
       </c>
-      <c r="X24" s="129" t="s">
+      <c r="X24" s="101" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="114"/>
-      <c r="B25" s="101"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="25">
         <v>2014</v>
       </c>
@@ -4331,12 +4367,12 @@
       <c r="W25" s="71">
         <v>32</v>
       </c>
-      <c r="X25" s="129" t="s">
+      <c r="X25" s="101" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="114"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="25"/>
@@ -4355,14 +4391,14 @@
       <c r="Q26" s="27"/>
       <c r="R26" s="27"/>
       <c r="S26" s="66"/>
-      <c r="X26" s="129"/>
+      <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="114"/>
-      <c r="B27" s="99">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>7</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="108" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="92">
@@ -4425,14 +4461,14 @@
       <c r="W27" s="71">
         <v>26</v>
       </c>
-      <c r="X27" s="129" t="s">
+      <c r="X27" s="101" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="114"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="102"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="92">
         <v>2010</v>
       </c>
@@ -4493,14 +4529,14 @@
       <c r="W28" s="71">
         <v>26</v>
       </c>
-      <c r="X28" s="129" t="s">
+      <c r="X28" s="101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="114"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -4561,12 +4597,12 @@
       <c r="W29" s="71">
         <v>27</v>
       </c>
-      <c r="X29" s="129" t="s">
+      <c r="X29" s="101" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="114"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="91"/>
       <c r="C30" s="95"/>
       <c r="D30" s="25"/>
@@ -4585,14 +4621,14 @@
       <c r="Q30" s="27"/>
       <c r="R30" s="27"/>
       <c r="S30" s="66"/>
-      <c r="X30" s="129"/>
+      <c r="X30" s="101"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="114"/>
-      <c r="B31" s="99">
+      <c r="A31" s="111"/>
+      <c r="B31" s="105">
         <v>8</v>
       </c>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="92">
@@ -4655,14 +4691,14 @@
       <c r="W31" s="72">
         <v>23</v>
       </c>
-      <c r="X31" s="129" t="s">
+      <c r="X31" s="101" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="114"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="92">
         <v>2010</v>
       </c>
@@ -4723,14 +4759,14 @@
       <c r="W32" s="71">
         <v>23</v>
       </c>
-      <c r="X32" s="129" t="s">
+      <c r="X32" s="101" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="114"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="111"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="25">
         <v>2014</v>
       </c>
@@ -4791,12 +4827,12 @@
       <c r="W33" s="71">
         <v>22</v>
       </c>
-      <c r="X33" s="129" t="s">
+      <c r="X33" s="101" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="114"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="25"/>
@@ -4815,14 +4851,14 @@
       <c r="Q34" s="34"/>
       <c r="R34" s="34"/>
       <c r="S34" s="67"/>
-      <c r="X34" s="129"/>
+      <c r="X34" s="101"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="114"/>
-      <c r="B35" s="99">
+      <c r="A35" s="111"/>
+      <c r="B35" s="105">
         <v>9</v>
       </c>
-      <c r="C35" s="102" t="s">
+      <c r="C35" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="92">
@@ -4885,14 +4921,14 @@
       <c r="W35" s="71">
         <v>23</v>
       </c>
-      <c r="X35" s="129" t="s">
+      <c r="X35" s="101" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="114"/>
-      <c r="B36" s="100"/>
-      <c r="C36" s="102"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="92">
         <v>2010</v>
       </c>
@@ -4953,14 +4989,14 @@
       <c r="W36" s="71">
         <v>25</v>
       </c>
-      <c r="X36" s="129" t="s">
+      <c r="X36" s="101" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="114"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="25">
         <v>2014</v>
       </c>
@@ -5021,12 +5057,12 @@
       <c r="W37" s="71">
         <v>27</v>
       </c>
-      <c r="X37" s="129" t="s">
+      <c r="X37" s="101" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="114"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="25"/>
@@ -5045,14 +5081,14 @@
       <c r="Q38" s="41"/>
       <c r="R38" s="41"/>
       <c r="S38" s="69"/>
-      <c r="X38" s="129"/>
+      <c r="X38" s="101"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="114"/>
-      <c r="B39" s="99">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>10</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="92">
@@ -5115,14 +5151,14 @@
       <c r="W39" s="71">
         <v>23</v>
       </c>
-      <c r="X39" s="129" t="s">
+      <c r="X39" s="101" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="114"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="92">
         <v>2010</v>
       </c>
@@ -5183,14 +5219,14 @@
       <c r="W40" s="71">
         <v>23</v>
       </c>
-      <c r="X40" s="129" t="s">
+      <c r="X40" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="114"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -5251,12 +5287,12 @@
       <c r="W41" s="71">
         <v>25</v>
       </c>
-      <c r="X41" s="129" t="s">
+      <c r="X41" s="101" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="114"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="25"/>
@@ -5275,14 +5311,14 @@
       <c r="Q42" s="34"/>
       <c r="R42" s="34"/>
       <c r="S42" s="67"/>
-      <c r="X42" s="129"/>
+      <c r="X42" s="101"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="114"/>
-      <c r="B43" s="99">
+      <c r="A43" s="111"/>
+      <c r="B43" s="105">
         <v>11</v>
       </c>
-      <c r="C43" s="102" t="s">
+      <c r="C43" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="92">
@@ -5345,14 +5381,14 @@
       <c r="W43" s="72">
         <v>20</v>
       </c>
-      <c r="X43" s="129" t="s">
+      <c r="X43" s="101" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="114"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="102"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="92">
         <v>2010</v>
       </c>
@@ -5413,14 +5449,14 @@
       <c r="W44" s="71">
         <v>20</v>
       </c>
-      <c r="X44" s="129" t="s">
+      <c r="X44" s="101" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="114"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="102"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="25">
         <v>2014</v>
       </c>
@@ -5481,12 +5517,12 @@
       <c r="W45" s="71">
         <v>20</v>
       </c>
-      <c r="X45" s="129" t="s">
+      <c r="X45" s="101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="114"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="25"/>
@@ -5505,14 +5541,14 @@
       <c r="Q46" s="34"/>
       <c r="R46" s="34"/>
       <c r="S46" s="67"/>
-      <c r="X46" s="129"/>
+      <c r="X46" s="101"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="114"/>
-      <c r="B47" s="99">
+      <c r="A47" s="111"/>
+      <c r="B47" s="105">
         <v>12</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="92">
@@ -5575,14 +5611,14 @@
       <c r="W47" s="72">
         <v>29</v>
       </c>
-      <c r="X47" s="129" t="s">
+      <c r="X47" s="101" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="114"/>
-      <c r="B48" s="100"/>
-      <c r="C48" s="102"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="92">
         <v>2010</v>
       </c>
@@ -5643,14 +5679,14 @@
       <c r="W48" s="71">
         <v>29</v>
       </c>
-      <c r="X48" s="129" t="s">
+      <c r="X48" s="101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="114"/>
-      <c r="B49" s="101"/>
-      <c r="C49" s="102"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
       <c r="D49" s="25">
         <v>2014</v>
       </c>
@@ -5711,12 +5747,12 @@
       <c r="W49" s="71">
         <v>30</v>
       </c>
-      <c r="X49" s="129" t="s">
+      <c r="X49" s="101" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="114"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92"/>
       <c r="D50" s="25"/>
@@ -5735,14 +5771,14 @@
       <c r="Q50" s="34"/>
       <c r="R50" s="34"/>
       <c r="S50" s="67"/>
-      <c r="X50" s="129"/>
+      <c r="X50" s="101"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="114"/>
-      <c r="B51" s="99">
+      <c r="A51" s="111"/>
+      <c r="B51" s="105">
         <v>13</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="92">
@@ -5805,14 +5841,14 @@
       <c r="W51" s="72">
         <v>20</v>
       </c>
-      <c r="X51" s="129" t="s">
+      <c r="X51" s="101" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="114"/>
-      <c r="B52" s="100"/>
-      <c r="C52" s="102"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="92">
         <v>2010</v>
       </c>
@@ -5873,14 +5909,14 @@
       <c r="W52" s="71">
         <v>20</v>
       </c>
-      <c r="X52" s="129" t="s">
+      <c r="X52" s="101" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="114"/>
-      <c r="B53" s="101"/>
-      <c r="C53" s="102"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="108"/>
       <c r="D53" s="25">
         <v>2014</v>
       </c>
@@ -5941,84 +5977,84 @@
       <c r="W53" s="71">
         <v>20</v>
       </c>
-      <c r="X53" s="129" t="s">
+      <c r="X53" s="101" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="114"/>
+      <c r="A54" s="111"/>
     </row>
     <row r="55" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="114"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="106" t="s">
+      <c r="C55" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="106" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106" t="s">
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106" t="s">
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="106" t="s">
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="103" t="s">
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="104"/>
-      <c r="T55" s="105"/>
-      <c r="U55" s="106" t="s">
+      <c r="S55" s="118"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="V55" s="106"/>
-      <c r="W55" s="106"/>
-      <c r="X55" s="103" t="s">
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="105"/>
-      <c r="AA55" s="106" t="s">
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="AB55" s="106"/>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106" t="s">
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="106"/>
-      <c r="AF55" s="106"/>
-      <c r="AG55" s="106" t="s">
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH55" s="106"/>
-      <c r="AI55" s="106"/>
-      <c r="AJ55" s="106" t="s">
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106"/>
-      <c r="AM55" s="106" t="s">
+      <c r="AK55" s="120"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN55" s="106"/>
-      <c r="AO55" s="106"/>
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="120"/>
     </row>
     <row r="56" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A56" s="115"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86" t="s">
         <v>72</v>
@@ -6259,10 +6295,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="123" t="s">
+      <c r="A58" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="124"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="79">
         <v>2006</v>
       </c>
@@ -6290,19 +6326,19 @@
       <c r="K58" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S58" s="127"/>
-      <c r="T58" s="130"/>
-      <c r="U58" s="130"/>
-      <c r="V58" s="130"/>
-      <c r="W58" s="130"/>
-      <c r="X58" s="131"/>
-      <c r="Y58" s="128"/>
+      <c r="S58" s="99"/>
+      <c r="T58" s="102"/>
+      <c r="U58" s="102"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
+      <c r="X58" s="103"/>
+      <c r="Y58" s="100"/>
     </row>
     <row r="59" spans="1:41" ht="16" thickTop="1">
-      <c r="A59" s="108" t="s">
+      <c r="A59" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="108"/>
+      <c r="B59" s="123"/>
       <c r="C59">
         <f xml:space="preserve"> C57/115</f>
         <v>3.4782608695652174E-2</v>
@@ -6461,10 +6497,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="107" t="s">
+      <c r="A60" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="107"/>
+      <c r="B60" s="124"/>
       <c r="C60">
         <f xml:space="preserve"> C59*72</f>
         <v>2.5043478260869567</v>
@@ -6623,10 +6659,10 @@
       </c>
     </row>
     <row r="61" spans="1:41" s="80" customFormat="1">
-      <c r="A61" s="118" t="s">
+      <c r="A61" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="118"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="80">
         <f xml:space="preserve"> 72-C60</f>
         <v>69.495652173913044</v>
@@ -6936,77 +6972,77 @@
       <c r="X66" s="85"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="C67" s="106" t="s">
+      <c r="C67" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="103" t="s">
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="104"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="106" t="s">
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="106"/>
-      <c r="K67" s="106"/>
-      <c r="L67" s="106" t="s">
+      <c r="J67" s="120"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="M67" s="106"/>
-      <c r="N67" s="106"/>
-      <c r="O67" s="106" t="s">
+      <c r="M67" s="120"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="106"/>
-      <c r="Q67" s="106"/>
-      <c r="R67" s="103" t="s">
+      <c r="P67" s="120"/>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="104"/>
-      <c r="T67" s="105"/>
-      <c r="U67" s="106" t="s">
+      <c r="S67" s="118"/>
+      <c r="T67" s="119"/>
+      <c r="U67" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="106"/>
-      <c r="W67" s="106"/>
-      <c r="X67" s="106" t="s">
+      <c r="V67" s="120"/>
+      <c r="W67" s="120"/>
+      <c r="X67" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="106"/>
-      <c r="Z67" s="106"/>
-      <c r="AA67" s="106" t="s">
+      <c r="Y67" s="120"/>
+      <c r="Z67" s="120"/>
+      <c r="AA67" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="106"/>
-      <c r="AC67" s="106"/>
-      <c r="AD67" s="106" t="s">
+      <c r="AB67" s="120"/>
+      <c r="AC67" s="120"/>
+      <c r="AD67" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE67" s="106"/>
-      <c r="AF67" s="106"/>
-      <c r="AG67" s="106" t="s">
+      <c r="AE67" s="120"/>
+      <c r="AF67" s="120"/>
+      <c r="AG67" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="AH67" s="106"/>
-      <c r="AI67" s="106"/>
-      <c r="AJ67" s="106" t="s">
+      <c r="AH67" s="120"/>
+      <c r="AI67" s="120"/>
+      <c r="AJ67" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK67" s="106"/>
-      <c r="AL67" s="106"/>
-      <c r="AM67" s="106" t="s">
+      <c r="AK67" s="120"/>
+      <c r="AL67" s="120"/>
+      <c r="AM67" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AN67" s="106"/>
-      <c r="AO67" s="106"/>
+      <c r="AN67" s="120"/>
+      <c r="AO67" s="120"/>
     </row>
     <row r="68" spans="1:41" ht="70">
-      <c r="A68" s="119" t="s">
+      <c r="A68" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="120"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="86" t="s">
         <v>99</v>
       </c>
@@ -7126,8 +7162,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="16" thickBot="1">
-      <c r="A69" s="121"/>
-      <c r="B69" s="122"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="86">
         <v>23</v>
       </c>
@@ -7247,10 +7283,10 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="16" thickTop="1">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="108"/>
+      <c r="B70" s="123"/>
       <c r="C70">
         <f xml:space="preserve"> C69/115</f>
         <v>0.2</v>
@@ -7409,10 +7445,10 @@
       </c>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="107" t="s">
+      <c r="A71" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="107"/>
+      <c r="B71" s="124"/>
       <c r="C71">
         <f xml:space="preserve"> C70*65</f>
         <v>13</v>
@@ -7571,10 +7607,10 @@
       </c>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="118" t="s">
+      <c r="A72" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="118"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="80">
         <f xml:space="preserve"> 65-C71</f>
         <v>52</v>
@@ -7744,23 +7780,23 @@
     <mergeCell ref="A68:B69"/>
     <mergeCell ref="A70:B70"/>
     <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
     <mergeCell ref="A72:B72"/>
     <mergeCell ref="R67:T67"/>
     <mergeCell ref="U67:W67"/>
     <mergeCell ref="X67:Z67"/>
     <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:Q67"/>
     <mergeCell ref="AM55:AO55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:Q67"/>
     <mergeCell ref="U55:W55"/>
     <mergeCell ref="X55:Z55"/>
     <mergeCell ref="AA55:AC55"/>
@@ -7785,11 +7821,13 @@
     <mergeCell ref="C35:C37"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="C15:C17"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="C23:C25"/>
+    <mergeCell ref="O1:P1"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="Q1:S1"/>
@@ -7805,8 +7843,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -7824,7 +7860,7 @@
   <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Z39" sqref="Z39"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7850,37 +7886,37 @@
     <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="112" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="112" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -7893,16 +7929,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="102" t="s">
+      <c r="X1" s="108" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -7957,16 +7993,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="102"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="99">
-        <v>1</v>
-      </c>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -8029,14 +8065,14 @@
       <c r="W3" s="72">
         <v>31</v>
       </c>
-      <c r="X3" s="129" t="s">
+      <c r="X3" s="101" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="114"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="102"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -8097,14 +8133,14 @@
       <c r="W4" s="71">
         <v>28</v>
       </c>
-      <c r="X4" s="129" t="s">
+      <c r="X4" s="101" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="114"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -8165,16 +8201,16 @@
       <c r="W5" s="71">
         <v>28</v>
       </c>
-      <c r="X5" s="129" t="s">
+      <c r="X5" s="101" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="114"/>
-      <c r="B6" s="99">
+      <c r="A6" s="111"/>
+      <c r="B6" s="105">
         <v>2</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -8237,14 +8273,14 @@
       <c r="W6" s="72">
         <v>24</v>
       </c>
-      <c r="X6" s="129" t="s">
+      <c r="X6" s="101" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="114"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="102"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -8305,14 +8341,14 @@
       <c r="W7" s="71">
         <v>23</v>
       </c>
-      <c r="X7" s="129" t="s">
+      <c r="X7" s="101" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="114"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -8373,16 +8409,16 @@
       <c r="W8" s="71">
         <v>24</v>
       </c>
-      <c r="X8" s="129" t="s">
+      <c r="X8" s="101" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="114"/>
-      <c r="B9" s="99">
+      <c r="A9" s="111"/>
+      <c r="B9" s="105">
         <v>3</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -8445,14 +8481,14 @@
       <c r="W9" s="72">
         <v>25</v>
       </c>
-      <c r="X9" s="129" t="s">
+      <c r="X9" s="101" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="114"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -8513,14 +8549,14 @@
       <c r="W10" s="71">
         <v>26</v>
       </c>
-      <c r="X10" s="129" t="s">
+      <c r="X10" s="101" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="114"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -8581,16 +8617,16 @@
       <c r="W11" s="71">
         <v>26</v>
       </c>
-      <c r="X11" s="129" t="s">
+      <c r="X11" s="101" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="114"/>
-      <c r="B12" s="99">
+      <c r="A12" s="111"/>
+      <c r="B12" s="105">
         <v>4</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -8653,14 +8689,14 @@
       <c r="W12" s="72">
         <v>30</v>
       </c>
-      <c r="X12" s="129" t="s">
+      <c r="X12" s="101" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="114"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -8721,14 +8757,14 @@
       <c r="W13" s="71">
         <v>32</v>
       </c>
-      <c r="X13" s="129" t="s">
+      <c r="X13" s="101" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="114"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -8789,16 +8825,16 @@
       <c r="W14" s="71">
         <v>32</v>
       </c>
-      <c r="X14" s="129" t="s">
+      <c r="X14" s="101" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="114"/>
-      <c r="B15" s="99">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>5</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -8861,14 +8897,14 @@
       <c r="W15" s="72">
         <v>28</v>
       </c>
-      <c r="X15" s="129" t="s">
+      <c r="X15" s="101" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="114"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -8929,14 +8965,14 @@
       <c r="W16" s="71">
         <v>28</v>
       </c>
-      <c r="X16" s="129" t="s">
+      <c r="X16" s="101" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="114"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -8997,16 +9033,16 @@
       <c r="W17" s="71">
         <v>31</v>
       </c>
-      <c r="X17" s="129" t="s">
+      <c r="X17" s="101" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="99">
+      <c r="A18" s="111"/>
+      <c r="B18" s="105">
         <v>6</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -9069,14 +9105,14 @@
       <c r="W18" s="72">
         <v>26</v>
       </c>
-      <c r="X18" s="129" t="s">
+      <c r="X18" s="101" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="114"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -9137,14 +9173,14 @@
       <c r="W19" s="71">
         <v>26</v>
       </c>
-      <c r="X19" s="129" t="s">
+      <c r="X19" s="101" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="114"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -9205,16 +9241,16 @@
       <c r="W20" s="71">
         <v>32</v>
       </c>
-      <c r="X20" s="129" t="s">
+      <c r="X20" s="101" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="114"/>
-      <c r="B21" s="99">
+      <c r="A21" s="111"/>
+      <c r="B21" s="105">
         <v>7</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="108" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -9277,14 +9313,14 @@
       <c r="W21" s="71">
         <v>26</v>
       </c>
-      <c r="X21" s="129" t="s">
+      <c r="X21" s="101" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="114"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -9345,14 +9381,14 @@
       <c r="W22" s="71">
         <v>26</v>
       </c>
-      <c r="X22" s="129" t="s">
+      <c r="X22" s="101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="114"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -9413,16 +9449,16 @@
       <c r="W23" s="71">
         <v>27</v>
       </c>
-      <c r="X23" s="129" t="s">
+      <c r="X23" s="101" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="114"/>
-      <c r="B24" s="99">
+      <c r="A24" s="111"/>
+      <c r="B24" s="105">
         <v>8</v>
       </c>
-      <c r="C24" s="109" t="s">
+      <c r="C24" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -9485,14 +9521,14 @@
       <c r="W24" s="72">
         <v>23</v>
       </c>
-      <c r="X24" s="129" t="s">
+      <c r="X24" s="101" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="114"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="110"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -9553,14 +9589,14 @@
       <c r="W25" s="71">
         <v>23</v>
       </c>
-      <c r="X25" s="129" t="s">
+      <c r="X25" s="101" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="114"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -9621,16 +9657,16 @@
       <c r="W26" s="71">
         <v>22</v>
       </c>
-      <c r="X26" s="129" t="s">
+      <c r="X26" s="101" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="114"/>
-      <c r="B27" s="99">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>9</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -9693,14 +9729,14 @@
       <c r="W27" s="71">
         <v>23</v>
       </c>
-      <c r="X27" s="129" t="s">
+      <c r="X27" s="101" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="114"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="102"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -9761,14 +9797,14 @@
       <c r="W28" s="71">
         <v>25</v>
       </c>
-      <c r="X28" s="129" t="s">
+      <c r="X28" s="101" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="114"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="102"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -9829,16 +9865,16 @@
       <c r="W29" s="71">
         <v>27</v>
       </c>
-      <c r="X29" s="129" t="s">
+      <c r="X29" s="101" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="114"/>
-      <c r="B30" s="99">
+      <c r="A30" s="111"/>
+      <c r="B30" s="105">
         <v>10</v>
       </c>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -9901,14 +9937,14 @@
       <c r="W30" s="71">
         <v>23</v>
       </c>
-      <c r="X30" s="129" t="s">
+      <c r="X30" s="101" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="114"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="102"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -9969,14 +10005,14 @@
       <c r="W31" s="71">
         <v>23</v>
       </c>
-      <c r="X31" s="129" t="s">
+      <c r="X31" s="101" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="114"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -10037,16 +10073,16 @@
       <c r="W32" s="71">
         <v>25</v>
       </c>
-      <c r="X32" s="129" t="s">
+      <c r="X32" s="101" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="114"/>
-      <c r="B33" s="99">
+      <c r="A33" s="111"/>
+      <c r="B33" s="105">
         <v>11</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -10109,14 +10145,14 @@
       <c r="W33" s="72">
         <v>20</v>
       </c>
-      <c r="X33" s="129" t="s">
+      <c r="X33" s="101" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="114"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="102"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -10177,14 +10213,14 @@
       <c r="W34" s="71">
         <v>20</v>
       </c>
-      <c r="X34" s="129" t="s">
+      <c r="X34" s="101" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="114"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -10245,16 +10281,16 @@
       <c r="W35" s="71">
         <v>20</v>
       </c>
-      <c r="X35" s="129" t="s">
+      <c r="X35" s="101" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="114"/>
-      <c r="B36" s="99">
+      <c r="A36" s="111"/>
+      <c r="B36" s="105">
         <v>12</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -10317,14 +10353,14 @@
       <c r="W36" s="72">
         <v>29</v>
       </c>
-      <c r="X36" s="129" t="s">
+      <c r="X36" s="101" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="114"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -10385,14 +10421,14 @@
       <c r="W37" s="71">
         <v>29</v>
       </c>
-      <c r="X37" s="129" t="s">
+      <c r="X37" s="101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="114"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -10453,16 +10489,16 @@
       <c r="W38" s="71">
         <v>30</v>
       </c>
-      <c r="X38" s="129" t="s">
+      <c r="X38" s="101" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="114"/>
-      <c r="B39" s="99">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>13</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -10525,14 +10561,14 @@
       <c r="W39" s="72">
         <v>20</v>
       </c>
-      <c r="X39" s="129" t="s">
+      <c r="X39" s="101" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="114"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -10593,14 +10629,14 @@
       <c r="W40" s="71">
         <v>20</v>
       </c>
-      <c r="X40" s="129" t="s">
+      <c r="X40" s="101" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="114"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -10661,84 +10697,84 @@
       <c r="W41" s="71">
         <v>20</v>
       </c>
-      <c r="X41" s="129" t="s">
+      <c r="X41" s="101" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="114"/>
+      <c r="A42" s="111"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="114"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="106" t="s">
+      <c r="C43" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106" t="s">
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106" t="s">
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="106"/>
-      <c r="K43" s="106"/>
-      <c r="L43" s="106" t="s">
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="106"/>
-      <c r="N43" s="106"/>
-      <c r="O43" s="106" t="s">
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="106"/>
-      <c r="Q43" s="106"/>
-      <c r="R43" s="103" t="s">
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="104"/>
-      <c r="T43" s="105"/>
-      <c r="U43" s="106" t="s">
+      <c r="S43" s="118"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="106"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="103" t="s">
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="104"/>
-      <c r="Z43" s="105"/>
-      <c r="AA43" s="106" t="s">
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="119"/>
+      <c r="AA43" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="106"/>
-      <c r="AD43" s="106" t="s">
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="120"/>
+      <c r="AD43" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="106"/>
-      <c r="AF43" s="106"/>
-      <c r="AG43" s="106" t="s">
+      <c r="AE43" s="120"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="106"/>
-      <c r="AI43" s="106"/>
-      <c r="AJ43" s="106" t="s">
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="106"/>
-      <c r="AL43" s="106"/>
-      <c r="AM43" s="106" t="s">
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="120"/>
+      <c r="AM43" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="106"/>
-      <c r="AO43" s="106"/>
+      <c r="AN43" s="120"/>
+      <c r="AO43" s="120"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="115"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -10979,10 +11015,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="123" t="s">
+      <c r="A46" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="124"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -11010,19 +11046,19 @@
       <c r="K46" s="79" t="s">
         <v>123</v>
       </c>
-      <c r="S46" s="127"/>
-      <c r="T46" s="130"/>
-      <c r="U46" s="130"/>
-      <c r="V46" s="130"/>
-      <c r="W46" s="130"/>
-      <c r="X46" s="131"/>
-      <c r="Y46" s="128"/>
+      <c r="S46" s="99"/>
+      <c r="T46" s="102"/>
+      <c r="U46" s="102"/>
+      <c r="V46" s="102"/>
+      <c r="W46" s="102"/>
+      <c r="X46" s="103"/>
+      <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="108"/>
+      <c r="B47" s="123"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -11181,10 +11217,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="107" t="s">
+      <c r="A48" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="107"/>
+      <c r="B48" s="124"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -11343,10 +11379,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="80" customFormat="1">
-      <c r="A49" s="118" t="s">
+      <c r="A49" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="118"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="80">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -11656,77 +11692,77 @@
       <c r="X54" s="85"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="106" t="s">
+      <c r="C55" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="106"/>
-      <c r="E55" s="106"/>
-      <c r="F55" s="103" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="104"/>
-      <c r="H55" s="105"/>
-      <c r="I55" s="106" t="s">
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="106"/>
-      <c r="K55" s="106"/>
-      <c r="L55" s="106" t="s">
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="106"/>
-      <c r="N55" s="106"/>
-      <c r="O55" s="106" t="s">
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="106"/>
-      <c r="Q55" s="106"/>
-      <c r="R55" s="103" t="s">
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="104"/>
-      <c r="T55" s="105"/>
-      <c r="U55" s="106" t="s">
+      <c r="S55" s="118"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="106"/>
-      <c r="W55" s="106"/>
-      <c r="X55" s="106" t="s">
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="106"/>
-      <c r="Z55" s="106"/>
-      <c r="AA55" s="106" t="s">
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="106"/>
-      <c r="AC55" s="106"/>
-      <c r="AD55" s="106" t="s">
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="106"/>
-      <c r="AF55" s="106"/>
-      <c r="AG55" s="106" t="s">
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="106"/>
-      <c r="AI55" s="106"/>
-      <c r="AJ55" s="106" t="s">
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="106"/>
-      <c r="AL55" s="106"/>
-      <c r="AM55" s="106" t="s">
+      <c r="AK55" s="120"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="106"/>
-      <c r="AO55" s="106"/>
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="120"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="119" t="s">
+      <c r="A56" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="120"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -11846,8 +11882,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="121"/>
-      <c r="B57" s="122"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="129"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -11967,10 +12003,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="108"/>
+      <c r="B58" s="123"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -12129,10 +12165,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="107" t="s">
+      <c r="A59" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="107"/>
+      <c r="B59" s="124"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -12291,10 +12327,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="118" t="s">
+      <c r="A60" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="118"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="80">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -12465,21 +12501,27 @@
     <mergeCell ref="AG55:AI55"/>
     <mergeCell ref="AJ55:AL55"/>
     <mergeCell ref="A49:B49"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="O55:Q55"/>
     <mergeCell ref="U55:W55"/>
     <mergeCell ref="X55:Z55"/>
     <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="AD55:AF55"/>
     <mergeCell ref="C55:E55"/>
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="R55:T55"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
     <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A3:A44"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B6:B8"/>
@@ -12491,19 +12533,6 @@
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
     <mergeCell ref="AD43:AF43"/>
     <mergeCell ref="AG43:AI43"/>
     <mergeCell ref="AJ43:AL43"/>
@@ -12518,6 +12547,7 @@
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A3:A44"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="R43:T43"/>
     <mergeCell ref="B39:B41"/>
@@ -12528,6 +12558,12 @@
     <mergeCell ref="C33:C35"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12557,44 +12593,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="112" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="112" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -12639,7 +12675,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -12698,7 +12734,7 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="114"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -12755,7 +12791,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -12812,7 +12848,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="114"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -12869,7 +12905,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -12926,7 +12962,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A8" s="114"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -12983,7 +13019,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -13040,7 +13076,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="114"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -13097,7 +13133,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="114"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -13154,7 +13190,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="114"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -13211,7 +13247,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="114"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -13268,7 +13304,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="114"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -13325,7 +13361,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="114"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -14087,44 +14123,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="112" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="112" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -14169,7 +14205,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -14228,7 +14264,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="114"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -14285,7 +14321,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="114"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -14342,7 +14378,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="114"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -14399,7 +14435,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="114"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -14456,7 +14492,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="114"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -14513,7 +14549,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="114"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -14570,7 +14606,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="114"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -14627,7 +14663,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="114"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -14684,7 +14720,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="114"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -14741,7 +14777,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="114"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -14798,7 +14834,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="114"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -14855,7 +14891,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="114"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -15650,7 +15686,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B3:B15"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -15669,44 +15705,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="112" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="112" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -15751,7 +15787,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -15810,7 +15846,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="114"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -15867,7 +15903,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="114"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -15924,7 +15960,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="114"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -15981,7 +16017,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="114"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -16038,7 +16074,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="114"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -16095,7 +16131,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="24">
-      <c r="A9" s="114"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -16152,7 +16188,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="114"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -16209,7 +16245,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="114"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -16266,7 +16302,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="114"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -16323,7 +16359,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="114"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -16380,7 +16416,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="114"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -16437,7 +16473,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="114"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16558,171 +16594,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="20" customHeight="1">
-      <c r="C1" s="125" t="s">
+      <c r="C1" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="99">
-        <v>1</v>
-      </c>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="99">
+      <c r="C2" s="105">
+        <v>1</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="105">
         <v>2</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="99">
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="105">
         <v>3</v>
       </c>
-      <c r="J2" s="100"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="99">
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="105">
         <v>4</v>
       </c>
-      <c r="M2" s="100"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="99">
+      <c r="M2" s="106"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="105">
         <v>5</v>
       </c>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="99">
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="105">
         <v>6</v>
       </c>
-      <c r="S2" s="100"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="99">
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="105">
         <v>7</v>
       </c>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="99">
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="105">
         <v>8</v>
       </c>
-      <c r="Y2" s="100"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="99">
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="105">
         <v>14</v>
       </c>
-      <c r="AB2" s="100"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="99">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="105">
         <v>9</v>
       </c>
-      <c r="AE2" s="100"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="99">
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="105">
         <v>10</v>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="99">
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="105">
         <v>11</v>
       </c>
-      <c r="AK2" s="100"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="99">
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="105">
         <v>12</v>
       </c>
-      <c r="AN2" s="100"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="99">
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="105">
         <v>13</v>
       </c>
-      <c r="AQ2" s="100"/>
-      <c r="AR2" s="101"/>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="107"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="102" t="s">
+      <c r="A3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="102"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="102" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102" t="s">
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="102" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="102"/>
-      <c r="Q3" s="102"/>
-      <c r="R3" s="102" t="s">
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102" t="s">
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="102"/>
-      <c r="W3" s="102"/>
-      <c r="X3" s="102" t="s">
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="102"/>
-      <c r="Z3" s="102"/>
-      <c r="AA3" s="109" t="s">
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="110"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="102" t="s">
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="102"/>
-      <c r="AF3" s="102"/>
-      <c r="AG3" s="102" t="s">
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="102"/>
-      <c r="AI3" s="102"/>
-      <c r="AJ3" s="102" t="s">
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="102"/>
-      <c r="AL3" s="102"/>
-      <c r="AM3" s="102" t="s">
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="102"/>
-      <c r="AO3" s="102"/>
-      <c r="AP3" s="102" t="s">
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="102"/>
-      <c r="AR3" s="102"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="102"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -16851,10 +16887,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="102"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -16983,7 +17019,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="113" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17117,7 +17153,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="116"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -17249,7 +17285,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="116"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -17381,7 +17417,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="116"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -17513,7 +17549,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="116"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -17645,7 +17681,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="112" t="s">
+      <c r="A11" s="109" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -17779,7 +17815,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="112"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -17911,7 +17947,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="112"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -18043,7 +18079,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="112"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -18175,7 +18211,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="117" t="s">
+      <c r="A15" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -18309,7 +18345,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="117"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -18441,7 +18477,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="109" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -18575,7 +18611,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="112"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -18707,7 +18743,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="112"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -19603,8 +19639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="S21" sqref="E21:S23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -19612,44 +19648,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="112" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="117" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="112" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -19694,13 +19730,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="99">
-        <v>1</v>
-      </c>
-      <c r="C3" s="102" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -19753,9 +19789,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="114"/>
-      <c r="B4" s="100"/>
-      <c r="C4" s="102"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -19806,9 +19842,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="114"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="102"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -19859,11 +19895,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="114"/>
-      <c r="B6" s="99">
+      <c r="A6" s="111"/>
+      <c r="B6" s="105">
         <v>2</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -19916,9 +19952,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="114"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="102"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -19969,9 +20005,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="114"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -20022,11 +20058,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="114"/>
-      <c r="B9" s="99">
+      <c r="A9" s="111"/>
+      <c r="B9" s="105">
         <v>3</v>
       </c>
-      <c r="C9" s="102" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -20079,9 +20115,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="114"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="102"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -20132,9 +20168,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="114"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="102"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -20185,11 +20221,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="114"/>
-      <c r="B12" s="99">
+      <c r="A12" s="111"/>
+      <c r="B12" s="105">
         <v>4</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -20242,9 +20278,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="114"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -20295,9 +20331,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="114"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -20348,11 +20384,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="114"/>
-      <c r="B15" s="99">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>5</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -20405,9 +20441,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="114"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -20458,9 +20494,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="114"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -20511,11 +20547,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="114"/>
-      <c r="B18" s="99">
+      <c r="A18" s="111"/>
+      <c r="B18" s="105">
         <v>6</v>
       </c>
-      <c r="C18" s="102" t="s">
+      <c r="C18" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -20568,9 +20604,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="114"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="102"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -20621,9 +20657,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="114"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="102"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -20674,11 +20710,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="114"/>
-      <c r="B21" s="99">
+      <c r="A21" s="111"/>
+      <c r="B21" s="105">
         <v>7</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="108" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -20731,9 +20767,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="114"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="102"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -20784,9 +20820,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="114"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -20837,11 +20873,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="114"/>
-      <c r="B24" s="99">
+      <c r="A24" s="111"/>
+      <c r="B24" s="105">
         <v>8</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="108" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -20894,9 +20930,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="114"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -20947,9 +20983,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="114"/>
-      <c r="B26" s="101"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -21000,11 +21036,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="114"/>
-      <c r="B27" s="99">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>14</v>
       </c>
-      <c r="C27" s="109" t="s">
+      <c r="C27" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -21057,9 +21093,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="114"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="110"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -21110,9 +21146,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="114"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -21163,11 +21199,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="114"/>
-      <c r="B30" s="99">
+      <c r="A30" s="111"/>
+      <c r="B30" s="105">
         <v>9</v>
       </c>
-      <c r="C30" s="102" t="s">
+      <c r="C30" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -21220,9 +21256,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="114"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="102"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -21273,9 +21309,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="114"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -21326,11 +21362,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="114"/>
-      <c r="B33" s="99">
+      <c r="A33" s="111"/>
+      <c r="B33" s="105">
         <v>10</v>
       </c>
-      <c r="C33" s="102" t="s">
+      <c r="C33" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -21383,9 +21419,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="114"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="102"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -21436,9 +21472,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="114"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -21489,11 +21525,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="114"/>
-      <c r="B36" s="99">
+      <c r="A36" s="111"/>
+      <c r="B36" s="105">
         <v>11</v>
       </c>
-      <c r="C36" s="102" t="s">
+      <c r="C36" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -21546,9 +21582,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="114"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -21599,9 +21635,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="114"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -21652,11 +21688,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="114"/>
-      <c r="B39" s="99">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>12</v>
       </c>
-      <c r="C39" s="102" t="s">
+      <c r="C39" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -21709,9 +21745,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="114"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -21762,9 +21798,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="114"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -21815,11 +21851,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="114"/>
-      <c r="B42" s="99">
+      <c r="A42" s="111"/>
+      <c r="B42" s="105">
         <v>13</v>
       </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -21872,9 +21908,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="114"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="102"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -21925,9 +21961,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="115"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="102"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -21978,81 +22014,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="102" t="s">
+      <c r="A46" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102" t="s">
+      <c r="B46" s="108"/>
+      <c r="C46" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102" t="s">
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102" t="s">
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="102"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="102" t="s">
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="102"/>
-      <c r="N46" s="102"/>
-      <c r="O46" s="102" t="s">
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="102"/>
-      <c r="Q46" s="102"/>
-      <c r="R46" s="102" t="s">
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="102"/>
-      <c r="T46" s="102"/>
-      <c r="U46" s="109" t="s">
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="110"/>
-      <c r="W46" s="111"/>
-      <c r="X46" s="109" t="s">
+      <c r="V46" s="115"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="110"/>
-      <c r="Z46" s="111"/>
-      <c r="AA46" s="102" t="s">
+      <c r="Y46" s="115"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="102"/>
-      <c r="AC46" s="102"/>
-      <c r="AD46" s="102" t="s">
+      <c r="AB46" s="108"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="102"/>
-      <c r="AF46" s="102"/>
-      <c r="AG46" s="102" t="s">
+      <c r="AE46" s="108"/>
+      <c r="AF46" s="108"/>
+      <c r="AG46" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="102"/>
-      <c r="AI46" s="102"/>
-      <c r="AJ46" s="102" t="s">
+      <c r="AH46" s="108"/>
+      <c r="AI46" s="108"/>
+      <c r="AJ46" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="102"/>
-      <c r="AL46" s="102"/>
-      <c r="AM46" s="102" t="s">
+      <c r="AK46" s="108"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="102"/>
-      <c r="AO46" s="102"/>
+      <c r="AN46" s="108"/>
+      <c r="AO46" s="108"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="102"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -22172,10 +22208,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="102" t="s">
+      <c r="A48" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="102"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -22295,7 +22331,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="126" t="s">
+      <c r="B49" s="131" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="63">
@@ -22306,7 +22342,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="107"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -22315,7 +22351,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="107"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>

--- a/mymap/jsons/GenderGap_Find4Hourglass.xlsx
+++ b/mymap/jsons/GenderGap_Find4Hourglass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="0" windowWidth="27340" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="0" windowWidth="29860" windowHeight="16440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total_W2E" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="184">
   <si>
     <t xml:space="preserve">Labour force participation                              </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -710,6 +710,18 @@
   <si>
     <t>Female-to-male ratio (0.00 = INEQUALITY 1.00 = EQUALITY)</t>
   </si>
+  <si>
+    <t>ECONOMIC PARTICIPATION AND OPPORTUNITY</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
 </sst>
 </file>
 
@@ -1119,7 +1131,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1261,8 +1273,70 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1553,6 +1627,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1638,7 +1718,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="203">
     <cellStyle name="Bad" xfId="107" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="108" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1709,6 +1789,37 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="106" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1778,6 +1889,37 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="105"/>
   </cellStyles>
@@ -2154,11 +2296,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="-2143831784"/>
-        <c:axId val="-2143828104"/>
+        <c:axId val="-2139658376"/>
+        <c:axId val="-2143333032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2143831784"/>
+        <c:axId val="-2139658376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2167,7 +2309,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143828104"/>
+        <c:crossAx val="-2143333032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2175,7 +2317,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143828104"/>
+        <c:axId val="-2143333032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2191,7 +2333,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2143831784"/>
+        <c:crossAx val="-2139658376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2406,11 +2548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143774072"/>
-        <c:axId val="-2143653016"/>
+        <c:axId val="-2143376408"/>
+        <c:axId val="-2143401960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143774072"/>
+        <c:axId val="-2143376408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2419,7 +2561,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143653016"/>
+        <c:crossAx val="-2143401960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2427,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143653016"/>
+        <c:axId val="-2143401960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2580,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2143774072"/>
+        <c:crossAx val="-2143376408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2864,8 +3006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2894,37 +3036,37 @@
     <row r="1" spans="1:27" ht="34" customHeight="1">
       <c r="A1" s="97"/>
       <c r="B1" s="97"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="F1" s="115" t="s">
+        <v>180</v>
+      </c>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -2941,9 +3083,9 @@
     <row r="2" spans="1:27" ht="113" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3012,13 +3154,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="107">
+        <v>1</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="92">
@@ -3086,9 +3228,9 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="92">
         <v>2010</v>
       </c>
@@ -3154,9 +3296,9 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -3222,7 +3364,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="111"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="25"/>
@@ -3244,11 +3386,11 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="105">
+      <c r="A7" s="113"/>
+      <c r="B7" s="107">
         <v>2</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="110" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="92">
@@ -3316,9 +3458,9 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="111"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="92">
         <v>2010</v>
       </c>
@@ -3384,9 +3526,9 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="111"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="110"/>
       <c r="D9" s="25">
         <v>2014</v>
       </c>
@@ -3452,7 +3594,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="111"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="25"/>
@@ -3474,11 +3616,11 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="105">
+      <c r="A11" s="113"/>
+      <c r="B11" s="107">
         <v>3</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="110" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="92">
@@ -3546,9 +3688,9 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="111"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="108"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="110"/>
       <c r="D12" s="92">
         <v>2010</v>
       </c>
@@ -3614,9 +3756,9 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="111"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="25">
         <v>2014</v>
       </c>
@@ -3682,7 +3824,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="111"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="25"/>
@@ -3704,11 +3846,11 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="113"/>
+      <c r="B15" s="107">
         <v>4</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="92">
@@ -3776,9 +3918,9 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="92">
         <v>2010</v>
       </c>
@@ -3844,9 +3986,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -3912,7 +4054,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="111"/>
+      <c r="A18" s="113"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="25"/>
@@ -3934,11 +4076,11 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="105">
+      <c r="A19" s="113"/>
+      <c r="B19" s="107">
         <v>5</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="110" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="92">
@@ -4006,9 +4148,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="111"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="92">
         <v>2010</v>
       </c>
@@ -4074,9 +4216,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="111"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="110"/>
       <c r="D21" s="25">
         <v>2014</v>
       </c>
@@ -4142,7 +4284,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="111"/>
+      <c r="A22" s="113"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="25"/>
@@ -4164,11 +4306,11 @@
       <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="105">
+      <c r="A23" s="113"/>
+      <c r="B23" s="107">
         <v>6</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="110" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="92">
@@ -4236,9 +4378,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="111"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="110"/>
       <c r="D24" s="92">
         <v>2010</v>
       </c>
@@ -4304,9 +4446,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="111"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="25">
         <v>2014</v>
       </c>
@@ -4372,7 +4514,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="111"/>
+      <c r="A26" s="113"/>
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="25"/>
@@ -4394,11 +4536,11 @@
       <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="113"/>
+      <c r="B27" s="107">
         <v>7</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="110" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="92">
@@ -4466,9 +4608,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="92">
         <v>2010</v>
       </c>
@@ -4534,9 +4676,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -4602,7 +4744,7 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="111"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="91"/>
       <c r="C30" s="95"/>
       <c r="D30" s="25"/>
@@ -4624,11 +4766,11 @@
       <c r="X30" s="101"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="111"/>
-      <c r="B31" s="105">
+      <c r="A31" s="113"/>
+      <c r="B31" s="107">
         <v>8</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="116" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="92">
@@ -4696,9 +4838,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="111"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="115"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="117"/>
       <c r="D32" s="92">
         <v>2010</v>
       </c>
@@ -4764,9 +4906,9 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="111"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="25">
         <v>2014</v>
       </c>
@@ -4832,7 +4974,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="111"/>
+      <c r="A34" s="113"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="25"/>
@@ -4854,11 +4996,11 @@
       <c r="X34" s="101"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="111"/>
-      <c r="B35" s="105">
+      <c r="A35" s="113"/>
+      <c r="B35" s="107">
         <v>9</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="110" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="92">
@@ -4926,9 +5068,9 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="111"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="108"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="110"/>
       <c r="D36" s="92">
         <v>2010</v>
       </c>
@@ -4994,9 +5136,9 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="111"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="25">
         <v>2014</v>
       </c>
@@ -5062,7 +5204,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="111"/>
+      <c r="A38" s="113"/>
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="25"/>
@@ -5084,11 +5226,11 @@
       <c r="X38" s="101"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="113"/>
+      <c r="B39" s="107">
         <v>10</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="110" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="92">
@@ -5156,9 +5298,9 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="92">
         <v>2010</v>
       </c>
@@ -5224,9 +5366,9 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -5292,7 +5434,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="111"/>
+      <c r="A42" s="113"/>
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="25"/>
@@ -5314,11 +5456,11 @@
       <c r="X42" s="101"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="111"/>
-      <c r="B43" s="105">
+      <c r="A43" s="113"/>
+      <c r="B43" s="107">
         <v>11</v>
       </c>
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="110" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="92">
@@ -5386,9 +5528,9 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="111"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="92">
         <v>2010</v>
       </c>
@@ -5454,9 +5596,9 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="111"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="108"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="109"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="25">
         <v>2014</v>
       </c>
@@ -5522,7 +5664,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="111"/>
+      <c r="A46" s="113"/>
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="25"/>
@@ -5544,11 +5686,11 @@
       <c r="X46" s="101"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="111"/>
-      <c r="B47" s="105">
+      <c r="A47" s="113"/>
+      <c r="B47" s="107">
         <v>12</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="110" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="92">
@@ -5616,9 +5758,9 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="111"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="108"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="110"/>
       <c r="D48" s="92">
         <v>2010</v>
       </c>
@@ -5684,9 +5826,9 @@
       </c>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="111"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
+      <c r="A49" s="113"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="25">
         <v>2014</v>
       </c>
@@ -5752,7 +5894,7 @@
       </c>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="111"/>
+      <c r="A50" s="113"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92"/>
       <c r="D50" s="25"/>
@@ -5774,11 +5916,11 @@
       <c r="X50" s="101"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="111"/>
-      <c r="B51" s="105">
+      <c r="A51" s="113"/>
+      <c r="B51" s="107">
         <v>13</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="92">
@@ -5846,9 +5988,9 @@
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="111"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="108"/>
+      <c r="A52" s="113"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="92">
         <v>2010</v>
       </c>
@@ -5914,9 +6056,9 @@
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="111"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
+      <c r="A53" s="113"/>
+      <c r="B53" s="109"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="25">
         <v>2014</v>
       </c>
@@ -5982,79 +6124,79 @@
       </c>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="111"/>
+      <c r="A54" s="113"/>
     </row>
     <row r="55" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="111"/>
+      <c r="A55" s="113"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120" t="s">
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120" t="s">
+      <c r="G55" s="122"/>
+      <c r="H55" s="122"/>
+      <c r="I55" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120" t="s">
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120" t="s">
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="117" t="s">
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="118"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="120" t="s">
+      <c r="S55" s="120"/>
+      <c r="T55" s="121"/>
+      <c r="U55" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="117" t="s">
+      <c r="V55" s="122"/>
+      <c r="W55" s="122"/>
+      <c r="X55" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="Y55" s="118"/>
-      <c r="Z55" s="119"/>
-      <c r="AA55" s="120" t="s">
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="121"/>
+      <c r="AA55" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120" t="s">
+      <c r="AB55" s="122"/>
+      <c r="AC55" s="122"/>
+      <c r="AD55" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120" t="s">
+      <c r="AE55" s="122"/>
+      <c r="AF55" s="122"/>
+      <c r="AG55" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120" t="s">
+      <c r="AH55" s="122"/>
+      <c r="AI55" s="122"/>
+      <c r="AJ55" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="120"/>
-      <c r="AL55" s="120"/>
-      <c r="AM55" s="120" t="s">
+      <c r="AK55" s="122"/>
+      <c r="AL55" s="122"/>
+      <c r="AM55" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="120"/>
+      <c r="AN55" s="122"/>
+      <c r="AO55" s="122"/>
     </row>
     <row r="56" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A56" s="112"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86" t="s">
         <v>72</v>
@@ -6295,10 +6437,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="122"/>
+      <c r="B58" s="124"/>
       <c r="C58" s="79">
         <v>2006</v>
       </c>
@@ -6335,10 +6477,10 @@
       <c r="Y58" s="100"/>
     </row>
     <row r="59" spans="1:41" ht="16" thickTop="1">
-      <c r="A59" s="123" t="s">
+      <c r="A59" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="123"/>
+      <c r="B59" s="125"/>
       <c r="C59">
         <f xml:space="preserve"> C57/115</f>
         <v>3.4782608695652174E-2</v>
@@ -6497,10 +6639,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="124"/>
+      <c r="B60" s="126"/>
       <c r="C60">
         <f xml:space="preserve"> C59*72</f>
         <v>2.5043478260869567</v>
@@ -6659,10 +6801,10 @@
       </c>
     </row>
     <row r="61" spans="1:41" s="80" customFormat="1">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="125"/>
+      <c r="B61" s="127"/>
       <c r="C61" s="80">
         <f xml:space="preserve"> 72-C60</f>
         <v>69.495652173913044</v>
@@ -6972,77 +7114,77 @@
       <c r="X66" s="85"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="C67" s="120" t="s">
+      <c r="C67" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="117" t="s">
+      <c r="D67" s="122"/>
+      <c r="E67" s="122"/>
+      <c r="F67" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="118"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="120" t="s">
+      <c r="G67" s="120"/>
+      <c r="H67" s="121"/>
+      <c r="I67" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="120"/>
-      <c r="K67" s="120"/>
-      <c r="L67" s="120" t="s">
+      <c r="J67" s="122"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="M67" s="120"/>
-      <c r="N67" s="120"/>
-      <c r="O67" s="120" t="s">
+      <c r="M67" s="122"/>
+      <c r="N67" s="122"/>
+      <c r="O67" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="120"/>
-      <c r="Q67" s="120"/>
-      <c r="R67" s="117" t="s">
+      <c r="P67" s="122"/>
+      <c r="Q67" s="122"/>
+      <c r="R67" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="118"/>
-      <c r="T67" s="119"/>
-      <c r="U67" s="120" t="s">
+      <c r="S67" s="120"/>
+      <c r="T67" s="121"/>
+      <c r="U67" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="120"/>
-      <c r="W67" s="120"/>
-      <c r="X67" s="120" t="s">
+      <c r="V67" s="122"/>
+      <c r="W67" s="122"/>
+      <c r="X67" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="120"/>
-      <c r="Z67" s="120"/>
-      <c r="AA67" s="120" t="s">
+      <c r="Y67" s="122"/>
+      <c r="Z67" s="122"/>
+      <c r="AA67" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="120"/>
-      <c r="AC67" s="120"/>
-      <c r="AD67" s="120" t="s">
+      <c r="AB67" s="122"/>
+      <c r="AC67" s="122"/>
+      <c r="AD67" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="AE67" s="120"/>
-      <c r="AF67" s="120"/>
-      <c r="AG67" s="120" t="s">
+      <c r="AE67" s="122"/>
+      <c r="AF67" s="122"/>
+      <c r="AG67" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AH67" s="120"/>
-      <c r="AI67" s="120"/>
-      <c r="AJ67" s="120" t="s">
+      <c r="AH67" s="122"/>
+      <c r="AI67" s="122"/>
+      <c r="AJ67" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AK67" s="120"/>
-      <c r="AL67" s="120"/>
-      <c r="AM67" s="120" t="s">
+      <c r="AK67" s="122"/>
+      <c r="AL67" s="122"/>
+      <c r="AM67" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="AN67" s="120"/>
-      <c r="AO67" s="120"/>
+      <c r="AN67" s="122"/>
+      <c r="AO67" s="122"/>
     </row>
     <row r="68" spans="1:41" ht="70">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="127"/>
+      <c r="B68" s="129"/>
       <c r="C68" s="86" t="s">
         <v>99</v>
       </c>
@@ -7162,8 +7304,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="16" thickBot="1">
-      <c r="A69" s="128"/>
-      <c r="B69" s="129"/>
+      <c r="A69" s="130"/>
+      <c r="B69" s="131"/>
       <c r="C69" s="86">
         <v>23</v>
       </c>
@@ -7283,10 +7425,10 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="16" thickTop="1">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="123"/>
+      <c r="B70" s="125"/>
       <c r="C70">
         <f xml:space="preserve"> C69/115</f>
         <v>0.2</v>
@@ -7445,10 +7587,10 @@
       </c>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="124" t="s">
+      <c r="A71" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="124"/>
+      <c r="B71" s="126"/>
       <c r="C71">
         <f xml:space="preserve"> C70*65</f>
         <v>13</v>
@@ -7607,10 +7749,10 @@
       </c>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="125" t="s">
+      <c r="A72" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="125"/>
+      <c r="B72" s="127"/>
       <c r="C72" s="80">
         <f xml:space="preserve"> 65-C71</f>
         <v>52</v>
@@ -7860,7 +8002,7 @@
   <dimension ref="A1:AO70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="F4" sqref="F4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7886,37 +8028,37 @@
     <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -7929,16 +8071,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="108" t="s">
+      <c r="X1" s="110" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -7993,16 +8135,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="108"/>
+      <c r="X2" s="110"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="107">
+        <v>1</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -8070,9 +8212,9 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -8138,9 +8280,9 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -8206,11 +8348,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="105">
+      <c r="A6" s="113"/>
+      <c r="B6" s="107">
         <v>2</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="110" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -8278,9 +8420,9 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="111"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -8346,9 +8488,9 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="111"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -8414,11 +8556,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="111"/>
-      <c r="B9" s="105">
+      <c r="A9" s="113"/>
+      <c r="B9" s="107">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="110" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -8486,9 +8628,9 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="111"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -8554,9 +8696,9 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="111"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -8622,11 +8764,11 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="111"/>
-      <c r="B12" s="105">
+      <c r="A12" s="113"/>
+      <c r="B12" s="107">
         <v>4</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="110" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -8694,9 +8836,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="111"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -8762,9 +8904,9 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -8830,11 +8972,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="113"/>
+      <c r="B15" s="107">
         <v>5</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -8902,9 +9044,9 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -8970,9 +9112,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -9038,11 +9180,11 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="105">
+      <c r="A18" s="113"/>
+      <c r="B18" s="107">
         <v>6</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="110" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -9110,9 +9252,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="111"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -9178,9 +9320,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -9246,11 +9388,11 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="105">
+      <c r="A21" s="113"/>
+      <c r="B21" s="107">
         <v>7</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="110" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -9318,9 +9460,9 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="111"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -9386,9 +9528,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -9454,11 +9596,11 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="111"/>
-      <c r="B24" s="105">
+      <c r="A24" s="113"/>
+      <c r="B24" s="107">
         <v>8</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="116" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -9526,9 +9668,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="111"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="115"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="117"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -9594,9 +9736,9 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -9662,11 +9804,11 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="113"/>
+      <c r="B27" s="107">
         <v>9</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="110" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -9734,9 +9876,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -9802,9 +9944,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="110"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -9870,11 +10012,11 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="111"/>
-      <c r="B30" s="105">
+      <c r="A30" s="113"/>
+      <c r="B30" s="107">
         <v>10</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="110" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -9942,9 +10084,9 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="111"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -10010,9 +10152,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -10078,11 +10220,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="111"/>
-      <c r="B33" s="105">
+      <c r="A33" s="113"/>
+      <c r="B33" s="107">
         <v>11</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="110" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -10150,9 +10292,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="111"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -10218,9 +10360,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="111"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -10286,11 +10428,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="111"/>
-      <c r="B36" s="105">
+      <c r="A36" s="113"/>
+      <c r="B36" s="107">
         <v>12</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="110" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -10358,9 +10500,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="111"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -10426,9 +10568,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="111"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -10494,11 +10636,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="113"/>
+      <c r="B39" s="107">
         <v>13</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -10566,9 +10708,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -10634,9 +10776,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -10702,79 +10844,79 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="111"/>
+      <c r="A42" s="113"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="111"/>
+      <c r="A43" s="113"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120" t="s">
+      <c r="D43" s="122"/>
+      <c r="E43" s="122"/>
+      <c r="F43" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120" t="s">
+      <c r="G43" s="122"/>
+      <c r="H43" s="122"/>
+      <c r="I43" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120" t="s">
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120" t="s">
+      <c r="M43" s="122"/>
+      <c r="N43" s="122"/>
+      <c r="O43" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="117" t="s">
+      <c r="P43" s="122"/>
+      <c r="Q43" s="122"/>
+      <c r="R43" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="118"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="120" t="s">
+      <c r="S43" s="120"/>
+      <c r="T43" s="121"/>
+      <c r="U43" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="117" t="s">
+      <c r="V43" s="122"/>
+      <c r="W43" s="122"/>
+      <c r="X43" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="120" t="s">
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="121"/>
+      <c r="AA43" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120" t="s">
+      <c r="AB43" s="122"/>
+      <c r="AC43" s="122"/>
+      <c r="AD43" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="120"/>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120" t="s">
+      <c r="AE43" s="122"/>
+      <c r="AF43" s="122"/>
+      <c r="AG43" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120" t="s">
+      <c r="AH43" s="122"/>
+      <c r="AI43" s="122"/>
+      <c r="AJ43" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="120"/>
-      <c r="AM43" s="120" t="s">
+      <c r="AK43" s="122"/>
+      <c r="AL43" s="122"/>
+      <c r="AM43" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="120"/>
+      <c r="AN43" s="122"/>
+      <c r="AO43" s="122"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="112"/>
+      <c r="A44" s="114"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -11015,10 +11157,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="123" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="122"/>
+      <c r="B46" s="124"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -11055,10 +11197,10 @@
       <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="123" t="s">
+      <c r="A47" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="123"/>
+      <c r="B47" s="125"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -11217,10 +11359,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="124"/>
+      <c r="B48" s="126"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -11379,10 +11521,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="80" customFormat="1">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="125"/>
+      <c r="B49" s="127"/>
       <c r="C49" s="80">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -11692,77 +11834,77 @@
       <c r="X54" s="85"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="117" t="s">
+      <c r="D55" s="122"/>
+      <c r="E55" s="122"/>
+      <c r="F55" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="120" t="s">
+      <c r="G55" s="120"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="122" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120" t="s">
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120" t="s">
+      <c r="M55" s="122"/>
+      <c r="N55" s="122"/>
+      <c r="O55" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="117" t="s">
+      <c r="P55" s="122"/>
+      <c r="Q55" s="122"/>
+      <c r="R55" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="118"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="120" t="s">
+      <c r="S55" s="120"/>
+      <c r="T55" s="121"/>
+      <c r="U55" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120" t="s">
+      <c r="V55" s="122"/>
+      <c r="W55" s="122"/>
+      <c r="X55" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120" t="s">
+      <c r="Y55" s="122"/>
+      <c r="Z55" s="122"/>
+      <c r="AA55" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120" t="s">
+      <c r="AB55" s="122"/>
+      <c r="AC55" s="122"/>
+      <c r="AD55" s="122" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120" t="s">
+      <c r="AE55" s="122"/>
+      <c r="AF55" s="122"/>
+      <c r="AG55" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120" t="s">
+      <c r="AH55" s="122"/>
+      <c r="AI55" s="122"/>
+      <c r="AJ55" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="120"/>
-      <c r="AL55" s="120"/>
-      <c r="AM55" s="120" t="s">
+      <c r="AK55" s="122"/>
+      <c r="AL55" s="122"/>
+      <c r="AM55" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="120"/>
+      <c r="AN55" s="122"/>
+      <c r="AO55" s="122"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="128" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="127"/>
+      <c r="B56" s="129"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -11882,8 +12024,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="128"/>
-      <c r="B57" s="129"/>
+      <c r="A57" s="130"/>
+      <c r="B57" s="131"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -12003,10 +12145,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="123" t="s">
+      <c r="A58" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="123"/>
+      <c r="B58" s="125"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -12165,10 +12307,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="124" t="s">
+      <c r="A59" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="124"/>
+      <c r="B59" s="126"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -12327,10 +12469,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="125" t="s">
+      <c r="A60" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="125"/>
+      <c r="B60" s="127"/>
       <c r="C60" s="80">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -12511,9 +12653,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="R55:T55"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
     <mergeCell ref="AM55:AO55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="AD55:AF55"/>
@@ -12521,34 +12660,37 @@
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="C21:C23"/>
-    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="AD43:AF43"/>
     <mergeCell ref="AG43:AI43"/>
     <mergeCell ref="AJ43:AL43"/>
     <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="L43:N43"/>
     <mergeCell ref="O43:Q43"/>
     <mergeCell ref="U43:W43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
     <mergeCell ref="C43:E43"/>
     <mergeCell ref="F43:H43"/>
     <mergeCell ref="I43:K43"/>
     <mergeCell ref="A3:A44"/>
-    <mergeCell ref="X1:X2"/>
     <mergeCell ref="R43:T43"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
@@ -12556,14 +12698,14 @@
     <mergeCell ref="C30:C32"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
     <mergeCell ref="B36:B38"/>
     <mergeCell ref="C36:C38"/>
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12577,60 +12719,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:Y23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="46"/>
     <col min="3" max="3" width="13.5" style="46" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="46"/>
+    <col min="4" max="22" width="8.83203125" style="46"/>
+    <col min="26" max="16384" width="8.83203125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-    </row>
-    <row r="2" spans="1:19" ht="84">
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
+    </row>
+    <row r="2" spans="1:25" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -12673,9 +12816,18 @@
       <c r="S2" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="W2" t="s">
+        <v>181</v>
+      </c>
+      <c r="X2" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A3" s="112" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -12732,9 +12884,18 @@
       <c r="S3" s="8">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="111"/>
+      <c r="W3">
+        <v>2006</v>
+      </c>
+      <c r="X3">
+        <v>0.87</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="113"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -12789,9 +12950,18 @@
       <c r="S4" s="8">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A5" s="111"/>
+      <c r="W4">
+        <v>2010</v>
+      </c>
+      <c r="X4" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A5" s="113"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -12846,9 +13016,18 @@
       <c r="S5" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
+      <c r="W5">
+        <v>2014</v>
+      </c>
+      <c r="X5" s="26">
+        <v>0.95</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="113"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -12903,9 +13082,18 @@
       <c r="S6" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A7" s="111"/>
+      <c r="W6">
+        <v>2006</v>
+      </c>
+      <c r="X6">
+        <v>0.66</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A7" s="113"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -12960,9 +13148,18 @@
       <c r="S7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A8" s="111"/>
+      <c r="W7">
+        <v>2010</v>
+      </c>
+      <c r="X7" s="104">
+        <v>0.71</v>
+      </c>
+      <c r="Y7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -13017,9 +13214,18 @@
       <c r="S8" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="W8">
+        <v>2014</v>
+      </c>
+      <c r="X8" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1">
+      <c r="A9" s="113"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -13074,9 +13280,18 @@
       <c r="S9" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+      <c r="W9">
+        <v>2006</v>
+      </c>
+      <c r="X9">
+        <v>0.69</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="113"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -13131,9 +13346,18 @@
       <c r="S10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+      <c r="W10">
+        <v>2010</v>
+      </c>
+      <c r="X10" s="104">
+        <v>0.69</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="113"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -13188,9 +13412,18 @@
       <c r="S11" s="8">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
+      <c r="W11">
+        <v>2014</v>
+      </c>
+      <c r="X11" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="Y11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="113"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -13245,9 +13478,18 @@
       <c r="S12" s="8">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+      <c r="W12">
+        <v>2006</v>
+      </c>
+      <c r="X12">
+        <v>0.41</v>
+      </c>
+      <c r="Y12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="113"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -13302,9 +13544,18 @@
       <c r="S13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+      <c r="W13">
+        <v>2010</v>
+      </c>
+      <c r="X13" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="Y13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="113"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -13359,9 +13610,18 @@
       <c r="S14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+      <c r="W14">
+        <v>2014</v>
+      </c>
+      <c r="X14" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="Y14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="113"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -13416,8 +13676,17 @@
       <c r="S15" s="5">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="W15">
+        <v>2006</v>
+      </c>
+      <c r="X15">
+        <v>1.22</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="B16" s="45" t="s">
         <v>69</v>
       </c>
@@ -13472,8 +13741,28 @@
       <c r="S16" s="46">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="W16">
+        <v>2010</v>
+      </c>
+      <c r="X16" s="104">
+        <v>1.28</v>
+      </c>
+      <c r="Y16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="W17">
+        <v>2014</v>
+      </c>
+      <c r="X17" s="26">
+        <v>1.36</v>
+      </c>
+      <c r="Y17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" s="47" t="s">
         <v>68</v>
       </c>
@@ -13519,8 +13808,17 @@
       <c r="O18" s="8">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="W18">
+        <v>2006</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="45" t="s">
         <v>55</v>
       </c>
@@ -13566,8 +13864,17 @@
       <c r="O19" s="8">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="W19">
+        <v>2010</v>
+      </c>
+      <c r="X19" s="105">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="45" t="s">
         <v>57</v>
       </c>
@@ -13613,8 +13920,17 @@
       <c r="O20" s="5">
         <v>0.22</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="W20">
+        <v>2014</v>
+      </c>
+      <c r="X20" s="27">
+        <v>1</v>
+      </c>
+      <c r="Y20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="45" t="s">
         <v>58</v>
       </c>
@@ -13660,8 +13976,17 @@
       <c r="O21" s="7">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="W21">
+        <v>2006</v>
+      </c>
+      <c r="X21">
+        <v>0.98</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="45" t="s">
         <v>59</v>
       </c>
@@ -13707,8 +14032,17 @@
       <c r="O22" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="W22">
+        <v>2010</v>
+      </c>
+      <c r="X22" s="105">
+        <v>1</v>
+      </c>
+      <c r="Y22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="45" t="s">
         <v>60</v>
       </c>
@@ -13754,8 +14088,17 @@
       <c r="O23" s="8">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="W23">
+        <v>2014</v>
+      </c>
+      <c r="X23" s="27">
+        <v>1.01</v>
+      </c>
+      <c r="Y23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="45" t="s">
         <v>61</v>
       </c>
@@ -13802,7 +14145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:26">
       <c r="A25" s="45" t="s">
         <v>62</v>
       </c>
@@ -13849,7 +14192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:26">
       <c r="A26" s="45" t="s">
         <v>56</v>
       </c>
@@ -13896,7 +14239,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:26">
       <c r="A27" s="45" t="s">
         <v>63</v>
       </c>
@@ -13943,7 +14286,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:26">
       <c r="A28" s="45" t="s">
         <v>64</v>
       </c>
@@ -13990,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:26" ht="14">
       <c r="A29" s="45" t="s">
         <v>65</v>
       </c>
@@ -14036,8 +14379,29 @@
       <c r="O29" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="T29" s="104">
+        <v>0.9</v>
+      </c>
+      <c r="U29" s="104">
+        <v>0.71</v>
+      </c>
+      <c r="V29" s="104">
+        <v>0.69</v>
+      </c>
+      <c r="W29" s="104">
+        <v>0.5</v>
+      </c>
+      <c r="X29" s="104">
+        <v>1.28</v>
+      </c>
+      <c r="Y29" s="105">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="14">
       <c r="A30" s="45" t="s">
         <v>66</v>
       </c>
@@ -14082,6 +14446,27 @@
       </c>
       <c r="O30" s="5">
         <v>0.43</v>
+      </c>
+      <c r="T30" s="26">
+        <v>0.95</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0.74</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="W30" s="26">
+        <v>0.67</v>
+      </c>
+      <c r="X30" s="26">
+        <v>1.36</v>
+      </c>
+      <c r="Y30" s="27">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="27">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
@@ -14096,6 +14481,7 @@
     <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -14123,44 +14509,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -14205,7 +14591,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -14264,7 +14650,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="111"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -14321,7 +14707,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="111"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -14378,7 +14764,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -14435,7 +14821,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -14492,7 +14878,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="111"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -14549,7 +14935,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -14606,7 +14992,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -14663,7 +15049,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -14720,7 +15106,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -14777,7 +15163,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -14834,7 +15220,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -14891,7 +15277,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -15705,44 +16091,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -15787,7 +16173,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -15846,7 +16232,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="111"/>
+      <c r="A4" s="113"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -15903,7 +16289,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="111"/>
+      <c r="A5" s="113"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -15960,7 +16346,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
+      <c r="A6" s="113"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -16017,7 +16403,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="111"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -16074,7 +16460,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="111"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -16131,7 +16517,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="24">
-      <c r="A9" s="111"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -16188,7 +16574,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -16245,7 +16631,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+      <c r="A11" s="113"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -16302,7 +16688,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
+      <c r="A12" s="113"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -16359,7 +16745,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+      <c r="A13" s="113"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -16416,7 +16802,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+      <c r="A14" s="113"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -16473,7 +16859,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+      <c r="A15" s="113"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16594,171 +16980,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="20" customHeight="1">
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="K1" s="132"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="105">
-        <v>1</v>
-      </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="105">
+      <c r="C2" s="107">
+        <v>1</v>
+      </c>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="107">
         <v>2</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="105">
+      <c r="G2" s="108"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="107">
         <v>3</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="105">
+      <c r="J2" s="108"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="107">
         <v>4</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="105">
+      <c r="M2" s="108"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="107">
         <v>5</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="105">
+      <c r="P2" s="108"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="107">
         <v>6</v>
       </c>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="105">
+      <c r="S2" s="108"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="107">
         <v>7</v>
       </c>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="105">
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="107">
         <v>8</v>
       </c>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="105">
+      <c r="Y2" s="108"/>
+      <c r="Z2" s="109"/>
+      <c r="AA2" s="107">
         <v>14</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="105">
+      <c r="AB2" s="108"/>
+      <c r="AC2" s="109"/>
+      <c r="AD2" s="107">
         <v>9</v>
       </c>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="105">
+      <c r="AE2" s="108"/>
+      <c r="AF2" s="109"/>
+      <c r="AG2" s="107">
         <v>10</v>
       </c>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="105">
+      <c r="AH2" s="108"/>
+      <c r="AI2" s="109"/>
+      <c r="AJ2" s="107">
         <v>11</v>
       </c>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="105">
+      <c r="AK2" s="108"/>
+      <c r="AL2" s="109"/>
+      <c r="AM2" s="107">
         <v>12</v>
       </c>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="105">
+      <c r="AN2" s="108"/>
+      <c r="AO2" s="109"/>
+      <c r="AP2" s="107">
         <v>13</v>
       </c>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="107"/>
+      <c r="AQ2" s="108"/>
+      <c r="AR2" s="109"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="110"/>
+      <c r="C3" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108" t="s">
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108" t="s">
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108" t="s">
+      <c r="M3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108" t="s">
+      <c r="P3" s="110"/>
+      <c r="Q3" s="110"/>
+      <c r="R3" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108" t="s">
+      <c r="S3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108" t="s">
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="114" t="s">
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="110"/>
+      <c r="AA3" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="108" t="s">
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108" t="s">
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108" t="s">
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108" t="s">
+      <c r="AK3" s="110"/>
+      <c r="AL3" s="110"/>
+      <c r="AM3" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108" t="s">
+      <c r="AN3" s="110"/>
+      <c r="AO3" s="110"/>
+      <c r="AP3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
+      <c r="AQ3" s="110"/>
+      <c r="AR3" s="110"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="110"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -16887,10 +17273,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="108"/>
+      <c r="B5" s="110"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -17019,7 +17405,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="115" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17153,7 +17539,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -17285,7 +17671,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -17417,7 +17803,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -17549,7 +17935,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -17681,7 +18067,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="111" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -17815,7 +18201,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="109"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -17947,7 +18333,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="109"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -18079,7 +18465,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="109"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -18211,7 +18597,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="106" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -18345,7 +18731,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="104"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -18477,7 +18863,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="111" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -18611,7 +18997,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="109"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -18743,7 +19129,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="111"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -19648,44 +20034,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="111"/>
+      <c r="S1" s="111"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -19730,13 +20116,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="107">
+        <v>1</v>
+      </c>
+      <c r="C3" s="110" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -19789,9 +20175,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="110"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -19842,9 +20228,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -19895,11 +20281,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
-      <c r="B6" s="105">
+      <c r="A6" s="113"/>
+      <c r="B6" s="107">
         <v>2</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="110" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -19952,9 +20338,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="111"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="113"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="110"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -20005,9 +20391,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="111"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="110"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -20058,11 +20444,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="111"/>
-      <c r="B9" s="105">
+      <c r="A9" s="113"/>
+      <c r="B9" s="107">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="110" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -20115,9 +20501,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="110"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -20168,9 +20554,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -20221,11 +20607,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
-      <c r="B12" s="105">
+      <c r="A12" s="113"/>
+      <c r="B12" s="107">
         <v>4</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="110" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -20278,9 +20664,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="110"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -20331,9 +20717,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="110"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -20384,11 +20770,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="113"/>
+      <c r="B15" s="107">
         <v>5</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="110" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -20441,9 +20827,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="113"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="110"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -20494,9 +20880,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -20547,11 +20933,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="111"/>
-      <c r="B18" s="105">
+      <c r="A18" s="113"/>
+      <c r="B18" s="107">
         <v>6</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="110" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -20604,9 +20990,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="111"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="113"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -20657,9 +21043,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="110"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -20710,11 +21096,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="111"/>
-      <c r="B21" s="105">
+      <c r="A21" s="113"/>
+      <c r="B21" s="107">
         <v>7</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="110" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -20767,9 +21153,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="111"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="113"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="110"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -20820,9 +21206,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="110"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -20873,11 +21259,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="111"/>
-      <c r="B24" s="105">
+      <c r="A24" s="113"/>
+      <c r="B24" s="107">
         <v>8</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="110" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -20930,9 +21316,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="111"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="113"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="110"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -20983,9 +21369,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="110"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -21036,11 +21422,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="113"/>
+      <c r="B27" s="107">
         <v>14</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="116" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -21093,9 +21479,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="115"/>
+      <c r="A28" s="113"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="117"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -21146,9 +21532,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -21199,11 +21585,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="111"/>
-      <c r="B30" s="105">
+      <c r="A30" s="113"/>
+      <c r="B30" s="107">
         <v>9</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="110" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -21256,9 +21642,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="111"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="113"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="110"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -21309,9 +21695,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="110"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -21362,11 +21748,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="111"/>
-      <c r="B33" s="105">
+      <c r="A33" s="113"/>
+      <c r="B33" s="107">
         <v>10</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="110" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -21419,9 +21805,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="111"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="113"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="110"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -21472,9 +21858,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="111"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="110"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -21525,11 +21911,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="111"/>
-      <c r="B36" s="105">
+      <c r="A36" s="113"/>
+      <c r="B36" s="107">
         <v>11</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="110" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -21582,9 +21968,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="111"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="113"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="110"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -21635,9 +22021,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="111"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -21688,11 +22074,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="113"/>
+      <c r="B39" s="107">
         <v>12</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="110" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -21745,9 +22131,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="113"/>
+      <c r="B40" s="108"/>
+      <c r="C40" s="110"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -21798,9 +22184,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="110"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -21851,11 +22237,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="111"/>
-      <c r="B42" s="105">
+      <c r="A42" s="113"/>
+      <c r="B42" s="107">
         <v>13</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="110" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -21908,9 +22294,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="111"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="108"/>
+      <c r="A43" s="113"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -21961,9 +22347,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="112"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="109"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -22014,81 +22400,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="110"/>
+      <c r="C46" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108" t="s">
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108" t="s">
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108" t="s">
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+      <c r="L46" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108" t="s">
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108" t="s">
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="114" t="s">
+      <c r="S46" s="110"/>
+      <c r="T46" s="110"/>
+      <c r="U46" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="115"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="114" t="s">
+      <c r="V46" s="117"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="116" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="115"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="108" t="s">
+      <c r="Y46" s="117"/>
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108" t="s">
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108" t="s">
+      <c r="AE46" s="110"/>
+      <c r="AF46" s="110"/>
+      <c r="AG46" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108" t="s">
+      <c r="AH46" s="110"/>
+      <c r="AI46" s="110"/>
+      <c r="AJ46" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="108" t="s">
+      <c r="AK46" s="110"/>
+      <c r="AL46" s="110"/>
+      <c r="AM46" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="108"/>
-      <c r="AO46" s="108"/>
+      <c r="AN46" s="110"/>
+      <c r="AO46" s="110"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="108"/>
+      <c r="B47" s="110"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -22208,10 +22594,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="108"/>
+      <c r="B48" s="110"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -22331,7 +22717,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="131" t="s">
+      <c r="B49" s="133" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="63">
@@ -22342,7 +22728,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="124"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -22351,7 +22737,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="124"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>

--- a/mymap/jsons/GenderGap_Find4Hourglass.xlsx
+++ b/mymap/jsons/GenderGap_Find4Hourglass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="0" windowWidth="29860" windowHeight="16440" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="29520" windowHeight="19160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total_W2E" sheetId="9" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1335,8 +1335,70 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1627,13 +1689,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1648,7 +1740,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1663,54 +1767,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1718,7 +1774,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="265">
     <cellStyle name="Bad" xfId="107" builtinId="27"/>
     <cellStyle name="Check Cell" xfId="108" builtinId="23"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1820,6 +1876,37 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="106" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1920,6 +2007,37 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="105"/>
   </cellStyles>
@@ -2296,11 +2414,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="-2139658376"/>
-        <c:axId val="-2143333032"/>
+        <c:axId val="-2060104056"/>
+        <c:axId val="-2060101080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139658376"/>
+        <c:axId val="-2060104056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,7 +2427,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143333032"/>
+        <c:crossAx val="-2060101080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2317,7 +2435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143333032"/>
+        <c:axId val="-2060101080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2333,14 +2451,13 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2139658376"/>
+        <c:crossAx val="-2060104056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2548,11 +2665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143376408"/>
-        <c:axId val="-2143401960"/>
+        <c:axId val="-2132708184"/>
+        <c:axId val="-2132711192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143376408"/>
+        <c:axId val="-2132708184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143401960"/>
+        <c:crossAx val="-2132711192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143401960"/>
+        <c:axId val="-2132711192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,7 +2697,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2143376408"/>
+        <c:crossAx val="-2132708184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3036,37 +3153,37 @@
     <row r="1" spans="1:27" ht="34" customHeight="1">
       <c r="A1" s="97"/>
       <c r="B1" s="97"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="111" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -3083,9 +3200,9 @@
     <row r="2" spans="1:27" ht="113" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3154,13 +3271,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="107">
-        <v>1</v>
-      </c>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="117">
+        <v>1</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="92">
@@ -3228,9 +3345,9 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="113"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="110"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="92">
         <v>2010</v>
       </c>
@@ -3296,9 +3413,9 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="113"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -3364,7 +3481,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="113"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="25"/>
@@ -3386,11 +3503,11 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="113"/>
-      <c r="B7" s="107">
+      <c r="A7" s="127"/>
+      <c r="B7" s="117">
         <v>2</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="120" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="92">
@@ -3458,9 +3575,9 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="113"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="110"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="92">
         <v>2010</v>
       </c>
@@ -3526,9 +3643,9 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="113"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="25">
         <v>2014</v>
       </c>
@@ -3594,7 +3711,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="113"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="25"/>
@@ -3616,11 +3733,11 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="113"/>
-      <c r="B11" s="107">
+      <c r="A11" s="127"/>
+      <c r="B11" s="117">
         <v>3</v>
       </c>
-      <c r="C11" s="110" t="s">
+      <c r="C11" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="92">
@@ -3688,9 +3805,9 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="113"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="110"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="92">
         <v>2010</v>
       </c>
@@ -3756,9 +3873,9 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="113"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="25">
         <v>2014</v>
       </c>
@@ -3824,7 +3941,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="113"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="25"/>
@@ -3846,11 +3963,11 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="113"/>
-      <c r="B15" s="107">
+      <c r="A15" s="127"/>
+      <c r="B15" s="117">
         <v>4</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="92">
@@ -3918,9 +4035,9 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="113"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="92">
         <v>2010</v>
       </c>
@@ -3986,9 +4103,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="113"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -4054,7 +4171,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="113"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="25"/>
@@ -4076,11 +4193,11 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="113"/>
-      <c r="B19" s="107">
+      <c r="A19" s="127"/>
+      <c r="B19" s="117">
         <v>5</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="120" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="92">
@@ -4148,9 +4265,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="113"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="110"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="92">
         <v>2010</v>
       </c>
@@ -4216,9 +4333,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="113"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="110"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="25">
         <v>2014</v>
       </c>
@@ -4284,7 +4401,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="113"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="25"/>
@@ -4306,11 +4423,11 @@
       <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="113"/>
-      <c r="B23" s="107">
+      <c r="A23" s="127"/>
+      <c r="B23" s="117">
         <v>6</v>
       </c>
-      <c r="C23" s="110" t="s">
+      <c r="C23" s="120" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="92">
@@ -4378,9 +4495,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="113"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="110"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="92">
         <v>2010</v>
       </c>
@@ -4446,9 +4563,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="113"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="110"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="25">
         <v>2014</v>
       </c>
@@ -4514,7 +4631,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="113"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="25"/>
@@ -4536,11 +4653,11 @@
       <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="113"/>
-      <c r="B27" s="107">
+      <c r="A27" s="127"/>
+      <c r="B27" s="117">
         <v>7</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="120" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="92">
@@ -4608,9 +4725,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="113"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="110"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="92">
         <v>2010</v>
       </c>
@@ -4676,9 +4793,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="113"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -4744,7 +4861,7 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="113"/>
+      <c r="A30" s="127"/>
       <c r="B30" s="91"/>
       <c r="C30" s="95"/>
       <c r="D30" s="25"/>
@@ -4766,11 +4883,11 @@
       <c r="X30" s="101"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="113"/>
-      <c r="B31" s="107">
+      <c r="A31" s="127"/>
+      <c r="B31" s="117">
         <v>8</v>
       </c>
-      <c r="C31" s="116" t="s">
+      <c r="C31" s="121" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="92">
@@ -4838,9 +4955,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="113"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="117"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="92">
         <v>2010</v>
       </c>
@@ -4906,9 +5023,9 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="113"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="118"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="25">
         <v>2014</v>
       </c>
@@ -4974,7 +5091,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="113"/>
+      <c r="A34" s="127"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="25"/>
@@ -4996,11 +5113,11 @@
       <c r="X34" s="101"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="113"/>
-      <c r="B35" s="107">
+      <c r="A35" s="127"/>
+      <c r="B35" s="117">
         <v>9</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="120" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="92">
@@ -5068,9 +5185,9 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="113"/>
-      <c r="B36" s="108"/>
-      <c r="C36" s="110"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="92">
         <v>2010</v>
       </c>
@@ -5136,9 +5253,9 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="113"/>
-      <c r="B37" s="109"/>
-      <c r="C37" s="110"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="25">
         <v>2014</v>
       </c>
@@ -5204,7 +5321,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="113"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="25"/>
@@ -5226,11 +5343,11 @@
       <c r="X38" s="101"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="113"/>
-      <c r="B39" s="107">
+      <c r="A39" s="127"/>
+      <c r="B39" s="117">
         <v>10</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="120" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="92">
@@ -5298,9 +5415,9 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="113"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="110"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="92">
         <v>2010</v>
       </c>
@@ -5366,9 +5483,9 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="113"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="110"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -5434,7 +5551,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="113"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="25"/>
@@ -5456,11 +5573,11 @@
       <c r="X42" s="101"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="113"/>
-      <c r="B43" s="107">
+      <c r="A43" s="127"/>
+      <c r="B43" s="117">
         <v>11</v>
       </c>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="92">
@@ -5528,9 +5645,9 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="113"/>
-      <c r="B44" s="108"/>
-      <c r="C44" s="110"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="120"/>
       <c r="D44" s="92">
         <v>2010</v>
       </c>
@@ -5596,9 +5713,9 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="113"/>
-      <c r="B45" s="109"/>
-      <c r="C45" s="110"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
       <c r="D45" s="25">
         <v>2014</v>
       </c>
@@ -5664,7 +5781,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="113"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="25"/>
@@ -5686,11 +5803,11 @@
       <c r="X46" s="101"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="113"/>
-      <c r="B47" s="107">
+      <c r="A47" s="127"/>
+      <c r="B47" s="117">
         <v>12</v>
       </c>
-      <c r="C47" s="110" t="s">
+      <c r="C47" s="120" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="92">
@@ -5758,9 +5875,9 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="113"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="110"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="120"/>
       <c r="D48" s="92">
         <v>2010</v>
       </c>
@@ -5826,9 +5943,9 @@
       </c>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="113"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="110"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="120"/>
       <c r="D49" s="25">
         <v>2014</v>
       </c>
@@ -5894,7 +6011,7 @@
       </c>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="113"/>
+      <c r="A50" s="127"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92"/>
       <c r="D50" s="25"/>
@@ -5916,11 +6033,11 @@
       <c r="X50" s="101"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="113"/>
-      <c r="B51" s="107">
+      <c r="A51" s="127"/>
+      <c r="B51" s="117">
         <v>13</v>
       </c>
-      <c r="C51" s="110" t="s">
+      <c r="C51" s="120" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="92">
@@ -5988,9 +6105,9 @@
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="113"/>
-      <c r="B52" s="108"/>
-      <c r="C52" s="110"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="92">
         <v>2010</v>
       </c>
@@ -6056,9 +6173,9 @@
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="113"/>
-      <c r="B53" s="109"/>
-      <c r="C53" s="110"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="120"/>
       <c r="D53" s="25">
         <v>2014</v>
       </c>
@@ -6124,79 +6241,79 @@
       </c>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="113"/>
+      <c r="A54" s="127"/>
     </row>
     <row r="55" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="113"/>
+      <c r="A55" s="127"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="122" t="s">
+      <c r="C55" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="122" t="s">
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="122"/>
-      <c r="H55" s="122"/>
-      <c r="I55" s="122" t="s">
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122" t="s">
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122" t="s">
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="119" t="s">
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="120"/>
-      <c r="T55" s="121"/>
-      <c r="U55" s="122" t="s">
+      <c r="S55" s="113"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="V55" s="122"/>
-      <c r="W55" s="122"/>
-      <c r="X55" s="119" t="s">
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="121"/>
-      <c r="AA55" s="122" t="s">
+      <c r="Y55" s="113"/>
+      <c r="Z55" s="114"/>
+      <c r="AA55" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="AB55" s="122"/>
-      <c r="AC55" s="122"/>
-      <c r="AD55" s="122" t="s">
+      <c r="AB55" s="104"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="122"/>
-      <c r="AF55" s="122"/>
-      <c r="AG55" s="122" t="s">
+      <c r="AE55" s="104"/>
+      <c r="AF55" s="104"/>
+      <c r="AG55" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AH55" s="122"/>
-      <c r="AI55" s="122"/>
-      <c r="AJ55" s="122" t="s">
+      <c r="AH55" s="104"/>
+      <c r="AI55" s="104"/>
+      <c r="AJ55" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="122"/>
-      <c r="AL55" s="122"/>
-      <c r="AM55" s="122" t="s">
+      <c r="AK55" s="104"/>
+      <c r="AL55" s="104"/>
+      <c r="AM55" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AN55" s="122"/>
-      <c r="AO55" s="122"/>
+      <c r="AN55" s="104"/>
+      <c r="AO55" s="104"/>
     </row>
     <row r="56" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A56" s="114"/>
+      <c r="A56" s="128"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86" t="s">
         <v>72</v>
@@ -6437,10 +6554,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="123" t="s">
+      <c r="A58" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="124"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="79">
         <v>2006</v>
       </c>
@@ -6477,10 +6594,10 @@
       <c r="Y58" s="100"/>
     </row>
     <row r="59" spans="1:41" ht="16" thickTop="1">
-      <c r="A59" s="125" t="s">
+      <c r="A59" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="125"/>
+      <c r="B59" s="109"/>
       <c r="C59">
         <f xml:space="preserve"> C57/115</f>
         <v>3.4782608695652174E-2</v>
@@ -6639,10 +6756,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="126" t="s">
+      <c r="A60" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="126"/>
+      <c r="B60" s="110"/>
       <c r="C60">
         <f xml:space="preserve"> C59*72</f>
         <v>2.5043478260869567</v>
@@ -6801,10 +6918,10 @@
       </c>
     </row>
     <row r="61" spans="1:41" s="80" customFormat="1">
-      <c r="A61" s="127" t="s">
+      <c r="A61" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="127"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="80">
         <f xml:space="preserve"> 72-C60</f>
         <v>69.495652173913044</v>
@@ -7114,77 +7231,77 @@
       <c r="X66" s="85"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="C67" s="122" t="s">
+      <c r="C67" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="122"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="119" t="s">
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="120"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="122" t="s">
+      <c r="G67" s="113"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="122"/>
-      <c r="K67" s="122"/>
-      <c r="L67" s="122" t="s">
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M67" s="122"/>
-      <c r="N67" s="122"/>
-      <c r="O67" s="122" t="s">
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="122"/>
-      <c r="Q67" s="122"/>
-      <c r="R67" s="119" t="s">
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="120"/>
-      <c r="T67" s="121"/>
-      <c r="U67" s="122" t="s">
+      <c r="S67" s="113"/>
+      <c r="T67" s="114"/>
+      <c r="U67" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="122"/>
-      <c r="W67" s="122"/>
-      <c r="X67" s="122" t="s">
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="122"/>
-      <c r="Z67" s="122"/>
-      <c r="AA67" s="122" t="s">
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+      <c r="AA67" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="122"/>
-      <c r="AC67" s="122"/>
-      <c r="AD67" s="122" t="s">
+      <c r="AB67" s="104"/>
+      <c r="AC67" s="104"/>
+      <c r="AD67" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE67" s="122"/>
-      <c r="AF67" s="122"/>
-      <c r="AG67" s="122" t="s">
+      <c r="AE67" s="104"/>
+      <c r="AF67" s="104"/>
+      <c r="AG67" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AH67" s="122"/>
-      <c r="AI67" s="122"/>
-      <c r="AJ67" s="122" t="s">
+      <c r="AH67" s="104"/>
+      <c r="AI67" s="104"/>
+      <c r="AJ67" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK67" s="122"/>
-      <c r="AL67" s="122"/>
-      <c r="AM67" s="122" t="s">
+      <c r="AK67" s="104"/>
+      <c r="AL67" s="104"/>
+      <c r="AM67" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AN67" s="122"/>
-      <c r="AO67" s="122"/>
+      <c r="AN67" s="104"/>
+      <c r="AO67" s="104"/>
     </row>
     <row r="68" spans="1:41" ht="70">
-      <c r="A68" s="128" t="s">
+      <c r="A68" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="129"/>
+      <c r="B68" s="106"/>
       <c r="C68" s="86" t="s">
         <v>99</v>
       </c>
@@ -7304,8 +7421,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="16" thickBot="1">
-      <c r="A69" s="130"/>
-      <c r="B69" s="131"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="86">
         <v>23</v>
       </c>
@@ -7425,10 +7542,10 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="16" thickTop="1">
-      <c r="A70" s="125" t="s">
+      <c r="A70" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="125"/>
+      <c r="B70" s="109"/>
       <c r="C70">
         <f xml:space="preserve"> C69/115</f>
         <v>0.2</v>
@@ -7587,10 +7704,10 @@
       </c>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="126" t="s">
+      <c r="A71" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="126"/>
+      <c r="B71" s="110"/>
       <c r="C71">
         <f xml:space="preserve"> C70*65</f>
         <v>13</v>
@@ -7749,10 +7866,10 @@
       </c>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="127" t="s">
+      <c r="A72" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="127"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="80">
         <f xml:space="preserve"> 65-C71</f>
         <v>52</v>
@@ -7917,23 +8034,41 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="AJ67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A3:A56"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="AM55:AO55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
@@ -7950,41 +8085,23 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A3:A56"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="AJ67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8028,37 +8145,37 @@
     <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="111" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -8071,16 +8188,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="110" t="s">
+      <c r="X1" s="120" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -8135,16 +8252,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="110"/>
+      <c r="X2" s="120"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="107">
-        <v>1</v>
-      </c>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="117">
+        <v>1</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -8212,9 +8329,9 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="113"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="110"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -8280,9 +8397,9 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="113"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -8348,11 +8465,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="113"/>
-      <c r="B6" s="107">
+      <c r="A6" s="127"/>
+      <c r="B6" s="117">
         <v>2</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="120" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -8420,9 +8537,9 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="113"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="110"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -8488,9 +8605,9 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="113"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -8556,11 +8673,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="113"/>
-      <c r="B9" s="107">
+      <c r="A9" s="127"/>
+      <c r="B9" s="117">
         <v>3</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -8628,9 +8745,9 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="113"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="110"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -8696,9 +8813,9 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="113"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -8764,11 +8881,11 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="113"/>
-      <c r="B12" s="107">
+      <c r="A12" s="127"/>
+      <c r="B12" s="117">
         <v>4</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -8836,9 +8953,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="113"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -8904,9 +9021,9 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="113"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -8972,11 +9089,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="107">
+      <c r="A15" s="127"/>
+      <c r="B15" s="117">
         <v>5</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="120" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -9044,9 +9161,9 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="113"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -9112,9 +9229,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="113"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -9180,11 +9297,11 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="113"/>
-      <c r="B18" s="107">
+      <c r="A18" s="127"/>
+      <c r="B18" s="117">
         <v>6</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="120" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -9252,9 +9369,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="113"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="110"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -9320,9 +9437,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="113"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -9388,11 +9505,11 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="113"/>
-      <c r="B21" s="107">
+      <c r="A21" s="127"/>
+      <c r="B21" s="117">
         <v>7</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="120" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -9460,9 +9577,9 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="113"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="110"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -9528,9 +9645,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="113"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -9596,11 +9713,11 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="113"/>
-      <c r="B24" s="107">
+      <c r="A24" s="127"/>
+      <c r="B24" s="117">
         <v>8</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="121" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -9668,9 +9785,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="113"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="117"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -9736,9 +9853,9 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="113"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="118"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -9804,11 +9921,11 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="113"/>
-      <c r="B27" s="107">
+      <c r="A27" s="127"/>
+      <c r="B27" s="117">
         <v>9</v>
       </c>
-      <c r="C27" s="110" t="s">
+      <c r="C27" s="120" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -9876,9 +9993,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="113"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="110"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -9944,9 +10061,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="113"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="110"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -10012,11 +10129,11 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="113"/>
-      <c r="B30" s="107">
+      <c r="A30" s="127"/>
+      <c r="B30" s="117">
         <v>10</v>
       </c>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="120" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -10084,9 +10201,9 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="113"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="110"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -10152,9 +10269,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="113"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -10220,11 +10337,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="113"/>
-      <c r="B33" s="107">
+      <c r="A33" s="127"/>
+      <c r="B33" s="117">
         <v>11</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -10292,9 +10409,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="113"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="110"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -10360,9 +10477,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="113"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -10428,11 +10545,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="113"/>
-      <c r="B36" s="107">
+      <c r="A36" s="127"/>
+      <c r="B36" s="117">
         <v>12</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="120" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -10500,9 +10617,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="113"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="110"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -10568,9 +10685,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="113"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -10636,11 +10753,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="113"/>
-      <c r="B39" s="107">
+      <c r="A39" s="127"/>
+      <c r="B39" s="117">
         <v>13</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="120" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -10708,9 +10825,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="113"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="110"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -10776,9 +10893,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="113"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="110"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -10844,79 +10961,79 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="113"/>
+      <c r="A42" s="127"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="113"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="122" t="s">
+      <c r="C43" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="122"/>
-      <c r="E43" s="122"/>
-      <c r="F43" s="122" t="s">
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="122"/>
-      <c r="H43" s="122"/>
-      <c r="I43" s="122" t="s">
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="122" t="s">
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="122"/>
-      <c r="N43" s="122"/>
-      <c r="O43" s="122" t="s">
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="122"/>
-      <c r="Q43" s="122"/>
-      <c r="R43" s="119" t="s">
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="120"/>
-      <c r="T43" s="121"/>
-      <c r="U43" s="122" t="s">
+      <c r="S43" s="113"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="122"/>
-      <c r="W43" s="122"/>
-      <c r="X43" s="119" t="s">
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="121"/>
-      <c r="AA43" s="122" t="s">
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="122"/>
-      <c r="AC43" s="122"/>
-      <c r="AD43" s="122" t="s">
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="122"/>
-      <c r="AF43" s="122"/>
-      <c r="AG43" s="122" t="s">
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="104"/>
+      <c r="AG43" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="122"/>
-      <c r="AI43" s="122"/>
-      <c r="AJ43" s="122" t="s">
+      <c r="AH43" s="104"/>
+      <c r="AI43" s="104"/>
+      <c r="AJ43" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="122"/>
-      <c r="AL43" s="122"/>
-      <c r="AM43" s="122" t="s">
+      <c r="AK43" s="104"/>
+      <c r="AL43" s="104"/>
+      <c r="AM43" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="122"/>
-      <c r="AO43" s="122"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="114"/>
+      <c r="A44" s="128"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -11157,10 +11274,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="123" t="s">
+      <c r="A46" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="124"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -11197,10 +11314,10 @@
       <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="125" t="s">
+      <c r="A47" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="125"/>
+      <c r="B47" s="109"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -11359,10 +11476,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="126" t="s">
+      <c r="A48" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="126"/>
+      <c r="B48" s="110"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -11521,10 +11638,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="80" customFormat="1">
-      <c r="A49" s="127" t="s">
+      <c r="A49" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="127"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="80">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -11834,77 +11951,77 @@
       <c r="X54" s="85"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="122" t="s">
+      <c r="C55" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="122"/>
-      <c r="E55" s="122"/>
-      <c r="F55" s="119" t="s">
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="120"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="122" t="s">
+      <c r="G55" s="113"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="122" t="s">
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="122"/>
-      <c r="N55" s="122"/>
-      <c r="O55" s="122" t="s">
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="122"/>
-      <c r="Q55" s="122"/>
-      <c r="R55" s="119" t="s">
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="120"/>
-      <c r="T55" s="121"/>
-      <c r="U55" s="122" t="s">
+      <c r="S55" s="113"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="122"/>
-      <c r="W55" s="122"/>
-      <c r="X55" s="122" t="s">
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="122"/>
-      <c r="Z55" s="122"/>
-      <c r="AA55" s="122" t="s">
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="122"/>
-      <c r="AC55" s="122"/>
-      <c r="AD55" s="122" t="s">
+      <c r="AB55" s="104"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="122"/>
-      <c r="AF55" s="122"/>
-      <c r="AG55" s="122" t="s">
+      <c r="AE55" s="104"/>
+      <c r="AF55" s="104"/>
+      <c r="AG55" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="122"/>
-      <c r="AI55" s="122"/>
-      <c r="AJ55" s="122" t="s">
+      <c r="AH55" s="104"/>
+      <c r="AI55" s="104"/>
+      <c r="AJ55" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="122"/>
-      <c r="AL55" s="122"/>
-      <c r="AM55" s="122" t="s">
+      <c r="AK55" s="104"/>
+      <c r="AL55" s="104"/>
+      <c r="AM55" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="122"/>
-      <c r="AO55" s="122"/>
+      <c r="AN55" s="104"/>
+      <c r="AO55" s="104"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="129"/>
+      <c r="B56" s="106"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -12024,8 +12141,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="130"/>
-      <c r="B57" s="131"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -12145,10 +12262,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="125" t="s">
+      <c r="A58" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="125"/>
+      <c r="B58" s="109"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -12307,10 +12424,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="126" t="s">
+      <c r="A59" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="126"/>
+      <c r="B59" s="110"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -12469,10 +12586,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="127" t="s">
+      <c r="A60" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="127"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="80">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -12637,6 +12754,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A3:A44"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="A46:B46"/>
@@ -12653,59 +12823,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="R55:T55"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A3:A44"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12719,10 +12836,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:Y23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:Y44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12736,44 +12853,44 @@
     <row r="1" spans="1:25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="111" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:25" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -12827,7 +12944,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -12895,7 +13012,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="113"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -12953,7 +13070,7 @@
       <c r="W4">
         <v>2010</v>
       </c>
-      <c r="X4" s="104">
+      <c r="X4">
         <v>0.9</v>
       </c>
       <c r="Y4">
@@ -12961,7 +13078,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -13019,7 +13136,7 @@
       <c r="W5">
         <v>2014</v>
       </c>
-      <c r="X5" s="26">
+      <c r="X5">
         <v>0.95</v>
       </c>
       <c r="Y5">
@@ -13027,7 +13144,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="113"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -13093,7 +13210,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -13151,7 +13268,7 @@
       <c r="W7">
         <v>2010</v>
       </c>
-      <c r="X7" s="104">
+      <c r="X7">
         <v>0.71</v>
       </c>
       <c r="Y7">
@@ -13159,7 +13276,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -13217,7 +13334,7 @@
       <c r="W8">
         <v>2014</v>
       </c>
-      <c r="X8" s="26">
+      <c r="X8">
         <v>0.74</v>
       </c>
       <c r="Y8">
@@ -13225,7 +13342,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -13291,7 +13408,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="113"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -13349,7 +13466,7 @@
       <c r="W10">
         <v>2010</v>
       </c>
-      <c r="X10" s="104">
+      <c r="X10">
         <v>0.69</v>
       </c>
       <c r="Y10">
@@ -13357,7 +13474,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="113"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -13415,7 +13532,7 @@
       <c r="W11">
         <v>2014</v>
       </c>
-      <c r="X11" s="26">
+      <c r="X11">
         <v>0.8</v>
       </c>
       <c r="Y11">
@@ -13423,7 +13540,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="113"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -13489,7 +13606,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="113"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -13547,7 +13664,7 @@
       <c r="W13">
         <v>2010</v>
       </c>
-      <c r="X13" s="104">
+      <c r="X13">
         <v>0.5</v>
       </c>
       <c r="Y13">
@@ -13555,7 +13672,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="113"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -13613,7 +13730,7 @@
       <c r="W14">
         <v>2014</v>
       </c>
-      <c r="X14" s="26">
+      <c r="X14">
         <v>0.67</v>
       </c>
       <c r="Y14">
@@ -13621,7 +13738,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="113"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -13744,7 +13861,7 @@
       <c r="W16">
         <v>2010</v>
       </c>
-      <c r="X16" s="104">
+      <c r="X16">
         <v>1.28</v>
       </c>
       <c r="Y16">
@@ -13755,7 +13872,7 @@
       <c r="W17">
         <v>2014</v>
       </c>
-      <c r="X17" s="26">
+      <c r="X17">
         <v>1.36</v>
       </c>
       <c r="Y17">
@@ -13867,7 +13984,7 @@
       <c r="W19">
         <v>2010</v>
       </c>
-      <c r="X19" s="105">
+      <c r="X19">
         <v>1</v>
       </c>
       <c r="Y19">
@@ -13923,7 +14040,7 @@
       <c r="W20">
         <v>2014</v>
       </c>
-      <c r="X20" s="27">
+      <c r="X20">
         <v>1</v>
       </c>
       <c r="Y20">
@@ -14035,7 +14152,7 @@
       <c r="W22">
         <v>2010</v>
       </c>
-      <c r="X22" s="105">
+      <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
@@ -14091,7 +14208,7 @@
       <c r="W23">
         <v>2014</v>
       </c>
-      <c r="X23" s="27">
+      <c r="X23">
         <v>1.01</v>
       </c>
       <c r="Y23">
@@ -14144,6 +14261,15 @@
       <c r="O24" s="5" t="s">
         <v>48</v>
       </c>
+      <c r="W24">
+        <v>2006</v>
+      </c>
+      <c r="X24">
+        <v>1.04</v>
+      </c>
+      <c r="Y24">
+        <v>7</v>
+      </c>
     </row>
     <row r="25" spans="1:26">
       <c r="A25" s="45" t="s">
@@ -14191,6 +14317,15 @@
       <c r="O25" s="5">
         <v>0</v>
       </c>
+      <c r="W25">
+        <v>2010</v>
+      </c>
+      <c r="X25">
+        <v>1.02</v>
+      </c>
+      <c r="Y25">
+        <v>7</v>
+      </c>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="45" t="s">
@@ -14238,6 +14373,15 @@
       <c r="O26" s="8">
         <v>0.01</v>
       </c>
+      <c r="W26">
+        <v>2014</v>
+      </c>
+      <c r="X26">
+        <v>1.01</v>
+      </c>
+      <c r="Y26">
+        <v>7</v>
+      </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="45" t="s">
@@ -14285,6 +14429,15 @@
       <c r="O27" s="8">
         <v>0.03</v>
       </c>
+      <c r="W27">
+        <v>2006</v>
+      </c>
+      <c r="X27">
+        <v>1.78</v>
+      </c>
+      <c r="Y27">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="45" t="s">
@@ -14332,8 +14485,17 @@
       <c r="O28" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="14">
+      <c r="W28">
+        <v>2010</v>
+      </c>
+      <c r="X28">
+        <v>1.91</v>
+      </c>
+      <c r="Y28">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" s="45" t="s">
         <v>65</v>
       </c>
@@ -14379,29 +14541,21 @@
       <c r="O29" s="5">
         <v>0</v>
       </c>
-      <c r="T29" s="104">
-        <v>0.9</v>
-      </c>
-      <c r="U29" s="104">
-        <v>0.71</v>
-      </c>
-      <c r="V29" s="104">
-        <v>0.69</v>
-      </c>
-      <c r="W29" s="104">
-        <v>0.5</v>
-      </c>
-      <c r="X29" s="104">
-        <v>1.28</v>
-      </c>
-      <c r="Y29" s="105">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" ht="14">
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29">
+        <v>2014</v>
+      </c>
+      <c r="X29">
+        <v>1.7</v>
+      </c>
+      <c r="Y29">
+        <v>8</v>
+      </c>
+      <c r="Z29"/>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" s="45" t="s">
         <v>66</v>
       </c>
@@ -14447,26 +14601,207 @@
       <c r="O30" s="5">
         <v>0.43</v>
       </c>
-      <c r="T30" s="26">
-        <v>0.95</v>
-      </c>
-      <c r="U30" s="26">
-        <v>0.74</v>
-      </c>
-      <c r="V30" s="26">
-        <v>0.8</v>
-      </c>
-      <c r="W30" s="26">
-        <v>0.67</v>
-      </c>
-      <c r="X30" s="26">
-        <v>1.36</v>
-      </c>
-      <c r="Y30" s="27">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="27">
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30">
+        <v>2006</v>
+      </c>
+      <c r="X30">
+        <v>0.96</v>
+      </c>
+      <c r="Y30">
+        <v>9</v>
+      </c>
+      <c r="Z30"/>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="W31">
+        <v>2010</v>
+      </c>
+      <c r="X31">
+        <v>0.96</v>
+      </c>
+      <c r="Y31">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="W32">
+        <v>2014</v>
+      </c>
+      <c r="X32">
+        <v>0.96</v>
+      </c>
+      <c r="Y32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="14:25">
+      <c r="W33">
+        <v>2006</v>
+      </c>
+      <c r="X33">
+        <v>1.02</v>
+      </c>
+      <c r="Y33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="14:25">
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="W34">
+        <v>2010</v>
+      </c>
+      <c r="X34">
+        <v>1.03</v>
+      </c>
+      <c r="Y34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="14:25">
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="W35">
+        <v>2014</v>
+      </c>
+      <c r="X35">
         <v>1.01</v>
+      </c>
+      <c r="Y35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="14:25">
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="W36">
+        <v>2006</v>
+      </c>
+      <c r="X36">
+        <v>0.5</v>
+      </c>
+      <c r="Y36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="14:25">
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="W37">
+        <v>2010</v>
+      </c>
+      <c r="X37">
+        <v>0.75</v>
+      </c>
+      <c r="Y37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="14:25">
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="W38">
+        <v>2014</v>
+      </c>
+      <c r="X38">
+        <v>0.66</v>
+      </c>
+      <c r="Y38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="14:25">
+      <c r="W39">
+        <v>2006</v>
+      </c>
+      <c r="X39">
+        <v>0.38</v>
+      </c>
+      <c r="Y39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="14:25">
+      <c r="W40">
+        <v>2010</v>
+      </c>
+      <c r="X40">
+        <v>0.83</v>
+      </c>
+      <c r="Y40">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="14:25">
+      <c r="W41">
+        <v>2014</v>
+      </c>
+      <c r="X41">
+        <v>0.6</v>
+      </c>
+      <c r="Y41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="14:25">
+      <c r="W42">
+        <v>2006</v>
+      </c>
+      <c r="X42">
+        <v>0.47</v>
+      </c>
+      <c r="Y42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="14:25">
+      <c r="W43">
+        <v>2010</v>
+      </c>
+      <c r="X43">
+        <v>0.53</v>
+      </c>
+      <c r="Y43">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="14:25">
+      <c r="W44">
+        <v>2014</v>
+      </c>
+      <c r="X44">
+        <v>0.68</v>
+      </c>
+      <c r="Y44">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -14495,7 +14830,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B3:B15"/>
+      <selection activeCell="M3" sqref="M3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -14509,44 +14844,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="111" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -14591,7 +14926,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -14650,7 +14985,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="113"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -14707,7 +15042,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="113"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -14764,7 +15099,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="113"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -14821,7 +15156,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -14878,7 +15213,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="113"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -14935,7 +15270,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -14992,7 +15327,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="113"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -15049,7 +15384,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="113"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -15106,7 +15441,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="113"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -15163,7 +15498,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="113"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -15220,7 +15555,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="113"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -15277,7 +15612,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="113"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16059,6 +16394,7 @@
     <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16072,7 +16408,7 @@
   <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="M3" sqref="M3:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16091,44 +16427,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="111" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -16173,7 +16509,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -16232,7 +16568,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="113"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -16289,7 +16625,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="113"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -16346,7 +16682,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="113"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -16403,7 +16739,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="113"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -16460,7 +16796,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="113"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -16517,7 +16853,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="24">
-      <c r="A9" s="113"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -16574,7 +16910,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="113"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -16631,7 +16967,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="113"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -16688,7 +17024,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="113"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -16745,7 +17081,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="113"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -16802,7 +17138,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="113"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -16859,7 +17195,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="113"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16980,171 +17316,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="20" customHeight="1">
-      <c r="C1" s="132" t="s">
+      <c r="C1" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
+      <c r="I1" s="130"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="107">
-        <v>1</v>
-      </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="107">
+      <c r="C2" s="117">
+        <v>1</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="117">
         <v>2</v>
       </c>
-      <c r="G2" s="108"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="107">
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="117">
         <v>3</v>
       </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="107">
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="117">
         <v>4</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="107">
+      <c r="M2" s="118"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="117">
         <v>5</v>
       </c>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="107">
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="117">
         <v>6</v>
       </c>
-      <c r="S2" s="108"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="107">
+      <c r="S2" s="118"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="117">
         <v>7</v>
       </c>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="107">
+      <c r="V2" s="118"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="117">
         <v>8</v>
       </c>
-      <c r="Y2" s="108"/>
-      <c r="Z2" s="109"/>
-      <c r="AA2" s="107">
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="117">
         <v>14</v>
       </c>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="109"/>
-      <c r="AD2" s="107">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="117">
         <v>9</v>
       </c>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="107">
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="117">
         <v>10</v>
       </c>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="107">
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="117">
         <v>11</v>
       </c>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="107">
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="117">
         <v>12</v>
       </c>
-      <c r="AN2" s="108"/>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="107">
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="117">
         <v>13</v>
       </c>
-      <c r="AQ2" s="108"/>
-      <c r="AR2" s="109"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="119"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="110" t="s">
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="110"/>
-      <c r="K3" s="110"/>
-      <c r="L3" s="110" t="s">
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="110"/>
-      <c r="N3" s="110"/>
-      <c r="O3" s="110" t="s">
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="110" t="s">
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="110"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110" t="s">
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110" t="s">
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="110"/>
-      <c r="AA3" s="116" t="s">
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="110" t="s">
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="110" t="s">
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="110"/>
-      <c r="AI3" s="110"/>
-      <c r="AJ3" s="110" t="s">
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="110"/>
-      <c r="AL3" s="110"/>
-      <c r="AM3" s="110" t="s">
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="120"/>
+      <c r="AM3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="110"/>
-      <c r="AO3" s="110"/>
-      <c r="AP3" s="110" t="s">
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="120"/>
+      <c r="AP3" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="110"/>
-      <c r="AR3" s="110"/>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="110"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -17273,10 +17609,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="110"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -17405,7 +17741,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="115" t="s">
+      <c r="A6" s="129" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17539,7 +17875,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="115"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -17671,7 +18007,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="115"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -17803,7 +18139,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="115"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -17935,7 +18271,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="115"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -18067,7 +18403,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -18201,7 +18537,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="111"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -18333,7 +18669,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="111"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -18465,7 +18801,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="111"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -18597,7 +18933,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="125" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -18731,7 +19067,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="106"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -18863,7 +19199,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="111" t="s">
+      <c r="A17" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -18997,7 +19333,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="111"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -19129,7 +19465,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="111"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -19787,6 +20123,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:T3"/>
@@ -19800,29 +20159,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20034,44 +20370,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="115" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="111" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="111" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -20116,13 +20452,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="107">
-        <v>1</v>
-      </c>
-      <c r="C3" s="110" t="s">
+      <c r="B3" s="117">
+        <v>1</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -20175,9 +20511,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="113"/>
-      <c r="B4" s="108"/>
-      <c r="C4" s="110"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -20228,9 +20564,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="113"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="110"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -20281,11 +20617,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="113"/>
-      <c r="B6" s="107">
+      <c r="A6" s="127"/>
+      <c r="B6" s="117">
         <v>2</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="120" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -20338,9 +20674,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="113"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="110"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -20391,9 +20727,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="113"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="110"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -20444,11 +20780,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="113"/>
-      <c r="B9" s="107">
+      <c r="A9" s="127"/>
+      <c r="B9" s="117">
         <v>3</v>
       </c>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -20501,9 +20837,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="113"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="110"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -20554,9 +20890,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="113"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -20607,11 +20943,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="113"/>
-      <c r="B12" s="107">
+      <c r="A12" s="127"/>
+      <c r="B12" s="117">
         <v>4</v>
       </c>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -20664,9 +21000,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="113"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="110"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -20717,9 +21053,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="113"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="110"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -20770,11 +21106,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="113"/>
-      <c r="B15" s="107">
+      <c r="A15" s="127"/>
+      <c r="B15" s="117">
         <v>5</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="120" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -20827,9 +21163,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="113"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="110"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -20880,9 +21216,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="113"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="110"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -20933,11 +21269,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="113"/>
-      <c r="B18" s="107">
+      <c r="A18" s="127"/>
+      <c r="B18" s="117">
         <v>6</v>
       </c>
-      <c r="C18" s="110" t="s">
+      <c r="C18" s="120" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -20990,9 +21326,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="113"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="110"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -21043,9 +21379,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="113"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="110"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -21096,11 +21432,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="113"/>
-      <c r="B21" s="107">
+      <c r="A21" s="127"/>
+      <c r="B21" s="117">
         <v>7</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -21153,9 +21489,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="113"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="110"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -21206,9 +21542,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="113"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="110"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -21259,11 +21595,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="113"/>
-      <c r="B24" s="107">
+      <c r="A24" s="127"/>
+      <c r="B24" s="117">
         <v>8</v>
       </c>
-      <c r="C24" s="110" t="s">
+      <c r="C24" s="120" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -21316,9 +21652,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="113"/>
-      <c r="B25" s="108"/>
-      <c r="C25" s="110"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -21369,9 +21705,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="113"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="110"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -21422,11 +21758,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="113"/>
-      <c r="B27" s="107">
+      <c r="A27" s="127"/>
+      <c r="B27" s="117">
         <v>14</v>
       </c>
-      <c r="C27" s="116" t="s">
+      <c r="C27" s="121" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -21479,9 +21815,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="113"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="117"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -21532,9 +21868,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="113"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="118"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -21585,11 +21921,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="113"/>
-      <c r="B30" s="107">
+      <c r="A30" s="127"/>
+      <c r="B30" s="117">
         <v>9</v>
       </c>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="120" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -21642,9 +21978,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="113"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="110"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -21695,9 +22031,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="113"/>
-      <c r="B32" s="109"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -21748,11 +22084,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="113"/>
-      <c r="B33" s="107">
+      <c r="A33" s="127"/>
+      <c r="B33" s="117">
         <v>10</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="120" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -21805,9 +22141,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="113"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="110"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -21858,9 +22194,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="113"/>
-      <c r="B35" s="109"/>
-      <c r="C35" s="110"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -21911,11 +22247,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="113"/>
-      <c r="B36" s="107">
+      <c r="A36" s="127"/>
+      <c r="B36" s="117">
         <v>11</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -21968,9 +22304,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="113"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="110"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -22021,9 +22357,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="113"/>
-      <c r="B38" s="109"/>
-      <c r="C38" s="110"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -22074,11 +22410,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="113"/>
-      <c r="B39" s="107">
+      <c r="A39" s="127"/>
+      <c r="B39" s="117">
         <v>12</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="120" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -22131,9 +22467,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="113"/>
-      <c r="B40" s="108"/>
-      <c r="C40" s="110"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -22184,9 +22520,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="113"/>
-      <c r="B41" s="109"/>
-      <c r="C41" s="110"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -22237,11 +22573,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="113"/>
-      <c r="B42" s="107">
+      <c r="A42" s="127"/>
+      <c r="B42" s="117">
         <v>13</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="120" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -22294,9 +22630,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="113"/>
-      <c r="B43" s="108"/>
-      <c r="C43" s="110"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="120"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -22347,9 +22683,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="114"/>
-      <c r="B44" s="109"/>
-      <c r="C44" s="110"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="120"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -22400,81 +22736,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="110" t="s">
+      <c r="A46" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="110"/>
-      <c r="C46" s="110" t="s">
+      <c r="B46" s="120"/>
+      <c r="C46" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="110"/>
-      <c r="E46" s="110"/>
-      <c r="F46" s="110" t="s">
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="110"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="110" t="s">
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="110"/>
-      <c r="K46" s="110"/>
-      <c r="L46" s="110" t="s">
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="110"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110" t="s">
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="110"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110" t="s">
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="110"/>
-      <c r="T46" s="110"/>
-      <c r="U46" s="116" t="s">
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
+      <c r="U46" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="117"/>
-      <c r="W46" s="118"/>
-      <c r="X46" s="116" t="s">
+      <c r="V46" s="122"/>
+      <c r="W46" s="123"/>
+      <c r="X46" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="117"/>
-      <c r="Z46" s="118"/>
-      <c r="AA46" s="110" t="s">
+      <c r="Y46" s="122"/>
+      <c r="Z46" s="123"/>
+      <c r="AA46" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="110"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="110" t="s">
+      <c r="AB46" s="120"/>
+      <c r="AC46" s="120"/>
+      <c r="AD46" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="110"/>
-      <c r="AF46" s="110"/>
-      <c r="AG46" s="110" t="s">
+      <c r="AE46" s="120"/>
+      <c r="AF46" s="120"/>
+      <c r="AG46" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="110"/>
-      <c r="AI46" s="110"/>
-      <c r="AJ46" s="110" t="s">
+      <c r="AH46" s="120"/>
+      <c r="AI46" s="120"/>
+      <c r="AJ46" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="110"/>
-      <c r="AL46" s="110"/>
-      <c r="AM46" s="110" t="s">
+      <c r="AK46" s="120"/>
+      <c r="AL46" s="120"/>
+      <c r="AM46" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="110"/>
-      <c r="AO46" s="110"/>
+      <c r="AN46" s="120"/>
+      <c r="AO46" s="120"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="110"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -22594,10 +22930,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="110"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -22717,7 +23053,7 @@
       </c>
     </row>
     <row r="49" spans="2:4">
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="131" t="s">
         <v>91</v>
       </c>
       <c r="C49" s="63">
@@ -22728,7 +23064,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="126"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -22737,7 +23073,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="126"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>
@@ -22747,26 +23083,23 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B42:B44"/>
@@ -22783,23 +23116,26 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/mymap/jsons/GenderGap_Find4Hourglass.xlsx
+++ b/mymap/jsons/GenderGap_Find4Hourglass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="29520" windowHeight="19160" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="460" yWindow="0" windowWidth="22720" windowHeight="16540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total_W2E" sheetId="9" r:id="rId1"/>
@@ -1689,43 +1689,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1740,19 +1704,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1766,6 +1718,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2414,11 +2414,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="-2060104056"/>
-        <c:axId val="-2060101080"/>
+        <c:axId val="-2145936712"/>
+        <c:axId val="-2145934840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060104056"/>
+        <c:axId val="-2145936712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2427,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060101080"/>
+        <c:crossAx val="-2145934840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060101080"/>
+        <c:axId val="-2145934840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2451,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2060104056"/>
+        <c:crossAx val="-2145936712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2665,11 +2665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2132708184"/>
-        <c:axId val="-2132711192"/>
+        <c:axId val="-2145160216"/>
+        <c:axId val="-2145157224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2132708184"/>
+        <c:axId val="-2145160216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132711192"/>
+        <c:crossAx val="-2145157224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2132711192"/>
+        <c:axId val="-2145157224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2697,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2132708184"/>
+        <c:crossAx val="-2145160216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3153,37 +3153,37 @@
     <row r="1" spans="1:27" ht="34" customHeight="1">
       <c r="A1" s="97"/>
       <c r="B1" s="97"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -3200,9 +3200,9 @@
     <row r="2" spans="1:27" ht="113" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3271,13 +3271,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="117">
-        <v>1</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="92">
@@ -3345,9 +3345,9 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="127"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="92">
         <v>2010</v>
       </c>
@@ -3413,9 +3413,9 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="127"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="25"/>
@@ -3503,11 +3503,11 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="127"/>
-      <c r="B7" s="117">
+      <c r="A7" s="111"/>
+      <c r="B7" s="105">
         <v>2</v>
       </c>
-      <c r="C7" s="120" t="s">
+      <c r="C7" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="92">
@@ -3575,9 +3575,9 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="127"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="106"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="92">
         <v>2010</v>
       </c>
@@ -3643,9 +3643,9 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="127"/>
-      <c r="B9" s="119"/>
-      <c r="C9" s="120"/>
+      <c r="A9" s="111"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="108"/>
       <c r="D9" s="25">
         <v>2014</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="25"/>
@@ -3733,11 +3733,11 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="127"/>
-      <c r="B11" s="117">
+      <c r="A11" s="111"/>
+      <c r="B11" s="105">
         <v>3</v>
       </c>
-      <c r="C11" s="120" t="s">
+      <c r="C11" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="92">
@@ -3805,9 +3805,9 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="127"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="120"/>
+      <c r="A12" s="111"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="108"/>
       <c r="D12" s="92">
         <v>2010</v>
       </c>
@@ -3873,9 +3873,9 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="127"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="25">
         <v>2014</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="25"/>
@@ -3963,11 +3963,11 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="127"/>
-      <c r="B15" s="117">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>4</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="92">
@@ -4035,9 +4035,9 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="127"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="92">
         <v>2010</v>
       </c>
@@ -4103,9 +4103,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="127"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -4171,7 +4171,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="127"/>
+      <c r="A18" s="111"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="25"/>
@@ -4193,11 +4193,11 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="127"/>
-      <c r="B19" s="117">
+      <c r="A19" s="111"/>
+      <c r="B19" s="105">
         <v>5</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="92">
@@ -4265,9 +4265,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="127"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="92">
         <v>2010</v>
       </c>
@@ -4333,9 +4333,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="127"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="120"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="108"/>
       <c r="D21" s="25">
         <v>2014</v>
       </c>
@@ -4401,7 +4401,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="127"/>
+      <c r="A22" s="111"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="25"/>
@@ -4423,11 +4423,11 @@
       <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="127"/>
-      <c r="B23" s="117">
+      <c r="A23" s="111"/>
+      <c r="B23" s="105">
         <v>6</v>
       </c>
-      <c r="C23" s="120" t="s">
+      <c r="C23" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="92">
@@ -4495,9 +4495,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="127"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="120"/>
+      <c r="A24" s="111"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="108"/>
       <c r="D24" s="92">
         <v>2010</v>
       </c>
@@ -4563,9 +4563,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="127"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="107"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="25">
         <v>2014</v>
       </c>
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="127"/>
+      <c r="A26" s="111"/>
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="25"/>
@@ -4653,11 +4653,11 @@
       <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="127"/>
-      <c r="B27" s="117">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>7</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="108" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="92">
@@ -4725,9 +4725,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="127"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="120"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="92">
         <v>2010</v>
       </c>
@@ -4793,9 +4793,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="127"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="127"/>
+      <c r="A30" s="111"/>
       <c r="B30" s="91"/>
       <c r="C30" s="95"/>
       <c r="D30" s="25"/>
@@ -4883,11 +4883,11 @@
       <c r="X30" s="101"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="127"/>
-      <c r="B31" s="117">
+      <c r="A31" s="111"/>
+      <c r="B31" s="105">
         <v>8</v>
       </c>
-      <c r="C31" s="121" t="s">
+      <c r="C31" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="92">
@@ -4955,9 +4955,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="127"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="122"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="92">
         <v>2010</v>
       </c>
@@ -5023,9 +5023,9 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="127"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="123"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="116"/>
       <c r="D33" s="25">
         <v>2014</v>
       </c>
@@ -5091,7 +5091,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="127"/>
+      <c r="A34" s="111"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="25"/>
@@ -5113,11 +5113,11 @@
       <c r="X34" s="101"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="127"/>
-      <c r="B35" s="117">
+      <c r="A35" s="111"/>
+      <c r="B35" s="105">
         <v>9</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="92">
@@ -5185,9 +5185,9 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="127"/>
-      <c r="B36" s="118"/>
-      <c r="C36" s="120"/>
+      <c r="A36" s="111"/>
+      <c r="B36" s="106"/>
+      <c r="C36" s="108"/>
       <c r="D36" s="92">
         <v>2010</v>
       </c>
@@ -5253,9 +5253,9 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="127"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="25">
         <v>2014</v>
       </c>
@@ -5321,7 +5321,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="127"/>
+      <c r="A38" s="111"/>
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="25"/>
@@ -5343,11 +5343,11 @@
       <c r="X38" s="101"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="127"/>
-      <c r="B39" s="117">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>10</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="92">
@@ -5415,9 +5415,9 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="127"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="120"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="92">
         <v>2010</v>
       </c>
@@ -5483,9 +5483,9 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="127"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="127"/>
+      <c r="A42" s="111"/>
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="25"/>
@@ -5573,11 +5573,11 @@
       <c r="X42" s="101"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="127"/>
-      <c r="B43" s="117">
+      <c r="A43" s="111"/>
+      <c r="B43" s="105">
         <v>11</v>
       </c>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="92">
@@ -5645,9 +5645,9 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="127"/>
-      <c r="B44" s="118"/>
-      <c r="C44" s="120"/>
+      <c r="A44" s="111"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="92">
         <v>2010</v>
       </c>
@@ -5713,9 +5713,9 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="127"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="120"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="108"/>
       <c r="D45" s="25">
         <v>2014</v>
       </c>
@@ -5781,7 +5781,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="127"/>
+      <c r="A46" s="111"/>
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="25"/>
@@ -5803,11 +5803,11 @@
       <c r="X46" s="101"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="127"/>
-      <c r="B47" s="117">
+      <c r="A47" s="111"/>
+      <c r="B47" s="105">
         <v>12</v>
       </c>
-      <c r="C47" s="120" t="s">
+      <c r="C47" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="92">
@@ -5875,9 +5875,9 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="127"/>
-      <c r="B48" s="118"/>
-      <c r="C48" s="120"/>
+      <c r="A48" s="111"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="108"/>
       <c r="D48" s="92">
         <v>2010</v>
       </c>
@@ -5943,9 +5943,9 @@
       </c>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="127"/>
-      <c r="B49" s="119"/>
-      <c r="C49" s="120"/>
+      <c r="A49" s="111"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="108"/>
       <c r="D49" s="25">
         <v>2014</v>
       </c>
@@ -6011,7 +6011,7 @@
       </c>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="127"/>
+      <c r="A50" s="111"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92"/>
       <c r="D50" s="25"/>
@@ -6033,11 +6033,11 @@
       <c r="X50" s="101"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="127"/>
-      <c r="B51" s="117">
+      <c r="A51" s="111"/>
+      <c r="B51" s="105">
         <v>13</v>
       </c>
-      <c r="C51" s="120" t="s">
+      <c r="C51" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="92">
@@ -6105,9 +6105,9 @@
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="127"/>
-      <c r="B52" s="118"/>
-      <c r="C52" s="120"/>
+      <c r="A52" s="111"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="108"/>
       <c r="D52" s="92">
         <v>2010</v>
       </c>
@@ -6173,9 +6173,9 @@
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="127"/>
-      <c r="B53" s="119"/>
-      <c r="C53" s="120"/>
+      <c r="A53" s="111"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="108"/>
       <c r="D53" s="25">
         <v>2014</v>
       </c>
@@ -6241,79 +6241,79 @@
       </c>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="127"/>
+      <c r="A54" s="111"/>
     </row>
     <row r="55" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="127"/>
+      <c r="A55" s="111"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104" t="s">
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104" t="s">
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104" t="s">
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="112" t="s">
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="113"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="104" t="s">
+      <c r="S55" s="118"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="112" t="s">
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="Y55" s="113"/>
-      <c r="Z55" s="114"/>
-      <c r="AA55" s="104" t="s">
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="119"/>
+      <c r="AA55" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="AB55" s="104"/>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="104" t="s">
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="104"/>
-      <c r="AF55" s="104"/>
-      <c r="AG55" s="104" t="s">
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH55" s="104"/>
-      <c r="AI55" s="104"/>
-      <c r="AJ55" s="104" t="s">
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="104"/>
-      <c r="AL55" s="104"/>
-      <c r="AM55" s="104" t="s">
+      <c r="AK55" s="120"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN55" s="104"/>
-      <c r="AO55" s="104"/>
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="120"/>
     </row>
     <row r="56" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A56" s="128"/>
+      <c r="A56" s="112"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86" t="s">
         <v>72</v>
@@ -6554,10 +6554,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="116"/>
+      <c r="B58" s="122"/>
       <c r="C58" s="79">
         <v>2006</v>
       </c>
@@ -6594,10 +6594,10 @@
       <c r="Y58" s="100"/>
     </row>
     <row r="59" spans="1:41" ht="16" thickTop="1">
-      <c r="A59" s="109" t="s">
+      <c r="A59" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="109"/>
+      <c r="B59" s="123"/>
       <c r="C59">
         <f xml:space="preserve"> C57/115</f>
         <v>3.4782608695652174E-2</v>
@@ -6756,10 +6756,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="110" t="s">
+      <c r="A60" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="110"/>
+      <c r="B60" s="124"/>
       <c r="C60">
         <f xml:space="preserve"> C59*72</f>
         <v>2.5043478260869567</v>
@@ -6918,10 +6918,10 @@
       </c>
     </row>
     <row r="61" spans="1:41" s="80" customFormat="1">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="111"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="80">
         <f xml:space="preserve"> 72-C60</f>
         <v>69.495652173913044</v>
@@ -7231,77 +7231,77 @@
       <c r="X66" s="85"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="C67" s="104" t="s">
+      <c r="C67" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="112" t="s">
+      <c r="D67" s="120"/>
+      <c r="E67" s="120"/>
+      <c r="F67" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="113"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="104" t="s">
+      <c r="G67" s="118"/>
+      <c r="H67" s="119"/>
+      <c r="I67" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104" t="s">
+      <c r="J67" s="120"/>
+      <c r="K67" s="120"/>
+      <c r="L67" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="M67" s="104"/>
-      <c r="N67" s="104"/>
-      <c r="O67" s="104" t="s">
+      <c r="M67" s="120"/>
+      <c r="N67" s="120"/>
+      <c r="O67" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="104"/>
-      <c r="Q67" s="104"/>
-      <c r="R67" s="112" t="s">
+      <c r="P67" s="120"/>
+      <c r="Q67" s="120"/>
+      <c r="R67" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="113"/>
-      <c r="T67" s="114"/>
-      <c r="U67" s="104" t="s">
+      <c r="S67" s="118"/>
+      <c r="T67" s="119"/>
+      <c r="U67" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="104"/>
-      <c r="W67" s="104"/>
-      <c r="X67" s="104" t="s">
+      <c r="V67" s="120"/>
+      <c r="W67" s="120"/>
+      <c r="X67" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="104"/>
-      <c r="Z67" s="104"/>
-      <c r="AA67" s="104" t="s">
+      <c r="Y67" s="120"/>
+      <c r="Z67" s="120"/>
+      <c r="AA67" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="104"/>
-      <c r="AC67" s="104"/>
-      <c r="AD67" s="104" t="s">
+      <c r="AB67" s="120"/>
+      <c r="AC67" s="120"/>
+      <c r="AD67" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE67" s="104"/>
-      <c r="AF67" s="104"/>
-      <c r="AG67" s="104" t="s">
+      <c r="AE67" s="120"/>
+      <c r="AF67" s="120"/>
+      <c r="AG67" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="AH67" s="104"/>
-      <c r="AI67" s="104"/>
-      <c r="AJ67" s="104" t="s">
+      <c r="AH67" s="120"/>
+      <c r="AI67" s="120"/>
+      <c r="AJ67" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK67" s="104"/>
-      <c r="AL67" s="104"/>
-      <c r="AM67" s="104" t="s">
+      <c r="AK67" s="120"/>
+      <c r="AL67" s="120"/>
+      <c r="AM67" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AN67" s="104"/>
-      <c r="AO67" s="104"/>
+      <c r="AN67" s="120"/>
+      <c r="AO67" s="120"/>
     </row>
     <row r="68" spans="1:41" ht="70">
-      <c r="A68" s="105" t="s">
+      <c r="A68" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="106"/>
+      <c r="B68" s="127"/>
       <c r="C68" s="86" t="s">
         <v>99</v>
       </c>
@@ -7421,8 +7421,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="16" thickBot="1">
-      <c r="A69" s="107"/>
-      <c r="B69" s="108"/>
+      <c r="A69" s="128"/>
+      <c r="B69" s="129"/>
       <c r="C69" s="86">
         <v>23</v>
       </c>
@@ -7542,10 +7542,10 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="16" thickTop="1">
-      <c r="A70" s="109" t="s">
+      <c r="A70" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="109"/>
+      <c r="B70" s="123"/>
       <c r="C70">
         <f xml:space="preserve"> C69/115</f>
         <v>0.2</v>
@@ -7704,10 +7704,10 @@
       </c>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="110" t="s">
+      <c r="A71" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="110"/>
+      <c r="B71" s="124"/>
       <c r="C71">
         <f xml:space="preserve"> C70*65</f>
         <v>13</v>
@@ -7866,10 +7866,10 @@
       </c>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="111" t="s">
+      <c r="A72" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="111"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="80">
         <f xml:space="preserve"> 65-C71</f>
         <v>52</v>
@@ -8034,6 +8034,58 @@
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="AJ67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="C27:C29"/>
@@ -8050,58 +8102,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="AJ67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8145,37 +8145,37 @@
     <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -8188,16 +8188,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="120" t="s">
+      <c r="X1" s="108" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -8252,16 +8252,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="120"/>
+      <c r="X2" s="108"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="117">
-        <v>1</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -8329,9 +8329,9 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="127"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -8397,9 +8397,9 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="127"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -8465,11 +8465,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="127"/>
-      <c r="B6" s="117">
+      <c r="A6" s="111"/>
+      <c r="B6" s="105">
         <v>2</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -8537,9 +8537,9 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="127"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="120"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -8605,9 +8605,9 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="127"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -8673,11 +8673,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="127"/>
-      <c r="B9" s="117">
+      <c r="A9" s="111"/>
+      <c r="B9" s="105">
         <v>3</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -8745,9 +8745,9 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="127"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="120"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -8813,9 +8813,9 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="127"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -8881,11 +8881,11 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="127"/>
-      <c r="B12" s="117">
+      <c r="A12" s="111"/>
+      <c r="B12" s="105">
         <v>4</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -8953,9 +8953,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="127"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -9021,9 +9021,9 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="127"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -9089,11 +9089,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="127"/>
-      <c r="B15" s="117">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>5</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -9161,9 +9161,9 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="127"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -9229,9 +9229,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="127"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -9297,11 +9297,11 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="127"/>
-      <c r="B18" s="117">
+      <c r="A18" s="111"/>
+      <c r="B18" s="105">
         <v>6</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -9369,9 +9369,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="127"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -9437,9 +9437,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="127"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -9505,11 +9505,11 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="127"/>
-      <c r="B21" s="117">
+      <c r="A21" s="111"/>
+      <c r="B21" s="105">
         <v>7</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="108" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -9577,9 +9577,9 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="127"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="120"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -9645,9 +9645,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="127"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -9713,11 +9713,11 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="127"/>
-      <c r="B24" s="117">
+      <c r="A24" s="111"/>
+      <c r="B24" s="105">
         <v>8</v>
       </c>
-      <c r="C24" s="121" t="s">
+      <c r="C24" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -9785,9 +9785,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="127"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="122"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -9853,9 +9853,9 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="127"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="123"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -9921,11 +9921,11 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="127"/>
-      <c r="B27" s="117">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>9</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C27" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -9993,9 +9993,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="127"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="120"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="108"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -10061,9 +10061,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="127"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="120"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="108"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -10129,11 +10129,11 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="127"/>
-      <c r="B30" s="117">
+      <c r="A30" s="111"/>
+      <c r="B30" s="105">
         <v>10</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -10201,9 +10201,9 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="127"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="120"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -10269,9 +10269,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="127"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -10337,11 +10337,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="127"/>
-      <c r="B33" s="117">
+      <c r="A33" s="111"/>
+      <c r="B33" s="105">
         <v>11</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -10409,9 +10409,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="127"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="120"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -10477,9 +10477,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="127"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -10545,11 +10545,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="127"/>
-      <c r="B36" s="117">
+      <c r="A36" s="111"/>
+      <c r="B36" s="105">
         <v>12</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -10617,9 +10617,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="127"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -10685,9 +10685,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="127"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -10753,11 +10753,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="127"/>
-      <c r="B39" s="117">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>13</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -10825,9 +10825,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="127"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="120"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -10893,9 +10893,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="127"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -10961,79 +10961,79 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="127"/>
+      <c r="A42" s="111"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="127"/>
+      <c r="A43" s="111"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="104" t="s">
+      <c r="C43" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104" t="s">
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="104"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="104" t="s">
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104" t="s">
+      <c r="J43" s="120"/>
+      <c r="K43" s="120"/>
+      <c r="L43" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="104" t="s">
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="104"/>
-      <c r="Q43" s="104"/>
-      <c r="R43" s="112" t="s">
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="113"/>
-      <c r="T43" s="114"/>
-      <c r="U43" s="104" t="s">
+      <c r="S43" s="118"/>
+      <c r="T43" s="119"/>
+      <c r="U43" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="104"/>
-      <c r="W43" s="104"/>
-      <c r="X43" s="112" t="s">
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="114"/>
-      <c r="AA43" s="104" t="s">
+      <c r="Y43" s="118"/>
+      <c r="Z43" s="119"/>
+      <c r="AA43" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="104"/>
-      <c r="AC43" s="104"/>
-      <c r="AD43" s="104" t="s">
+      <c r="AB43" s="120"/>
+      <c r="AC43" s="120"/>
+      <c r="AD43" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="104"/>
-      <c r="AF43" s="104"/>
-      <c r="AG43" s="104" t="s">
+      <c r="AE43" s="120"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="104"/>
-      <c r="AI43" s="104"/>
-      <c r="AJ43" s="104" t="s">
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="104"/>
-      <c r="AL43" s="104"/>
-      <c r="AM43" s="104" t="s">
+      <c r="AK43" s="120"/>
+      <c r="AL43" s="120"/>
+      <c r="AM43" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="104"/>
-      <c r="AO43" s="104"/>
+      <c r="AN43" s="120"/>
+      <c r="AO43" s="120"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="128"/>
+      <c r="A44" s="112"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -11274,10 +11274,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="115" t="s">
+      <c r="A46" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="116"/>
+      <c r="B46" s="122"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -11314,10 +11314,10 @@
       <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="109" t="s">
+      <c r="A47" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="109"/>
+      <c r="B47" s="123"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -11476,10 +11476,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="110" t="s">
+      <c r="A48" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="110"/>
+      <c r="B48" s="124"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -11638,10 +11638,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="80" customFormat="1">
-      <c r="A49" s="111" t="s">
+      <c r="A49" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="111"/>
+      <c r="B49" s="125"/>
       <c r="C49" s="80">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -11951,77 +11951,77 @@
       <c r="X54" s="85"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="112" t="s">
+      <c r="D55" s="120"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="117" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="113"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="104" t="s">
+      <c r="G55" s="118"/>
+      <c r="H55" s="119"/>
+      <c r="I55" s="120" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104" t="s">
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104" t="s">
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="112" t="s">
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="113"/>
-      <c r="T55" s="114"/>
-      <c r="U55" s="104" t="s">
+      <c r="S55" s="118"/>
+      <c r="T55" s="119"/>
+      <c r="U55" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104" t="s">
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104" t="s">
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="104"/>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="104" t="s">
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="104"/>
-      <c r="AF55" s="104"/>
-      <c r="AG55" s="104" t="s">
+      <c r="AE55" s="120"/>
+      <c r="AF55" s="120"/>
+      <c r="AG55" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="104"/>
-      <c r="AI55" s="104"/>
-      <c r="AJ55" s="104" t="s">
+      <c r="AH55" s="120"/>
+      <c r="AI55" s="120"/>
+      <c r="AJ55" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="104"/>
-      <c r="AL55" s="104"/>
-      <c r="AM55" s="104" t="s">
+      <c r="AK55" s="120"/>
+      <c r="AL55" s="120"/>
+      <c r="AM55" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="104"/>
-      <c r="AO55" s="104"/>
+      <c r="AN55" s="120"/>
+      <c r="AO55" s="120"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="105" t="s">
+      <c r="A56" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="106"/>
+      <c r="B56" s="127"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -12141,8 +12141,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="107"/>
-      <c r="B57" s="108"/>
+      <c r="A57" s="128"/>
+      <c r="B57" s="129"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -12262,10 +12262,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="109" t="s">
+      <c r="A58" s="123" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="109"/>
+      <c r="B58" s="123"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -12424,10 +12424,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="110"/>
+      <c r="B59" s="124"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -12586,10 +12586,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="111" t="s">
+      <c r="A60" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="111"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="80">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -12754,42 +12754,22 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="AG55:AI55"/>
+    <mergeCell ref="AJ55:AL55"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="O55:Q55"/>
+    <mergeCell ref="U55:W55"/>
+    <mergeCell ref="X55:Z55"/>
+    <mergeCell ref="AA55:AC55"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="R55:T55"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="AM55:AO55"/>
     <mergeCell ref="A58:B58"/>
@@ -12806,23 +12786,43 @@
     <mergeCell ref="R43:T43"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="AG55:AI55"/>
-    <mergeCell ref="AJ55:AL55"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="U55:W55"/>
-    <mergeCell ref="X55:Z55"/>
-    <mergeCell ref="AA55:AC55"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="R55:T55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12853,44 +12853,44 @@
     <row r="1" spans="1:25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:25" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -12944,7 +12944,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -13012,7 +13012,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="127"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -13078,7 +13078,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -13144,7 +13144,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -13210,7 +13210,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -13275,8 +13275,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A8" s="127"/>
+    <row r="8" spans="1:25" ht="27" customHeight="1">
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -13342,7 +13342,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="127"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -13408,7 +13408,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -13474,7 +13474,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="127"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -13540,7 +13540,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="127"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -13606,7 +13606,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="127"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -13672,7 +13672,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -13738,7 +13738,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="127"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -14844,44 +14844,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -14926,7 +14926,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -14985,7 +14985,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="127"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -15042,7 +15042,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="127"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -15099,7 +15099,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -15156,7 +15156,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="127"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -15213,7 +15213,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="127"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -15270,7 +15270,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="127"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -15327,7 +15327,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -15384,7 +15384,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="127"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -15441,7 +15441,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="127"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -15498,7 +15498,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="127"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -15555,7 +15555,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -15612,7 +15612,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="127"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16427,44 +16427,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -16509,7 +16509,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -16568,7 +16568,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="127"/>
+      <c r="A4" s="111"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -16625,7 +16625,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="127"/>
+      <c r="A5" s="111"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -16682,7 +16682,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="127"/>
+      <c r="A6" s="111"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -16739,7 +16739,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="127"/>
+      <c r="A7" s="111"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -16796,7 +16796,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="127"/>
+      <c r="A8" s="111"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -16853,7 +16853,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="24">
-      <c r="A9" s="127"/>
+      <c r="A9" s="111"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -16910,7 +16910,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="127"/>
+      <c r="A10" s="111"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -16967,7 +16967,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="127"/>
+      <c r="A11" s="111"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -17024,7 +17024,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="127"/>
+      <c r="A12" s="111"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -17081,7 +17081,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="127"/>
+      <c r="A13" s="111"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -17138,7 +17138,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="127"/>
+      <c r="A14" s="111"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -17195,7 +17195,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="127"/>
+      <c r="A15" s="111"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -17329,158 +17329,158 @@
       <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="117">
-        <v>1</v>
-      </c>
-      <c r="D2" s="118"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="117">
+      <c r="C2" s="105">
+        <v>1</v>
+      </c>
+      <c r="D2" s="106"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="105">
         <v>2</v>
       </c>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="117">
+      <c r="G2" s="106"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="105">
         <v>3</v>
       </c>
-      <c r="J2" s="118"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="117">
+      <c r="J2" s="106"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="105">
         <v>4</v>
       </c>
-      <c r="M2" s="118"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="117">
+      <c r="M2" s="106"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="105">
         <v>5</v>
       </c>
-      <c r="P2" s="118"/>
-      <c r="Q2" s="119"/>
-      <c r="R2" s="117">
+      <c r="P2" s="106"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="105">
         <v>6</v>
       </c>
-      <c r="S2" s="118"/>
-      <c r="T2" s="119"/>
-      <c r="U2" s="117">
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="105">
         <v>7</v>
       </c>
-      <c r="V2" s="118"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="117">
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="105">
         <v>8</v>
       </c>
-      <c r="Y2" s="118"/>
-      <c r="Z2" s="119"/>
-      <c r="AA2" s="117">
+      <c r="Y2" s="106"/>
+      <c r="Z2" s="107"/>
+      <c r="AA2" s="105">
         <v>14</v>
       </c>
-      <c r="AB2" s="118"/>
-      <c r="AC2" s="119"/>
-      <c r="AD2" s="117">
+      <c r="AB2" s="106"/>
+      <c r="AC2" s="107"/>
+      <c r="AD2" s="105">
         <v>9</v>
       </c>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="117">
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="105">
         <v>10</v>
       </c>
-      <c r="AH2" s="118"/>
-      <c r="AI2" s="119"/>
-      <c r="AJ2" s="117">
+      <c r="AH2" s="106"/>
+      <c r="AI2" s="107"/>
+      <c r="AJ2" s="105">
         <v>11</v>
       </c>
-      <c r="AK2" s="118"/>
-      <c r="AL2" s="119"/>
-      <c r="AM2" s="117">
+      <c r="AK2" s="106"/>
+      <c r="AL2" s="107"/>
+      <c r="AM2" s="105">
         <v>12</v>
       </c>
-      <c r="AN2" s="118"/>
-      <c r="AO2" s="119"/>
-      <c r="AP2" s="117">
+      <c r="AN2" s="106"/>
+      <c r="AO2" s="107"/>
+      <c r="AP2" s="105">
         <v>13</v>
       </c>
-      <c r="AQ2" s="118"/>
-      <c r="AR2" s="119"/>
+      <c r="AQ2" s="106"/>
+      <c r="AR2" s="107"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120" t="s">
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120" t="s">
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120" t="s">
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="120"/>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="120" t="s">
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="120"/>
-      <c r="T3" s="120"/>
-      <c r="U3" s="120" t="s">
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="120"/>
-      <c r="W3" s="120"/>
-      <c r="X3" s="120" t="s">
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="120"/>
-      <c r="Z3" s="120"/>
-      <c r="AA3" s="121" t="s">
+      <c r="Y3" s="108"/>
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="122"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="120" t="s">
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="116"/>
+      <c r="AD3" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="120" t="s">
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="120"/>
-      <c r="AI3" s="120"/>
-      <c r="AJ3" s="120" t="s">
+      <c r="AH3" s="108"/>
+      <c r="AI3" s="108"/>
+      <c r="AJ3" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="120"/>
-      <c r="AL3" s="120"/>
-      <c r="AM3" s="120" t="s">
+      <c r="AK3" s="108"/>
+      <c r="AL3" s="108"/>
+      <c r="AM3" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="120"/>
-      <c r="AO3" s="120"/>
-      <c r="AP3" s="120" t="s">
+      <c r="AN3" s="108"/>
+      <c r="AO3" s="108"/>
+      <c r="AP3" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="120"/>
-      <c r="AR3" s="120"/>
+      <c r="AQ3" s="108"/>
+      <c r="AR3" s="108"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="120"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -17609,10 +17609,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="120"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -17741,7 +17741,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="113" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17875,7 +17875,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="129"/>
+      <c r="A7" s="113"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -18007,7 +18007,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="129"/>
+      <c r="A8" s="113"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -18139,7 +18139,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="129"/>
+      <c r="A9" s="113"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -18271,7 +18271,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="129"/>
+      <c r="A10" s="113"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -18403,7 +18403,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="109" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -18537,7 +18537,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="124"/>
+      <c r="A12" s="109"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -18669,7 +18669,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="124"/>
+      <c r="A13" s="109"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -18801,7 +18801,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="124"/>
+      <c r="A14" s="109"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="104" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -19067,7 +19067,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="125"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -19199,7 +19199,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="109" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -19333,7 +19333,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="124"/>
+      <c r="A18" s="109"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -19465,7 +19465,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="124"/>
+      <c r="A19" s="109"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -20123,6 +20123,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C1:K1"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AJ2:AL2"/>
@@ -20136,29 +20159,6 @@
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C1:K1"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20370,44 +20370,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="124" t="s">
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="109" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="125" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="124" t="s">
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="104" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="124"/>
-      <c r="S1" s="124"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -20452,13 +20452,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="117">
-        <v>1</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="105">
+        <v>1</v>
+      </c>
+      <c r="C3" s="108" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -20511,9 +20511,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="127"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="120"/>
+      <c r="A4" s="111"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="108"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -20564,9 +20564,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="127"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="120"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="108"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -20617,11 +20617,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="127"/>
-      <c r="B6" s="117">
+      <c r="A6" s="111"/>
+      <c r="B6" s="105">
         <v>2</v>
       </c>
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="108" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -20674,9 +20674,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="127"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="120"/>
+      <c r="A7" s="111"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="108"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -20727,9 +20727,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="127"/>
-      <c r="B8" s="119"/>
-      <c r="C8" s="120"/>
+      <c r="A8" s="111"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="108"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -20780,11 +20780,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="127"/>
-      <c r="B9" s="117">
+      <c r="A9" s="111"/>
+      <c r="B9" s="105">
         <v>3</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -20837,9 +20837,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="127"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="120"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -20890,9 +20890,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="127"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="120"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -20943,11 +20943,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="127"/>
-      <c r="B12" s="117">
+      <c r="A12" s="111"/>
+      <c r="B12" s="105">
         <v>4</v>
       </c>
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="108" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -21000,9 +21000,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="127"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="120"/>
+      <c r="A13" s="111"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="108"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -21053,9 +21053,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="127"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="120"/>
+      <c r="A14" s="111"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="108"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -21106,11 +21106,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="127"/>
-      <c r="B15" s="117">
+      <c r="A15" s="111"/>
+      <c r="B15" s="105">
         <v>5</v>
       </c>
-      <c r="C15" s="120" t="s">
+      <c r="C15" s="108" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -21163,9 +21163,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="127"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
+      <c r="A16" s="111"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="108"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -21216,9 +21216,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="127"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="120"/>
+      <c r="A17" s="111"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="108"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -21269,11 +21269,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="127"/>
-      <c r="B18" s="117">
+      <c r="A18" s="111"/>
+      <c r="B18" s="105">
         <v>6</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C18" s="108" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -21326,9 +21326,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="127"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
+      <c r="A19" s="111"/>
+      <c r="B19" s="106"/>
+      <c r="C19" s="108"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -21379,9 +21379,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="127"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="120"/>
+      <c r="A20" s="111"/>
+      <c r="B20" s="107"/>
+      <c r="C20" s="108"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -21432,11 +21432,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="127"/>
-      <c r="B21" s="117">
+      <c r="A21" s="111"/>
+      <c r="B21" s="105">
         <v>7</v>
       </c>
-      <c r="C21" s="120" t="s">
+      <c r="C21" s="108" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -21489,9 +21489,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="127"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="120"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -21542,9 +21542,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="127"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
+      <c r="A23" s="111"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -21595,11 +21595,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="127"/>
-      <c r="B24" s="117">
+      <c r="A24" s="111"/>
+      <c r="B24" s="105">
         <v>8</v>
       </c>
-      <c r="C24" s="120" t="s">
+      <c r="C24" s="108" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -21652,9 +21652,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="127"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="120"/>
+      <c r="A25" s="111"/>
+      <c r="B25" s="106"/>
+      <c r="C25" s="108"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -21705,9 +21705,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="127"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="107"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -21758,11 +21758,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="127"/>
-      <c r="B27" s="117">
+      <c r="A27" s="111"/>
+      <c r="B27" s="105">
         <v>14</v>
       </c>
-      <c r="C27" s="121" t="s">
+      <c r="C27" s="114" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -21815,9 +21815,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="127"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="122"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -21868,9 +21868,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="127"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="123"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="107"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -21921,11 +21921,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="127"/>
-      <c r="B30" s="117">
+      <c r="A30" s="111"/>
+      <c r="B30" s="105">
         <v>9</v>
       </c>
-      <c r="C30" s="120" t="s">
+      <c r="C30" s="108" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -21978,9 +21978,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="127"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="120"/>
+      <c r="A31" s="111"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="108"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -22031,9 +22031,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="127"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="120"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="107"/>
+      <c r="C32" s="108"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -22084,11 +22084,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="127"/>
-      <c r="B33" s="117">
+      <c r="A33" s="111"/>
+      <c r="B33" s="105">
         <v>10</v>
       </c>
-      <c r="C33" s="120" t="s">
+      <c r="C33" s="108" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -22141,9 +22141,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="127"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="120"/>
+      <c r="A34" s="111"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="108"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -22194,9 +22194,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="127"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="120"/>
+      <c r="A35" s="111"/>
+      <c r="B35" s="107"/>
+      <c r="C35" s="108"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -22247,11 +22247,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="127"/>
-      <c r="B36" s="117">
+      <c r="A36" s="111"/>
+      <c r="B36" s="105">
         <v>11</v>
       </c>
-      <c r="C36" s="120" t="s">
+      <c r="C36" s="108" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -22304,9 +22304,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="127"/>
-      <c r="B37" s="118"/>
-      <c r="C37" s="120"/>
+      <c r="A37" s="111"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="108"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -22357,9 +22357,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="127"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="120"/>
+      <c r="A38" s="111"/>
+      <c r="B38" s="107"/>
+      <c r="C38" s="108"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -22410,11 +22410,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="127"/>
-      <c r="B39" s="117">
+      <c r="A39" s="111"/>
+      <c r="B39" s="105">
         <v>12</v>
       </c>
-      <c r="C39" s="120" t="s">
+      <c r="C39" s="108" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -22467,9 +22467,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="127"/>
-      <c r="B40" s="118"/>
-      <c r="C40" s="120"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="108"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -22520,9 +22520,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="127"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="120"/>
+      <c r="A41" s="111"/>
+      <c r="B41" s="107"/>
+      <c r="C41" s="108"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -22573,11 +22573,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="127"/>
-      <c r="B42" s="117">
+      <c r="A42" s="111"/>
+      <c r="B42" s="105">
         <v>13</v>
       </c>
-      <c r="C42" s="120" t="s">
+      <c r="C42" s="108" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -22630,9 +22630,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="127"/>
-      <c r="B43" s="118"/>
-      <c r="C43" s="120"/>
+      <c r="A43" s="111"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="108"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -22683,9 +22683,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="128"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="120"/>
+      <c r="A44" s="112"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="108"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -22736,81 +22736,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="120" t="s">
+      <c r="A46" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="120"/>
-      <c r="C46" s="120" t="s">
+      <c r="B46" s="108"/>
+      <c r="C46" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="120"/>
-      <c r="E46" s="120"/>
-      <c r="F46" s="120" t="s">
+      <c r="D46" s="108"/>
+      <c r="E46" s="108"/>
+      <c r="F46" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="120"/>
-      <c r="H46" s="120"/>
-      <c r="I46" s="120" t="s">
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="120"/>
-      <c r="K46" s="120"/>
-      <c r="L46" s="120" t="s">
+      <c r="J46" s="108"/>
+      <c r="K46" s="108"/>
+      <c r="L46" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="120"/>
-      <c r="N46" s="120"/>
-      <c r="O46" s="120" t="s">
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="120"/>
-      <c r="Q46" s="120"/>
-      <c r="R46" s="120" t="s">
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="108" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="120"/>
-      <c r="T46" s="120"/>
-      <c r="U46" s="121" t="s">
+      <c r="S46" s="108"/>
+      <c r="T46" s="108"/>
+      <c r="U46" s="114" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="122"/>
-      <c r="W46" s="123"/>
-      <c r="X46" s="121" t="s">
+      <c r="V46" s="115"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="122"/>
-      <c r="Z46" s="123"/>
-      <c r="AA46" s="120" t="s">
+      <c r="Y46" s="115"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="120"/>
-      <c r="AC46" s="120"/>
-      <c r="AD46" s="120" t="s">
+      <c r="AB46" s="108"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="120"/>
-      <c r="AF46" s="120"/>
-      <c r="AG46" s="120" t="s">
+      <c r="AE46" s="108"/>
+      <c r="AF46" s="108"/>
+      <c r="AG46" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="120"/>
-      <c r="AI46" s="120"/>
-      <c r="AJ46" s="120" t="s">
+      <c r="AH46" s="108"/>
+      <c r="AI46" s="108"/>
+      <c r="AJ46" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="120"/>
-      <c r="AL46" s="120"/>
-      <c r="AM46" s="120" t="s">
+      <c r="AK46" s="108"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="120"/>
-      <c r="AO46" s="120"/>
+      <c r="AN46" s="108"/>
+      <c r="AO46" s="108"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="120" t="s">
+      <c r="A47" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="120"/>
+      <c r="B47" s="108"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -22930,10 +22930,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="120"/>
+      <c r="B48" s="108"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -23064,7 +23064,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="110"/>
+      <c r="B50" s="124"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -23073,7 +23073,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="110"/>
+      <c r="B51" s="124"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>
@@ -23083,23 +23083,26 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B42:B44"/>
@@ -23116,26 +23119,23 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/mymap/jsons/GenderGap_Find4Hourglass.xlsx
+++ b/mymap/jsons/GenderGap_Find4Hourglass.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25007"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="0" windowWidth="22720" windowHeight="16540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="22720" windowHeight="16540" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Total_W2E" sheetId="9" r:id="rId1"/>
@@ -1689,7 +1689,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="108" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1704,7 +1740,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1718,54 +1766,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="2" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="106" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="108" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2414,11 +2414,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="75"/>
-        <c:axId val="-2145936712"/>
-        <c:axId val="-2145934840"/>
+        <c:axId val="2137728472"/>
+        <c:axId val="2137731496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2145936712"/>
+        <c:axId val="2137728472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2427,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145934840"/>
+        <c:crossAx val="2137731496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145934840"/>
+        <c:axId val="2137731496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2451,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2145936712"/>
+        <c:crossAx val="2137728472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2665,11 +2665,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2145160216"/>
-        <c:axId val="-2145157224"/>
+        <c:axId val="2137774920"/>
+        <c:axId val="2137777864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2145160216"/>
+        <c:axId val="2137774920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,7 +2678,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145157224"/>
+        <c:crossAx val="2137777864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2686,7 +2686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2145157224"/>
+        <c:axId val="2137777864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2697,7 +2697,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="-2145160216"/>
+        <c:crossAx val="2137774920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3153,37 +3153,37 @@
     <row r="1" spans="1:27" ht="34" customHeight="1">
       <c r="A1" s="97"/>
       <c r="B1" s="97"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -3200,9 +3200,9 @@
     <row r="2" spans="1:27" ht="113" customHeight="1">
       <c r="A2" s="97"/>
       <c r="B2" s="97"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3271,13 +3271,13 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="126" t="s">
         <v>179</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="117">
+        <v>1</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="92">
@@ -3345,9 +3345,9 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="92">
         <v>2010</v>
       </c>
@@ -3413,9 +3413,9 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="111"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="91"/>
       <c r="C6" s="92"/>
       <c r="D6" s="25"/>
@@ -3503,11 +3503,11 @@
       <c r="X6" s="101"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="111"/>
-      <c r="B7" s="105">
+      <c r="A7" s="127"/>
+      <c r="B7" s="117">
         <v>2</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="120" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="92">
@@ -3575,9 +3575,9 @@
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="111"/>
-      <c r="B8" s="106"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="92">
         <v>2010</v>
       </c>
@@ -3643,9 +3643,9 @@
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="111"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="120"/>
       <c r="D9" s="25">
         <v>2014</v>
       </c>
@@ -3711,7 +3711,7 @@
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="111"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="25"/>
@@ -3733,11 +3733,11 @@
       <c r="X10" s="101"/>
     </row>
     <row r="11" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A11" s="111"/>
-      <c r="B11" s="105">
+      <c r="A11" s="127"/>
+      <c r="B11" s="117">
         <v>3</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="92">
@@ -3805,9 +3805,9 @@
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="111"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="108"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="120"/>
       <c r="D12" s="92">
         <v>2010</v>
       </c>
@@ -3873,9 +3873,9 @@
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="111"/>
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="25">
         <v>2014</v>
       </c>
@@ -3941,7 +3941,7 @@
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="111"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="25"/>
@@ -3963,11 +3963,11 @@
       <c r="X14" s="101"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="127"/>
+      <c r="B15" s="117">
         <v>4</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="92">
@@ -4035,9 +4035,9 @@
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="92">
         <v>2010</v>
       </c>
@@ -4103,9 +4103,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -4171,7 +4171,7 @@
       </c>
     </row>
     <row r="18" spans="1:24">
-      <c r="A18" s="111"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="25"/>
@@ -4193,11 +4193,11 @@
       <c r="X18" s="101"/>
     </row>
     <row r="19" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A19" s="111"/>
-      <c r="B19" s="105">
+      <c r="A19" s="127"/>
+      <c r="B19" s="117">
         <v>5</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="120" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="92">
@@ -4265,9 +4265,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="111"/>
-      <c r="B20" s="106"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="92">
         <v>2010</v>
       </c>
@@ -4333,9 +4333,9 @@
       </c>
     </row>
     <row r="21" spans="1:24">
-      <c r="A21" s="111"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="108"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="120"/>
       <c r="D21" s="25">
         <v>2014</v>
       </c>
@@ -4401,7 +4401,7 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="111"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="25"/>
@@ -4423,11 +4423,11 @@
       <c r="X22" s="101"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A23" s="111"/>
-      <c r="B23" s="105">
+      <c r="A23" s="127"/>
+      <c r="B23" s="117">
         <v>6</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="120" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="92">
@@ -4495,9 +4495,9 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="111"/>
-      <c r="B24" s="106"/>
-      <c r="C24" s="108"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="120"/>
       <c r="D24" s="92">
         <v>2010</v>
       </c>
@@ -4563,9 +4563,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="111"/>
-      <c r="B25" s="107"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="25">
         <v>2014</v>
       </c>
@@ -4631,7 +4631,7 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="111"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="25"/>
@@ -4653,11 +4653,11 @@
       <c r="X26" s="101"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="127"/>
+      <c r="B27" s="117">
         <v>7</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="120" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="92">
@@ -4725,9 +4725,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="92">
         <v>2010</v>
       </c>
@@ -4793,9 +4793,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -4861,7 +4861,7 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="111"/>
+      <c r="A30" s="127"/>
       <c r="B30" s="91"/>
       <c r="C30" s="95"/>
       <c r="D30" s="25"/>
@@ -4883,11 +4883,11 @@
       <c r="X30" s="101"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="111"/>
-      <c r="B31" s="105">
+      <c r="A31" s="127"/>
+      <c r="B31" s="117">
         <v>8</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="121" t="s">
         <v>54</v>
       </c>
       <c r="D31" s="92">
@@ -4955,9 +4955,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="111"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="115"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="92">
         <v>2010</v>
       </c>
@@ -5023,9 +5023,9 @@
       </c>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="111"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="116"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="123"/>
       <c r="D33" s="25">
         <v>2014</v>
       </c>
@@ -5091,7 +5091,7 @@
       </c>
     </row>
     <row r="34" spans="1:24">
-      <c r="A34" s="111"/>
+      <c r="A34" s="127"/>
       <c r="B34" s="91"/>
       <c r="C34" s="96"/>
       <c r="D34" s="25"/>
@@ -5113,11 +5113,11 @@
       <c r="X34" s="101"/>
     </row>
     <row r="35" spans="1:24">
-      <c r="A35" s="111"/>
-      <c r="B35" s="105">
+      <c r="A35" s="127"/>
+      <c r="B35" s="117">
         <v>9</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C35" s="120" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="92">
@@ -5185,9 +5185,9 @@
       </c>
     </row>
     <row r="36" spans="1:24">
-      <c r="A36" s="111"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="108"/>
+      <c r="A36" s="127"/>
+      <c r="B36" s="118"/>
+      <c r="C36" s="120"/>
       <c r="D36" s="92">
         <v>2010</v>
       </c>
@@ -5253,9 +5253,9 @@
       </c>
     </row>
     <row r="37" spans="1:24">
-      <c r="A37" s="111"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="25">
         <v>2014</v>
       </c>
@@ -5321,7 +5321,7 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="111"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="25"/>
@@ -5343,11 +5343,11 @@
       <c r="X38" s="101"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="127"/>
+      <c r="B39" s="117">
         <v>10</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="120" t="s">
         <v>28</v>
       </c>
       <c r="D39" s="92">
@@ -5415,9 +5415,9 @@
       </c>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="92">
         <v>2010</v>
       </c>
@@ -5483,9 +5483,9 @@
       </c>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -5551,7 +5551,7 @@
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="111"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="25"/>
@@ -5573,11 +5573,11 @@
       <c r="X42" s="101"/>
     </row>
     <row r="43" spans="1:24">
-      <c r="A43" s="111"/>
-      <c r="B43" s="105">
+      <c r="A43" s="127"/>
+      <c r="B43" s="117">
         <v>11</v>
       </c>
-      <c r="C43" s="108" t="s">
+      <c r="C43" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D43" s="92">
@@ -5645,9 +5645,9 @@
       </c>
     </row>
     <row r="44" spans="1:24">
-      <c r="A44" s="111"/>
-      <c r="B44" s="106"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="118"/>
+      <c r="C44" s="120"/>
       <c r="D44" s="92">
         <v>2010</v>
       </c>
@@ -5713,9 +5713,9 @@
       </c>
     </row>
     <row r="45" spans="1:24">
-      <c r="A45" s="111"/>
-      <c r="B45" s="107"/>
-      <c r="C45" s="108"/>
+      <c r="A45" s="127"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="120"/>
       <c r="D45" s="25">
         <v>2014</v>
       </c>
@@ -5781,7 +5781,7 @@
       </c>
     </row>
     <row r="46" spans="1:24">
-      <c r="A46" s="111"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="25"/>
@@ -5803,11 +5803,11 @@
       <c r="X46" s="101"/>
     </row>
     <row r="47" spans="1:24">
-      <c r="A47" s="111"/>
-      <c r="B47" s="105">
+      <c r="A47" s="127"/>
+      <c r="B47" s="117">
         <v>12</v>
       </c>
-      <c r="C47" s="108" t="s">
+      <c r="C47" s="120" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="92">
@@ -5875,9 +5875,9 @@
       </c>
     </row>
     <row r="48" spans="1:24">
-      <c r="A48" s="111"/>
-      <c r="B48" s="106"/>
-      <c r="C48" s="108"/>
+      <c r="A48" s="127"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="120"/>
       <c r="D48" s="92">
         <v>2010</v>
       </c>
@@ -5943,9 +5943,9 @@
       </c>
     </row>
     <row r="49" spans="1:41">
-      <c r="A49" s="111"/>
-      <c r="B49" s="107"/>
-      <c r="C49" s="108"/>
+      <c r="A49" s="127"/>
+      <c r="B49" s="119"/>
+      <c r="C49" s="120"/>
       <c r="D49" s="25">
         <v>2014</v>
       </c>
@@ -6011,7 +6011,7 @@
       </c>
     </row>
     <row r="50" spans="1:41">
-      <c r="A50" s="111"/>
+      <c r="A50" s="127"/>
       <c r="B50" s="91"/>
       <c r="C50" s="92"/>
       <c r="D50" s="25"/>
@@ -6033,11 +6033,11 @@
       <c r="X50" s="101"/>
     </row>
     <row r="51" spans="1:41">
-      <c r="A51" s="111"/>
-      <c r="B51" s="105">
+      <c r="A51" s="127"/>
+      <c r="B51" s="117">
         <v>13</v>
       </c>
-      <c r="C51" s="108" t="s">
+      <c r="C51" s="120" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="92">
@@ -6105,9 +6105,9 @@
       </c>
     </row>
     <row r="52" spans="1:41">
-      <c r="A52" s="111"/>
-      <c r="B52" s="106"/>
-      <c r="C52" s="108"/>
+      <c r="A52" s="127"/>
+      <c r="B52" s="118"/>
+      <c r="C52" s="120"/>
       <c r="D52" s="92">
         <v>2010</v>
       </c>
@@ -6173,9 +6173,9 @@
       </c>
     </row>
     <row r="53" spans="1:41">
-      <c r="A53" s="111"/>
-      <c r="B53" s="107"/>
-      <c r="C53" s="108"/>
+      <c r="A53" s="127"/>
+      <c r="B53" s="119"/>
+      <c r="C53" s="120"/>
       <c r="D53" s="25">
         <v>2014</v>
       </c>
@@ -6241,79 +6241,79 @@
       </c>
     </row>
     <row r="54" spans="1:41">
-      <c r="A54" s="111"/>
+      <c r="A54" s="127"/>
     </row>
     <row r="55" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="111"/>
+      <c r="A55" s="127"/>
       <c r="B55" s="86"/>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120" t="s">
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120" t="s">
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120" t="s">
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120" t="s">
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="117" t="s">
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="118"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="120" t="s">
+      <c r="S55" s="113"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="117" t="s">
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="Y55" s="118"/>
-      <c r="Z55" s="119"/>
-      <c r="AA55" s="120" t="s">
+      <c r="Y55" s="113"/>
+      <c r="Z55" s="114"/>
+      <c r="AA55" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120" t="s">
+      <c r="AB55" s="104"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120" t="s">
+      <c r="AE55" s="104"/>
+      <c r="AF55" s="104"/>
+      <c r="AG55" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120" t="s">
+      <c r="AH55" s="104"/>
+      <c r="AI55" s="104"/>
+      <c r="AJ55" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="120"/>
-      <c r="AL55" s="120"/>
-      <c r="AM55" s="120" t="s">
+      <c r="AK55" s="104"/>
+      <c r="AL55" s="104"/>
+      <c r="AM55" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="120"/>
+      <c r="AN55" s="104"/>
+      <c r="AO55" s="104"/>
     </row>
     <row r="56" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A56" s="112"/>
+      <c r="A56" s="128"/>
       <c r="B56" s="86"/>
       <c r="C56" s="86" t="s">
         <v>72</v>
@@ -6554,10 +6554,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A58" s="121" t="s">
+      <c r="A58" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="122"/>
+      <c r="B58" s="116"/>
       <c r="C58" s="79">
         <v>2006</v>
       </c>
@@ -6594,10 +6594,10 @@
       <c r="Y58" s="100"/>
     </row>
     <row r="59" spans="1:41" ht="16" thickTop="1">
-      <c r="A59" s="123" t="s">
+      <c r="A59" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="123"/>
+      <c r="B59" s="109"/>
       <c r="C59">
         <f xml:space="preserve"> C57/115</f>
         <v>3.4782608695652174E-2</v>
@@ -6756,10 +6756,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="124" t="s">
+      <c r="A60" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="124"/>
+      <c r="B60" s="110"/>
       <c r="C60">
         <f xml:space="preserve"> C59*72</f>
         <v>2.5043478260869567</v>
@@ -6918,10 +6918,10 @@
       </c>
     </row>
     <row r="61" spans="1:41" s="80" customFormat="1">
-      <c r="A61" s="125" t="s">
+      <c r="A61" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="125"/>
+      <c r="B61" s="111"/>
       <c r="C61" s="80">
         <f xml:space="preserve"> 72-C60</f>
         <v>69.495652173913044</v>
@@ -7231,77 +7231,77 @@
       <c r="X66" s="85"/>
     </row>
     <row r="67" spans="1:41">
-      <c r="C67" s="120" t="s">
+      <c r="C67" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D67" s="120"/>
-      <c r="E67" s="120"/>
-      <c r="F67" s="117" t="s">
+      <c r="D67" s="104"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G67" s="118"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="120" t="s">
+      <c r="G67" s="113"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="J67" s="120"/>
-      <c r="K67" s="120"/>
-      <c r="L67" s="120" t="s">
+      <c r="J67" s="104"/>
+      <c r="K67" s="104"/>
+      <c r="L67" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M67" s="120"/>
-      <c r="N67" s="120"/>
-      <c r="O67" s="120" t="s">
+      <c r="M67" s="104"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="P67" s="120"/>
-      <c r="Q67" s="120"/>
-      <c r="R67" s="117" t="s">
+      <c r="P67" s="104"/>
+      <c r="Q67" s="104"/>
+      <c r="R67" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S67" s="118"/>
-      <c r="T67" s="119"/>
-      <c r="U67" s="120" t="s">
+      <c r="S67" s="113"/>
+      <c r="T67" s="114"/>
+      <c r="U67" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="V67" s="120"/>
-      <c r="W67" s="120"/>
-      <c r="X67" s="120" t="s">
+      <c r="V67" s="104"/>
+      <c r="W67" s="104"/>
+      <c r="X67" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="Y67" s="120"/>
-      <c r="Z67" s="120"/>
-      <c r="AA67" s="120" t="s">
+      <c r="Y67" s="104"/>
+      <c r="Z67" s="104"/>
+      <c r="AA67" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AB67" s="120"/>
-      <c r="AC67" s="120"/>
-      <c r="AD67" s="120" t="s">
+      <c r="AB67" s="104"/>
+      <c r="AC67" s="104"/>
+      <c r="AD67" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE67" s="120"/>
-      <c r="AF67" s="120"/>
-      <c r="AG67" s="120" t="s">
+      <c r="AE67" s="104"/>
+      <c r="AF67" s="104"/>
+      <c r="AG67" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AH67" s="120"/>
-      <c r="AI67" s="120"/>
-      <c r="AJ67" s="120" t="s">
+      <c r="AH67" s="104"/>
+      <c r="AI67" s="104"/>
+      <c r="AJ67" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK67" s="120"/>
-      <c r="AL67" s="120"/>
-      <c r="AM67" s="120" t="s">
+      <c r="AK67" s="104"/>
+      <c r="AL67" s="104"/>
+      <c r="AM67" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AN67" s="120"/>
-      <c r="AO67" s="120"/>
+      <c r="AN67" s="104"/>
+      <c r="AO67" s="104"/>
     </row>
     <row r="68" spans="1:41" ht="70">
-      <c r="A68" s="126" t="s">
+      <c r="A68" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="127"/>
+      <c r="B68" s="106"/>
       <c r="C68" s="86" t="s">
         <v>99</v>
       </c>
@@ -7421,8 +7421,8 @@
       </c>
     </row>
     <row r="69" spans="1:41" ht="16" thickBot="1">
-      <c r="A69" s="128"/>
-      <c r="B69" s="129"/>
+      <c r="A69" s="107"/>
+      <c r="B69" s="108"/>
       <c r="C69" s="86">
         <v>23</v>
       </c>
@@ -7542,10 +7542,10 @@
       </c>
     </row>
     <row r="70" spans="1:41" ht="16" thickTop="1">
-      <c r="A70" s="123" t="s">
+      <c r="A70" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B70" s="123"/>
+      <c r="B70" s="109"/>
       <c r="C70">
         <f xml:space="preserve"> C69/115</f>
         <v>0.2</v>
@@ -7704,10 +7704,10 @@
       </c>
     </row>
     <row r="71" spans="1:41">
-      <c r="A71" s="124" t="s">
+      <c r="A71" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="124"/>
+      <c r="B71" s="110"/>
       <c r="C71">
         <f xml:space="preserve"> C70*65</f>
         <v>13</v>
@@ -7866,10 +7866,10 @@
       </c>
     </row>
     <row r="72" spans="1:41">
-      <c r="A72" s="125" t="s">
+      <c r="A72" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B72" s="125"/>
+      <c r="B72" s="111"/>
       <c r="C72" s="80">
         <f xml:space="preserve"> 65-C71</f>
         <v>52</v>
@@ -8034,23 +8034,41 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="AJ67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AG67:AI67"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="R67:T67"/>
-    <mergeCell ref="U67:W67"/>
-    <mergeCell ref="X67:Z67"/>
-    <mergeCell ref="AA67:AC67"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:N67"/>
-    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="A3:A56"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="R55:T55"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
     <mergeCell ref="AM55:AO55"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
@@ -8067,41 +8085,23 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="O55:Q55"/>
-    <mergeCell ref="R55:T55"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="A3:A56"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="R67:T67"/>
+    <mergeCell ref="U67:W67"/>
+    <mergeCell ref="X67:Z67"/>
+    <mergeCell ref="AA67:AC67"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:N67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="AJ67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AG67:AI67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -8145,37 +8145,37 @@
     <row r="1" spans="1:24" ht="34" customHeight="1">
       <c r="A1" s="57"/>
       <c r="B1" s="57"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
       <c r="T1" s="71" t="s">
         <v>92</v>
       </c>
@@ -8188,16 +8188,16 @@
       <c r="W1" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="X1" s="108" t="s">
+      <c r="X1" s="120" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="144">
       <c r="A2" s="57"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -8252,16 +8252,16 @@
       <c r="W2" s="72" t="s">
         <v>98</v>
       </c>
-      <c r="X2" s="108"/>
+      <c r="X2" s="120"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="117">
+        <v>1</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="54">
@@ -8329,9 +8329,9 @@
       </c>
     </row>
     <row r="4" spans="1:24">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="54">
         <v>2010</v>
       </c>
@@ -8397,9 +8397,9 @@
       </c>
     </row>
     <row r="5" spans="1:24">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -8465,11 +8465,11 @@
       </c>
     </row>
     <row r="6" spans="1:24" ht="15" customHeight="1">
-      <c r="A6" s="111"/>
-      <c r="B6" s="105">
+      <c r="A6" s="127"/>
+      <c r="B6" s="117">
         <v>2</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="120" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="54">
@@ -8537,9 +8537,9 @@
       </c>
     </row>
     <row r="7" spans="1:24">
-      <c r="A7" s="111"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="54">
         <v>2010</v>
       </c>
@@ -8605,9 +8605,9 @@
       </c>
     </row>
     <row r="8" spans="1:24">
-      <c r="A8" s="111"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -8673,11 +8673,11 @@
       </c>
     </row>
     <row r="9" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A9" s="111"/>
-      <c r="B9" s="105">
+      <c r="A9" s="127"/>
+      <c r="B9" s="117">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="54">
@@ -8745,9 +8745,9 @@
       </c>
     </row>
     <row r="10" spans="1:24">
-      <c r="A10" s="111"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="54">
         <v>2010</v>
       </c>
@@ -8813,9 +8813,9 @@
       </c>
     </row>
     <row r="11" spans="1:24">
-      <c r="A11" s="111"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -8881,11 +8881,11 @@
       </c>
     </row>
     <row r="12" spans="1:24">
-      <c r="A12" s="111"/>
-      <c r="B12" s="105">
+      <c r="A12" s="127"/>
+      <c r="B12" s="117">
         <v>4</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="54">
@@ -8953,9 +8953,9 @@
       </c>
     </row>
     <row r="13" spans="1:24">
-      <c r="A13" s="111"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="54">
         <v>2010</v>
       </c>
@@ -9021,9 +9021,9 @@
       </c>
     </row>
     <row r="14" spans="1:24">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -9089,11 +9089,11 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="127"/>
+      <c r="B15" s="117">
         <v>5</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="120" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="54">
@@ -9161,9 +9161,9 @@
       </c>
     </row>
     <row r="16" spans="1:24">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="54">
         <v>2010</v>
       </c>
@@ -9229,9 +9229,9 @@
       </c>
     </row>
     <row r="17" spans="1:24">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -9297,11 +9297,11 @@
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="105">
+      <c r="A18" s="127"/>
+      <c r="B18" s="117">
         <v>6</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="120" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="54">
@@ -9369,9 +9369,9 @@
       </c>
     </row>
     <row r="19" spans="1:24">
-      <c r="A19" s="111"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="54">
         <v>2010</v>
       </c>
@@ -9437,9 +9437,9 @@
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -9505,11 +9505,11 @@
       </c>
     </row>
     <row r="21" spans="1:24" ht="15.75" customHeight="1">
-      <c r="A21" s="111"/>
-      <c r="B21" s="105">
+      <c r="A21" s="127"/>
+      <c r="B21" s="117">
         <v>7</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="120" t="s">
         <v>70</v>
       </c>
       <c r="D21" s="54">
@@ -9577,9 +9577,9 @@
       </c>
     </row>
     <row r="22" spans="1:24">
-      <c r="A22" s="111"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="54">
         <v>2010</v>
       </c>
@@ -9645,9 +9645,9 @@
       </c>
     </row>
     <row r="23" spans="1:24">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -9713,11 +9713,11 @@
       </c>
     </row>
     <row r="24" spans="1:24">
-      <c r="A24" s="111"/>
-      <c r="B24" s="105">
+      <c r="A24" s="127"/>
+      <c r="B24" s="117">
         <v>8</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="121" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="54">
@@ -9785,9 +9785,9 @@
       </c>
     </row>
     <row r="25" spans="1:24">
-      <c r="A25" s="111"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="115"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="122"/>
       <c r="D25" s="54">
         <v>2010</v>
       </c>
@@ -9853,9 +9853,9 @@
       </c>
     </row>
     <row r="26" spans="1:24">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -9921,11 +9921,11 @@
       </c>
     </row>
     <row r="27" spans="1:24">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="127"/>
+      <c r="B27" s="117">
         <v>9</v>
       </c>
-      <c r="C27" s="108" t="s">
+      <c r="C27" s="120" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="54">
@@ -9993,9 +9993,9 @@
       </c>
     </row>
     <row r="28" spans="1:24">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="108"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="120"/>
       <c r="D28" s="54">
         <v>2010</v>
       </c>
@@ -10061,9 +10061,9 @@
       </c>
     </row>
     <row r="29" spans="1:24">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="108"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="120"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -10129,11 +10129,11 @@
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" s="111"/>
-      <c r="B30" s="105">
+      <c r="A30" s="127"/>
+      <c r="B30" s="117">
         <v>10</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="120" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="54">
@@ -10201,9 +10201,9 @@
       </c>
     </row>
     <row r="31" spans="1:24">
-      <c r="A31" s="111"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="54">
         <v>2010</v>
       </c>
@@ -10269,9 +10269,9 @@
       </c>
     </row>
     <row r="32" spans="1:24">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -10337,11 +10337,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="111"/>
-      <c r="B33" s="105">
+      <c r="A33" s="127"/>
+      <c r="B33" s="117">
         <v>11</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D33" s="54">
@@ -10409,9 +10409,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="111"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="54">
         <v>2010</v>
       </c>
@@ -10477,9 +10477,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="111"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -10545,11 +10545,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="111"/>
-      <c r="B36" s="105">
+      <c r="A36" s="127"/>
+      <c r="B36" s="117">
         <v>12</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="120" t="s">
         <v>13</v>
       </c>
       <c r="D36" s="54">
@@ -10617,9 +10617,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="111"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="54">
         <v>2010</v>
       </c>
@@ -10685,9 +10685,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="111"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -10753,11 +10753,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="127"/>
+      <c r="B39" s="117">
         <v>13</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="120" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="54">
@@ -10825,9 +10825,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="54">
         <v>2010</v>
       </c>
@@ -10893,9 +10893,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -10961,79 +10961,79 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="111"/>
+      <c r="A42" s="127"/>
     </row>
     <row r="43" spans="1:41" s="75" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A43" s="111"/>
+      <c r="A43" s="127"/>
       <c r="B43" s="73"/>
-      <c r="C43" s="120" t="s">
+      <c r="C43" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120" t="s">
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120" t="s">
+      <c r="G43" s="104"/>
+      <c r="H43" s="104"/>
+      <c r="I43" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120" t="s">
+      <c r="J43" s="104"/>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120" t="s">
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="117" t="s">
+      <c r="P43" s="104"/>
+      <c r="Q43" s="104"/>
+      <c r="R43" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S43" s="118"/>
-      <c r="T43" s="119"/>
-      <c r="U43" s="120" t="s">
+      <c r="S43" s="113"/>
+      <c r="T43" s="114"/>
+      <c r="U43" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="117" t="s">
+      <c r="V43" s="104"/>
+      <c r="W43" s="104"/>
+      <c r="X43" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="Y43" s="118"/>
-      <c r="Z43" s="119"/>
-      <c r="AA43" s="120" t="s">
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="114"/>
+      <c r="AA43" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="AB43" s="120"/>
-      <c r="AC43" s="120"/>
-      <c r="AD43" s="120" t="s">
+      <c r="AB43" s="104"/>
+      <c r="AC43" s="104"/>
+      <c r="AD43" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE43" s="120"/>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120" t="s">
+      <c r="AE43" s="104"/>
+      <c r="AF43" s="104"/>
+      <c r="AG43" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120" t="s">
+      <c r="AH43" s="104"/>
+      <c r="AI43" s="104"/>
+      <c r="AJ43" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK43" s="120"/>
-      <c r="AL43" s="120"/>
-      <c r="AM43" s="120" t="s">
+      <c r="AK43" s="104"/>
+      <c r="AL43" s="104"/>
+      <c r="AM43" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AN43" s="120"/>
-      <c r="AO43" s="120"/>
+      <c r="AN43" s="104"/>
+      <c r="AO43" s="104"/>
     </row>
     <row r="44" spans="1:41" s="75" customFormat="1" ht="70">
-      <c r="A44" s="112"/>
+      <c r="A44" s="128"/>
       <c r="B44" s="73"/>
       <c r="C44" s="73" t="s">
         <v>72</v>
@@ -11274,10 +11274,10 @@
       </c>
     </row>
     <row r="46" spans="1:41" s="79" customFormat="1" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A46" s="121" t="s">
+      <c r="A46" s="115" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="122"/>
+      <c r="B46" s="116"/>
       <c r="C46" s="79">
         <v>2006</v>
       </c>
@@ -11314,10 +11314,10 @@
       <c r="Y46" s="100"/>
     </row>
     <row r="47" spans="1:41" ht="16" thickTop="1">
-      <c r="A47" s="123" t="s">
+      <c r="A47" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="123"/>
+      <c r="B47" s="109"/>
       <c r="C47">
         <f xml:space="preserve"> C45/115</f>
         <v>3.4782608695652174E-2</v>
@@ -11476,10 +11476,10 @@
       </c>
     </row>
     <row r="48" spans="1:41">
-      <c r="A48" s="124" t="s">
+      <c r="A48" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="124"/>
+      <c r="B48" s="110"/>
       <c r="C48">
         <f xml:space="preserve"> C47*72</f>
         <v>2.5043478260869567</v>
@@ -11638,10 +11638,10 @@
       </c>
     </row>
     <row r="49" spans="1:41" s="80" customFormat="1">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="125"/>
+      <c r="B49" s="111"/>
       <c r="C49" s="80">
         <f xml:space="preserve"> 72-C48</f>
         <v>69.495652173913044</v>
@@ -11951,77 +11951,77 @@
       <c r="X54" s="85"/>
     </row>
     <row r="55" spans="1:41">
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="D55" s="120"/>
-      <c r="E55" s="120"/>
-      <c r="F55" s="117" t="s">
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="118"/>
-      <c r="H55" s="119"/>
-      <c r="I55" s="120" t="s">
+      <c r="G55" s="113"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120" t="s">
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120" t="s">
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="117" t="s">
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="S55" s="118"/>
-      <c r="T55" s="119"/>
-      <c r="U55" s="120" t="s">
+      <c r="S55" s="113"/>
+      <c r="T55" s="114"/>
+      <c r="U55" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120" t="s">
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120" t="s">
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120" t="s">
+      <c r="AB55" s="104"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="AE55" s="120"/>
-      <c r="AF55" s="120"/>
-      <c r="AG55" s="120" t="s">
+      <c r="AE55" s="104"/>
+      <c r="AF55" s="104"/>
+      <c r="AG55" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="AH55" s="120"/>
-      <c r="AI55" s="120"/>
-      <c r="AJ55" s="120" t="s">
+      <c r="AH55" s="104"/>
+      <c r="AI55" s="104"/>
+      <c r="AJ55" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="AK55" s="120"/>
-      <c r="AL55" s="120"/>
-      <c r="AM55" s="120" t="s">
+      <c r="AK55" s="104"/>
+      <c r="AL55" s="104"/>
+      <c r="AM55" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="AN55" s="120"/>
-      <c r="AO55" s="120"/>
+      <c r="AN55" s="104"/>
+      <c r="AO55" s="104"/>
     </row>
     <row r="56" spans="1:41" ht="70">
-      <c r="A56" s="126" t="s">
+      <c r="A56" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B56" s="127"/>
+      <c r="B56" s="106"/>
       <c r="C56" s="74" t="s">
         <v>99</v>
       </c>
@@ -12141,8 +12141,8 @@
       </c>
     </row>
     <row r="57" spans="1:41" ht="16" thickBot="1">
-      <c r="A57" s="128"/>
-      <c r="B57" s="129"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="108"/>
       <c r="C57" s="74">
         <v>23</v>
       </c>
@@ -12262,10 +12262,10 @@
       </c>
     </row>
     <row r="58" spans="1:41" ht="16" thickTop="1">
-      <c r="A58" s="123" t="s">
+      <c r="A58" s="109" t="s">
         <v>125</v>
       </c>
-      <c r="B58" s="123"/>
+      <c r="B58" s="109"/>
       <c r="C58">
         <f xml:space="preserve"> C57/115</f>
         <v>0.2</v>
@@ -12424,10 +12424,10 @@
       </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="124" t="s">
+      <c r="A59" s="110" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="124"/>
+      <c r="B59" s="110"/>
       <c r="C59">
         <f xml:space="preserve"> C58*65</f>
         <v>13</v>
@@ -12586,10 +12586,10 @@
       </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="125" t="s">
+      <c r="A60" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="B60" s="125"/>
+      <c r="B60" s="111"/>
       <c r="C60" s="80">
         <f xml:space="preserve"> 65-C59</f>
         <v>52</v>
@@ -12754,6 +12754,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AG43:AI43"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="O43:Q43"/>
+    <mergeCell ref="U43:W43"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="AJ43:AL43"/>
+    <mergeCell ref="AM43:AO43"/>
+    <mergeCell ref="X43:Z43"/>
+    <mergeCell ref="AA43:AC43"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="AM55:AO55"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="A3:A44"/>
+    <mergeCell ref="R43:T43"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="C39:C41"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A56:B57"/>
     <mergeCell ref="A46:B46"/>
@@ -12770,59 +12823,6 @@
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="L55:N55"/>
     <mergeCell ref="R55:T55"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="AM55:AO55"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="A3:A44"/>
-    <mergeCell ref="R43:T43"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="AJ43:AL43"/>
-    <mergeCell ref="AM43:AO43"/>
-    <mergeCell ref="X43:Z43"/>
-    <mergeCell ref="AA43:AC43"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AG43:AI43"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="O43:Q43"/>
-    <mergeCell ref="U43:W43"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -12838,8 +12838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:Y44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12853,44 +12853,44 @@
     <row r="1" spans="1:25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:25" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>40</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>41</v>
+        <v>176</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>42</v>
@@ -12944,7 +12944,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="47" t="s">
@@ -13012,7 +13012,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="111"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -13078,7 +13078,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A5" s="111"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -13144,7 +13144,7 @@
       </c>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="111"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -13210,7 +13210,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -13276,7 +13276,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1">
-      <c r="A8" s="111"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -13342,7 +13342,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -13408,7 +13408,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10" s="111"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -13474,7 +13474,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11" s="111"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -13540,7 +13540,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12" s="111"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -13606,7 +13606,7 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13" s="111"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -13672,7 +13672,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14" s="111"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -13738,7 +13738,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15" s="111"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -14844,44 +14844,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -14926,7 +14926,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -14985,7 +14985,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="111"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -15042,7 +15042,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A5" s="111"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -15099,7 +15099,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -15156,7 +15156,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A7" s="111"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -15213,7 +15213,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="111"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -15270,7 +15270,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A9" s="111"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -15327,7 +15327,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -15384,7 +15384,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -15441,7 +15441,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -15498,7 +15498,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -15555,7 +15555,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -15612,7 +15612,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -16427,44 +16427,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -16509,7 +16509,7 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="44" t="s">
@@ -16568,7 +16568,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" ht="24">
-      <c r="A4" s="111"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="45" t="s">
         <v>55</v>
       </c>
@@ -16625,7 +16625,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" ht="24">
-      <c r="A5" s="111"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="45" t="s">
         <v>57</v>
       </c>
@@ -16682,7 +16682,7 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="45" t="s">
         <v>58</v>
       </c>
@@ -16739,7 +16739,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24">
-      <c r="A7" s="111"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="45" t="s">
         <v>59</v>
       </c>
@@ -16796,7 +16796,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="24">
-      <c r="A8" s="111"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="45" t="s">
         <v>60</v>
       </c>
@@ -16853,7 +16853,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="24">
-      <c r="A9" s="111"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="45" t="s">
         <v>61</v>
       </c>
@@ -16910,7 +16910,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="45" t="s">
         <v>62</v>
       </c>
@@ -16967,7 +16967,7 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="45" t="s">
         <v>56</v>
       </c>
@@ -17024,7 +17024,7 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
@@ -17081,7 +17081,7 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="45" t="s">
         <v>64</v>
       </c>
@@ -17138,7 +17138,7 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="45" t="s">
         <v>65</v>
       </c>
@@ -17195,7 +17195,7 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="45" t="s">
         <v>66</v>
       </c>
@@ -17329,158 +17329,158 @@
       <c r="K1" s="130"/>
     </row>
     <row r="2" spans="1:44" ht="20" customHeight="1">
-      <c r="C2" s="105">
-        <v>1</v>
-      </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="105">
+      <c r="C2" s="117">
+        <v>1</v>
+      </c>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="117">
         <v>2</v>
       </c>
-      <c r="G2" s="106"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="105">
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="117">
         <v>3</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="105">
+      <c r="J2" s="118"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="117">
         <v>4</v>
       </c>
-      <c r="M2" s="106"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="105">
+      <c r="M2" s="118"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="117">
         <v>5</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="105">
+      <c r="P2" s="118"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="117">
         <v>6</v>
       </c>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="105">
+      <c r="S2" s="118"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="117">
         <v>7</v>
       </c>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="105">
+      <c r="V2" s="118"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="117">
         <v>8</v>
       </c>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="107"/>
-      <c r="AA2" s="105">
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="117">
         <v>14</v>
       </c>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="107"/>
-      <c r="AD2" s="105">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="117">
         <v>9</v>
       </c>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="105">
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="117">
         <v>10</v>
       </c>
-      <c r="AH2" s="106"/>
-      <c r="AI2" s="107"/>
-      <c r="AJ2" s="105">
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="117">
         <v>11</v>
       </c>
-      <c r="AK2" s="106"/>
-      <c r="AL2" s="107"/>
-      <c r="AM2" s="105">
+      <c r="AK2" s="118"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="117">
         <v>12</v>
       </c>
-      <c r="AN2" s="106"/>
-      <c r="AO2" s="107"/>
-      <c r="AP2" s="105">
+      <c r="AN2" s="118"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="117">
         <v>13</v>
       </c>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="107"/>
+      <c r="AQ2" s="118"/>
+      <c r="AR2" s="119"/>
     </row>
     <row r="3" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="120"/>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108" t="s">
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108" t="s">
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108" t="s">
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108" t="s">
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108" t="s">
+      <c r="P3" s="120"/>
+      <c r="Q3" s="120"/>
+      <c r="R3" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108" t="s">
+      <c r="S3" s="120"/>
+      <c r="T3" s="120"/>
+      <c r="U3" s="120" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108" t="s">
+      <c r="V3" s="120"/>
+      <c r="W3" s="120"/>
+      <c r="X3" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="Y3" s="108"/>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="114" t="s">
+      <c r="Y3" s="120"/>
+      <c r="Z3" s="120"/>
+      <c r="AA3" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="116"/>
-      <c r="AD3" s="108" t="s">
+      <c r="AB3" s="122"/>
+      <c r="AC3" s="123"/>
+      <c r="AD3" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108" t="s">
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="120"/>
+      <c r="AG3" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="AH3" s="108"/>
-      <c r="AI3" s="108"/>
-      <c r="AJ3" s="108" t="s">
+      <c r="AH3" s="120"/>
+      <c r="AI3" s="120"/>
+      <c r="AJ3" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AK3" s="108"/>
-      <c r="AL3" s="108"/>
-      <c r="AM3" s="108" t="s">
+      <c r="AK3" s="120"/>
+      <c r="AL3" s="120"/>
+      <c r="AM3" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="108"/>
-      <c r="AO3" s="108"/>
-      <c r="AP3" s="108" t="s">
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="120"/>
+      <c r="AP3" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AQ3" s="108"/>
-      <c r="AR3" s="108"/>
+      <c r="AQ3" s="120"/>
+      <c r="AR3" s="120"/>
     </row>
     <row r="4" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="108"/>
+      <c r="B4" s="120"/>
       <c r="C4" s="14">
         <v>2006</v>
       </c>
@@ -17609,10 +17609,10 @@
       </c>
     </row>
     <row r="5" spans="1:44" s="14" customFormat="1" ht="20" customHeight="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="108"/>
+      <c r="B5" s="120"/>
       <c r="C5" s="14">
         <v>4</v>
       </c>
@@ -17741,7 +17741,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="129" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -17875,7 +17875,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A7" s="113"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="16" t="s">
         <v>34</v>
       </c>
@@ -18007,7 +18007,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A8" s="113"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
@@ -18139,7 +18139,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A9" s="113"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -18271,7 +18271,7 @@
       </c>
     </row>
     <row r="10" spans="1:44" s="13" customFormat="1" ht="20" customHeight="1">
-      <c r="A10" s="113"/>
+      <c r="A10" s="129"/>
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -18403,7 +18403,7 @@
       </c>
     </row>
     <row r="11" spans="1:44" ht="20" customHeight="1">
-      <c r="A11" s="109" t="s">
+      <c r="A11" s="124" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -18537,7 +18537,7 @@
       </c>
     </row>
     <row r="12" spans="1:44" ht="20" customHeight="1">
-      <c r="A12" s="109"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="6" t="s">
         <v>39</v>
       </c>
@@ -18669,7 +18669,7 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="20" customHeight="1">
-      <c r="A13" s="109"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="6" t="s">
         <v>40</v>
       </c>
@@ -18801,7 +18801,7 @@
       </c>
     </row>
     <row r="14" spans="1:44" ht="20" customHeight="1">
-      <c r="A14" s="109"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="6" t="s">
         <v>41</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
     </row>
     <row r="15" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A15" s="104" t="s">
+      <c r="A15" s="125" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -19067,7 +19067,7 @@
       </c>
     </row>
     <row r="16" spans="1:44" s="11" customFormat="1" ht="20" customHeight="1">
-      <c r="A16" s="104"/>
+      <c r="A16" s="125"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
       </c>
@@ -19199,7 +19199,7 @@
       </c>
     </row>
     <row r="17" spans="1:44" ht="20" customHeight="1">
-      <c r="A17" s="109" t="s">
+      <c r="A17" s="124" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -19333,7 +19333,7 @@
       </c>
     </row>
     <row r="18" spans="1:44" ht="20" customHeight="1">
-      <c r="A18" s="109"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="6" t="s">
         <v>46</v>
       </c>
@@ -19465,7 +19465,7 @@
       </c>
     </row>
     <row r="19" spans="1:44" ht="20" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
@@ -20123,6 +20123,29 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AP3:AR3"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AA3:AC3"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="O3:Q3"/>
     <mergeCell ref="R3:T3"/>
@@ -20136,29 +20159,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C2:E2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AP3:AR3"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20370,44 +20370,44 @@
     <row r="1" spans="1:19">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="108" t="s">
+      <c r="E1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="113" t="s">
+      <c r="F1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="109" t="s">
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="104" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="109" t="s">
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="124" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
+      <c r="R1" s="124"/>
+      <c r="S1" s="124"/>
     </row>
     <row r="2" spans="1:19" ht="84">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
       <c r="F2" s="15" t="s">
         <v>0</v>
       </c>
@@ -20452,13 +20452,13 @@
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="105">
-        <v>1</v>
-      </c>
-      <c r="C3" s="108" t="s">
+      <c r="B3" s="117">
+        <v>1</v>
+      </c>
+      <c r="C3" s="120" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="14">
@@ -20511,9 +20511,9 @@
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="111"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="108"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="14">
         <v>2010</v>
       </c>
@@ -20564,9 +20564,9 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="111"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="108"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="25">
         <v>2014</v>
       </c>
@@ -20617,11 +20617,11 @@
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="111"/>
-      <c r="B6" s="105">
+      <c r="A6" s="127"/>
+      <c r="B6" s="117">
         <v>2</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="120" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="14">
@@ -20674,9 +20674,9 @@
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="111"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="108"/>
+      <c r="A7" s="127"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="120"/>
       <c r="D7" s="14">
         <v>2010</v>
       </c>
@@ -20727,9 +20727,9 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="111"/>
-      <c r="B8" s="107"/>
-      <c r="C8" s="108"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="119"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="25">
         <v>2014</v>
       </c>
@@ -20780,11 +20780,11 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="111"/>
-      <c r="B9" s="105">
+      <c r="A9" s="127"/>
+      <c r="B9" s="117">
         <v>3</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="120" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="14">
@@ -20837,9 +20837,9 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="111"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="108"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
       <c r="D10" s="14">
         <v>2010</v>
       </c>
@@ -20890,9 +20890,9 @@
       </c>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="111"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="108"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="120"/>
       <c r="D11" s="25">
         <v>2014</v>
       </c>
@@ -20943,11 +20943,11 @@
       </c>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="111"/>
-      <c r="B12" s="105">
+      <c r="A12" s="127"/>
+      <c r="B12" s="117">
         <v>4</v>
       </c>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="120" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="14">
@@ -21000,9 +21000,9 @@
       </c>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="111"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="108"/>
+      <c r="A13" s="127"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="120"/>
       <c r="D13" s="14">
         <v>2010</v>
       </c>
@@ -21053,9 +21053,9 @@
       </c>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="111"/>
-      <c r="B14" s="107"/>
-      <c r="C14" s="108"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="120"/>
       <c r="D14" s="25">
         <v>2014</v>
       </c>
@@ -21106,11 +21106,11 @@
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="111"/>
-      <c r="B15" s="105">
+      <c r="A15" s="127"/>
+      <c r="B15" s="117">
         <v>5</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="120" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="14">
@@ -21163,9 +21163,9 @@
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="111"/>
-      <c r="B16" s="106"/>
-      <c r="C16" s="108"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
       <c r="D16" s="14">
         <v>2010</v>
       </c>
@@ -21216,9 +21216,9 @@
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="111"/>
-      <c r="B17" s="107"/>
-      <c r="C17" s="108"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="120"/>
       <c r="D17" s="25">
         <v>2014</v>
       </c>
@@ -21269,11 +21269,11 @@
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="111"/>
-      <c r="B18" s="105">
+      <c r="A18" s="127"/>
+      <c r="B18" s="117">
         <v>6</v>
       </c>
-      <c r="C18" s="108" t="s">
+      <c r="C18" s="120" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="14">
@@ -21326,9 +21326,9 @@
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="111"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="108"/>
+      <c r="A19" s="127"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
       <c r="D19" s="14">
         <v>2010</v>
       </c>
@@ -21379,9 +21379,9 @@
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="111"/>
-      <c r="B20" s="107"/>
-      <c r="C20" s="108"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="120"/>
       <c r="D20" s="25">
         <v>2014</v>
       </c>
@@ -21432,11 +21432,11 @@
       </c>
     </row>
     <row r="21" spans="1:19">
-      <c r="A21" s="111"/>
-      <c r="B21" s="105">
+      <c r="A21" s="127"/>
+      <c r="B21" s="117">
         <v>7</v>
       </c>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="120" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="14">
@@ -21489,9 +21489,9 @@
       </c>
     </row>
     <row r="22" spans="1:19">
-      <c r="A22" s="111"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="108"/>
+      <c r="A22" s="127"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
       <c r="D22" s="14">
         <v>2010</v>
       </c>
@@ -21542,9 +21542,9 @@
       </c>
     </row>
     <row r="23" spans="1:19">
-      <c r="A23" s="111"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="108"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="120"/>
       <c r="D23" s="25">
         <v>2014</v>
       </c>
@@ -21595,11 +21595,11 @@
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="111"/>
-      <c r="B24" s="105">
+      <c r="A24" s="127"/>
+      <c r="B24" s="117">
         <v>8</v>
       </c>
-      <c r="C24" s="108" t="s">
+      <c r="C24" s="120" t="s">
         <v>6</v>
       </c>
       <c r="D24" s="14">
@@ -21652,9 +21652,9 @@
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="111"/>
-      <c r="B25" s="106"/>
-      <c r="C25" s="108"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="120"/>
       <c r="D25" s="14">
         <v>2010</v>
       </c>
@@ -21705,9 +21705,9 @@
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="111"/>
-      <c r="B26" s="107"/>
-      <c r="C26" s="108"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="25">
         <v>2014</v>
       </c>
@@ -21758,11 +21758,11 @@
       </c>
     </row>
     <row r="27" spans="1:19">
-      <c r="A27" s="111"/>
-      <c r="B27" s="105">
+      <c r="A27" s="127"/>
+      <c r="B27" s="117">
         <v>14</v>
       </c>
-      <c r="C27" s="114" t="s">
+      <c r="C27" s="121" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="14">
@@ -21815,9 +21815,9 @@
       </c>
     </row>
     <row r="28" spans="1:19">
-      <c r="A28" s="111"/>
-      <c r="B28" s="106"/>
-      <c r="C28" s="115"/>
+      <c r="A28" s="127"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="14">
         <v>2010</v>
       </c>
@@ -21868,9 +21868,9 @@
       </c>
     </row>
     <row r="29" spans="1:19">
-      <c r="A29" s="111"/>
-      <c r="B29" s="107"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="127"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="123"/>
       <c r="D29" s="25">
         <v>2014</v>
       </c>
@@ -21921,11 +21921,11 @@
       </c>
     </row>
     <row r="30" spans="1:19">
-      <c r="A30" s="111"/>
-      <c r="B30" s="105">
+      <c r="A30" s="127"/>
+      <c r="B30" s="117">
         <v>9</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="120" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="14">
@@ -21978,9 +21978,9 @@
       </c>
     </row>
     <row r="31" spans="1:19">
-      <c r="A31" s="111"/>
-      <c r="B31" s="106"/>
-      <c r="C31" s="108"/>
+      <c r="A31" s="127"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
       <c r="D31" s="14">
         <v>2010</v>
       </c>
@@ -22031,9 +22031,9 @@
       </c>
     </row>
     <row r="32" spans="1:19">
-      <c r="A32" s="111"/>
-      <c r="B32" s="107"/>
-      <c r="C32" s="108"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="120"/>
       <c r="D32" s="25">
         <v>2014</v>
       </c>
@@ -22084,11 +22084,11 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" s="111"/>
-      <c r="B33" s="105">
+      <c r="A33" s="127"/>
+      <c r="B33" s="117">
         <v>10</v>
       </c>
-      <c r="C33" s="108" t="s">
+      <c r="C33" s="120" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="14">
@@ -22141,9 +22141,9 @@
       </c>
     </row>
     <row r="34" spans="1:41">
-      <c r="A34" s="111"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="108"/>
+      <c r="A34" s="127"/>
+      <c r="B34" s="118"/>
+      <c r="C34" s="120"/>
       <c r="D34" s="14">
         <v>2010</v>
       </c>
@@ -22194,9 +22194,9 @@
       </c>
     </row>
     <row r="35" spans="1:41">
-      <c r="A35" s="111"/>
-      <c r="B35" s="107"/>
-      <c r="C35" s="108"/>
+      <c r="A35" s="127"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="120"/>
       <c r="D35" s="25">
         <v>2014</v>
       </c>
@@ -22247,11 +22247,11 @@
       </c>
     </row>
     <row r="36" spans="1:41">
-      <c r="A36" s="111"/>
-      <c r="B36" s="105">
+      <c r="A36" s="127"/>
+      <c r="B36" s="117">
         <v>11</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="120" t="s">
         <v>21</v>
       </c>
       <c r="D36" s="14">
@@ -22304,9 +22304,9 @@
       </c>
     </row>
     <row r="37" spans="1:41">
-      <c r="A37" s="111"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="108"/>
+      <c r="A37" s="127"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="120"/>
       <c r="D37" s="14">
         <v>2010</v>
       </c>
@@ -22357,9 +22357,9 @@
       </c>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="111"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
+      <c r="A38" s="127"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="120"/>
       <c r="D38" s="25">
         <v>2014</v>
       </c>
@@ -22410,11 +22410,11 @@
       </c>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="111"/>
-      <c r="B39" s="105">
+      <c r="A39" s="127"/>
+      <c r="B39" s="117">
         <v>12</v>
       </c>
-      <c r="C39" s="108" t="s">
+      <c r="C39" s="120" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="14">
@@ -22467,9 +22467,9 @@
       </c>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="111"/>
-      <c r="B40" s="106"/>
-      <c r="C40" s="108"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="120"/>
       <c r="D40" s="14">
         <v>2010</v>
       </c>
@@ -22520,9 +22520,9 @@
       </c>
     </row>
     <row r="41" spans="1:41">
-      <c r="A41" s="111"/>
-      <c r="B41" s="107"/>
-      <c r="C41" s="108"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="120"/>
       <c r="D41" s="25">
         <v>2014</v>
       </c>
@@ -22573,11 +22573,11 @@
       </c>
     </row>
     <row r="42" spans="1:41">
-      <c r="A42" s="111"/>
-      <c r="B42" s="105">
+      <c r="A42" s="127"/>
+      <c r="B42" s="117">
         <v>13</v>
       </c>
-      <c r="C42" s="108" t="s">
+      <c r="C42" s="120" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="14">
@@ -22630,9 +22630,9 @@
       </c>
     </row>
     <row r="43" spans="1:41">
-      <c r="A43" s="111"/>
-      <c r="B43" s="106"/>
-      <c r="C43" s="108"/>
+      <c r="A43" s="127"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="120"/>
       <c r="D43" s="14">
         <v>2010</v>
       </c>
@@ -22683,9 +22683,9 @@
       </c>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="112"/>
-      <c r="B44" s="107"/>
-      <c r="C44" s="108"/>
+      <c r="A44" s="128"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="120"/>
       <c r="D44" s="25">
         <v>2014</v>
       </c>
@@ -22736,81 +22736,81 @@
       </c>
     </row>
     <row r="46" spans="1:41" ht="15.75" customHeight="1">
-      <c r="A46" s="108" t="s">
+      <c r="A46" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="108"/>
-      <c r="C46" s="108" t="s">
+      <c r="B46" s="120"/>
+      <c r="C46" s="120" t="s">
         <v>50</v>
       </c>
-      <c r="D46" s="108"/>
-      <c r="E46" s="108"/>
-      <c r="F46" s="108" t="s">
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108" t="s">
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="J46" s="108"/>
-      <c r="K46" s="108"/>
-      <c r="L46" s="108" t="s">
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="M46" s="108"/>
-      <c r="N46" s="108"/>
-      <c r="O46" s="108" t="s">
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="108"/>
-      <c r="R46" s="108" t="s">
+      <c r="P46" s="120"/>
+      <c r="Q46" s="120"/>
+      <c r="R46" s="120" t="s">
         <v>87</v>
       </c>
-      <c r="S46" s="108"/>
-      <c r="T46" s="108"/>
-      <c r="U46" s="114" t="s">
+      <c r="S46" s="120"/>
+      <c r="T46" s="120"/>
+      <c r="U46" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="V46" s="115"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="114" t="s">
+      <c r="V46" s="122"/>
+      <c r="W46" s="123"/>
+      <c r="X46" s="121" t="s">
         <v>54</v>
       </c>
-      <c r="Y46" s="115"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="108" t="s">
+      <c r="Y46" s="122"/>
+      <c r="Z46" s="123"/>
+      <c r="AA46" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="AB46" s="108"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="108" t="s">
+      <c r="AB46" s="120"/>
+      <c r="AC46" s="120"/>
+      <c r="AD46" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="AE46" s="108"/>
-      <c r="AF46" s="108"/>
-      <c r="AG46" s="108" t="s">
+      <c r="AE46" s="120"/>
+      <c r="AF46" s="120"/>
+      <c r="AG46" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="AH46" s="108"/>
-      <c r="AI46" s="108"/>
-      <c r="AJ46" s="108" t="s">
+      <c r="AH46" s="120"/>
+      <c r="AI46" s="120"/>
+      <c r="AJ46" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="AK46" s="108"/>
-      <c r="AL46" s="108"/>
-      <c r="AM46" s="108" t="s">
+      <c r="AK46" s="120"/>
+      <c r="AL46" s="120"/>
+      <c r="AM46" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AN46" s="108"/>
-      <c r="AO46" s="108"/>
+      <c r="AN46" s="120"/>
+      <c r="AO46" s="120"/>
     </row>
     <row r="47" spans="1:41" ht="42.75" customHeight="1">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B47" s="108"/>
+      <c r="B47" s="120"/>
       <c r="C47" s="54" t="s">
         <v>72</v>
       </c>
@@ -22930,10 +22930,10 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="33" customHeight="1">
-      <c r="A48" s="108" t="s">
+      <c r="A48" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="108"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="54">
         <v>4</v>
       </c>
@@ -23064,7 +23064,7 @@
       </c>
     </row>
     <row r="50" spans="2:4">
-      <c r="B50" s="124"/>
+      <c r="B50" s="110"/>
       <c r="C50" s="63">
         <v>2010</v>
       </c>
@@ -23073,7 +23073,7 @@
       </c>
     </row>
     <row r="51" spans="2:4">
-      <c r="B51" s="124"/>
+      <c r="B51" s="110"/>
       <c r="C51" s="63">
         <v>2014</v>
       </c>
@@ -23083,26 +23083,23 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="AA46:AC46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="AG46:AI46"/>
+    <mergeCell ref="AJ46:AL46"/>
+    <mergeCell ref="AM46:AO46"/>
+    <mergeCell ref="O46:Q46"/>
+    <mergeCell ref="R46:T46"/>
+    <mergeCell ref="U46:W46"/>
+    <mergeCell ref="X46:Z46"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:C41"/>
     <mergeCell ref="B42:B44"/>
@@ -23119,23 +23116,26 @@
     <mergeCell ref="B24:B26"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="B27:B29"/>
-    <mergeCell ref="AG46:AI46"/>
-    <mergeCell ref="AJ46:AL46"/>
-    <mergeCell ref="AM46:AO46"/>
-    <mergeCell ref="O46:Q46"/>
-    <mergeCell ref="R46:T46"/>
-    <mergeCell ref="U46:W46"/>
-    <mergeCell ref="X46:Z46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="AA46:AC46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="L46:N46"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
